--- a/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
+++ b/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,14 +949,14 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.06</v>
+        <v>1.72</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>30/07/2023 16:14</t>
+          <t>30/07/2023 10:30</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.26</v>
+        <v>3.45</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.45</v>
+        <v>3.64</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>30/07/2023 17:04</t>
+          <t>30/07/2023 17:05</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.5</v>
+        <v>4.12</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.37</v>
+        <v>4.87</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>30/07/2023 16:14</t>
+          <t>30/07/2023 10:30</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-tiszakecske/tIOGmh85/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-soroksar/8WvcTNMj/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mosonmagyarovari TE</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Szeged</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
       <c r="J7" t="n">
-        <v>3.34</v>
+        <v>1.69</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.01</v>
+        <v>1.93</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>30/07/2023 17:32</t>
+          <t>30/07/2023 18:03</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.04</v>
+        <v>3.31</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.17</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>30/07/2023 17:01</t>
+          <t>30/07/2023 18:03</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.11</v>
+        <v>4.76</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.44</v>
+        <v>4.05</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>30/07/2023 17:32</t>
+          <t>30/07/2023 18:03</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-szeged-csanad-ga/OvNqiREc/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-mosonmagyarovari-te/I1MmjoU3/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Szeged</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Honved</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
       <c r="J8" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>30/07/2023 03:12</t>
+          <t>29/07/2023 07:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.01</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>30/07/2023 17:36</t>
+          <t>30/07/2023 17:32</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.47</v>
+        <v>3.04</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>30/07/2023 03:12</t>
+          <t>29/07/2023 07:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.49</v>
+        <v>3.17</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>30/07/2023 17:36</t>
+          <t>30/07/2023 17:01</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>30/07/2023 03:12</t>
+          <t>29/07/2023 07:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.06</v>
+        <v>2.44</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>30/07/2023 14:41</t>
+          <t>30/07/2023 17:32</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-honved/OtELnCNB/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-szeged-csanad-ga/OvNqiREc/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,48 +1240,48 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.72</v>
+        <v>2.06</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>30/07/2023 10:30</t>
+          <t>30/07/2023 16:14</t>
         </is>
       </c>
       <c r="N9" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>29/07/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
         <v>3.45</v>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>30/07/2023 17:04</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>29/07/2023 07:12</t>
         </is>
       </c>
-      <c r="P9" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>30/07/2023 17:05</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>29/07/2023 07:12</t>
-        </is>
-      </c>
       <c r="T9" t="n">
-        <v>4.87</v>
+        <v>3.37</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>30/07/2023 10:30</t>
+          <t>30/07/2023 16:14</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-soroksar/8WvcTNMj/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-tiszakecske/tIOGmh85/</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1317,63 +1317,63 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>1.69</v>
+        <v>3.41</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>29/07/2023 07:12</t>
+          <t>30/07/2023 03:12</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.93</v>
+        <v>3.5</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>30/07/2023 18:03</t>
+          <t>30/07/2023 17:36</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.31</v>
+        <v>3.47</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>29/07/2023 07:12</t>
+          <t>30/07/2023 03:12</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>30/07/2023 18:03</t>
+          <t>30/07/2023 17:36</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.76</v>
+        <v>2.03</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>29/07/2023 07:12</t>
+          <t>30/07/2023 03:12</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>4.05</v>
+        <v>2.06</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>30/07/2023 18:03</t>
+          <t>30/07/2023 14:41</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-mosonmagyarovari-te/I1MmjoU3/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-honved/OtELnCNB/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>2.42</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.34</v>
+        <v>2.65</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>06/08/2023 16:26</t>
+          <t>06/08/2023 16:48</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.92</v>
+        <v>3.22</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.31</v>
+        <v>3.33</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:28</t>
+          <t>06/08/2023 16:48</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.43</v>
+        <v>2.72</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:28</t>
+          <t>06/08/2023 16:48</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-ajka/GfygmqEM/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-gyirmot-fc-gyor/AHzcn3TS/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>1.56</v>
+        <v>2.24</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.61</v>
+        <v>2.24</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:26</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.48</v>
+        <v>3.03</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.22</v>
+        <v>3.12</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:29</t>
+          <t>06/08/2023 15:31</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.97</v>
+        <v>3.19</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>5.02</v>
+        <v>3.19</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:26</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kozarmisleny-se/8hGXu16d/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-kazincbarcikai/dhLik5qA/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.42</v>
+        <v>1.56</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.65</v>
+        <v>1.61</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>06/08/2023 16:48</t>
+          <t>06/08/2023 17:26</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.22</v>
+        <v>4.48</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.33</v>
+        <v>4.22</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>06/08/2023 16:48</t>
+          <t>06/08/2023 17:29</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.72</v>
+        <v>4.97</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.63</v>
+        <v>5.02</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>06/08/2023 16:48</t>
+          <t>06/08/2023 17:26</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-gyirmot-fc-gyor/AHzcn3TS/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kozarmisleny-se/8hGXu16d/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Ajka</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Kazincbarcikai</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
       <c r="J15" t="n">
-        <v>2.24</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,48 +1792,48 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
+          <t>06/08/2023 16:26</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>05/08/2023 05:42</t>
         </is>
       </c>
-      <c r="N15" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>06/08/2023 17:28</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>05/08/2023 05:42</t>
         </is>
       </c>
-      <c r="P15" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>06/08/2023 15:31</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>05/08/2023 05:42</t>
-        </is>
-      </c>
       <c r="T15" t="n">
-        <v>3.19</v>
+        <v>3.1</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 17:28</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-kazincbarcikai/dhLik5qA/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-ajka/GfygmqEM/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.93</v>
+        <v>2.61</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>06/08/2023 18:45</t>
+          <t>06/08/2023 18:00</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.92</v>
+        <v>3.01</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>06/08/2023 17:02</t>
+          <t>06/08/2023 18:00</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.63</v>
+        <v>2.76</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>06/08/2023 18:45</t>
+          <t>06/08/2023 18:00</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-pecsi-mfc/za8J34b3/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-nyiregyhaza/d89F4pqc/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.62</v>
+        <v>2.57</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 07:13</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.6</v>
+        <v>2.93</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>06/08/2023 18:05</t>
+          <t>06/08/2023 18:45</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4.15</v>
+        <v>2.92</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 07:13</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.13</v>
+        <v>2.98</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>06/08/2023 18:50</t>
+          <t>06/08/2023 17:02</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>4.87</v>
+        <v>2.7</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 07:13</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>5.25</v>
+        <v>2.63</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>06/08/2023 18:59</t>
+          <t>06/08/2023 18:45</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-bvsc-zuglo/nwSOsNyp/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-pecsi-mfc/za8J34b3/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,63 +2053,63 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.19</v>
+        <v>1.62</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>05/08/2023 07:13</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.57</v>
+        <v>1.6</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>06/08/2023 17:54</t>
+          <t>06/08/2023 18:05</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.23</v>
+        <v>4.15</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>05/08/2023 07:13</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.51</v>
+        <v>4.13</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>06/08/2023 17:54</t>
+          <t>06/08/2023 18:50</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>4.87</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>05/08/2023 07:13</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.61</v>
+        <v>5.25</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>06/08/2023 17:54</t>
+          <t>06/08/2023 18:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-haladas/U1HTtsij/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-bvsc-zuglo/nwSOsNyp/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.73</v>
+        <v>2.19</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,48 +2160,48 @@
         </is>
       </c>
       <c r="L19" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>06/08/2023 17:54</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>05/08/2023 07:13</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>06/08/2023 17:54</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>05/08/2023 07:13</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
         <v>2.61</v>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>06/08/2023 18:00</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>05/08/2023 07:13</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>06/08/2023 18:00</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>05/08/2023 07:13</t>
-        </is>
-      </c>
-      <c r="T19" t="n">
-        <v>2.76</v>
-      </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>06/08/2023 18:00</t>
+          <t>06/08/2023 17:54</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-nyiregyhaza/d89F4pqc/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-haladas/U1HTtsij/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13/08/2023 08:09</t>
+          <t>13/08/2023 17:14</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.4</v>
+        <v>3.21</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.38</v>
+        <v>3.39</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>13/08/2023 15:33</t>
+          <t>13/08/2023 16:31</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.81</v>
+        <v>3.29</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.75</v>
+        <v>2.99</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13/08/2023 08:09</t>
+          <t>13/08/2023 17:14</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-honved/INcO2OD9/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-budafoki-mte/UFd2et6q/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>13/08/2023 17:14</t>
+          <t>13/08/2023 08:09</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.21</v>
+        <v>3.4</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.39</v>
+        <v>3.38</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>13/08/2023 16:31</t>
+          <t>13/08/2023 15:33</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.29</v>
+        <v>2.81</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.99</v>
+        <v>2.75</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 17:14</t>
+          <t>13/08/2023 08:09</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-budafoki-mte/UFd2et6q/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-honved/INcO2OD9/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.38</v>
+        <v>1.49</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.7</v>
+        <v>1.52</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>13/08/2023 18:44</t>
+          <t>12/08/2023 12:53</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.96</v>
+        <v>3.94</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.05</v>
+        <v>4.08</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>13/08/2023 18:07</t>
+          <t>13/08/2023 17:02</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.91</v>
+        <v>5.73</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.79</v>
+        <v>6.25</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>13/08/2023 18:44</t>
+          <t>12/08/2023 12:53</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-szeged-csanad-ga/86e6f0Lk/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-mosonmagyarovari-te/2TfAgKzd/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.47</v>
+        <v>2.26</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3.24</v>
+        <v>2.27</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>13/08/2023 18:47</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.29</v>
+        <v>3.46</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>13/08/2023 18:47</t>
+          <t>13/08/2023 18:14</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.61</v>
+        <v>2.8</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.25</v>
+        <v>3.04</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>13/08/2023 11:08</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-gyor/AVFV02rM/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-haladas/G8GR1rTF/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.27</v>
+        <v>2.7</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 18:44</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.43</v>
+        <v>2.96</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.46</v>
+        <v>3.05</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>13/08/2023 18:14</t>
+          <t>13/08/2023 18:07</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.04</v>
+        <v>2.79</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 18:44</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-haladas/G8GR1rTF/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-szeged-csanad-ga/86e6f0Lk/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.27</v>
+        <v>2.95</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.16</v>
+        <v>2.79</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.22</v>
+        <v>2.93</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.31</v>
+        <v>2.92</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.93</v>
+        <v>2.38</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.43</v>
+        <v>2.8</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-tiszakecske/IywcHNS2/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-pecsi-mfc/GWbEhvj2/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.95</v>
+        <v>2.47</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.79</v>
+        <v>3.24</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:47</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>2.93</v>
+        <v>3.29</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>2.92</v>
+        <v>3.29</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:47</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.38</v>
+        <v>2.61</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 11:08</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-pecsi-mfc/GWbEhvj2/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-gyor/AVFV02rM/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.49</v>
+        <v>2.27</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.52</v>
+        <v>2.16</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>12/08/2023 12:53</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.94</v>
+        <v>3.22</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.08</v>
+        <v>3.31</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13/08/2023 17:02</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5.73</v>
+        <v>2.93</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>6.25</v>
+        <v>3.43</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>12/08/2023 12:53</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-mosonmagyarovari-te/2TfAgKzd/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-tiszakecske/IywcHNS2/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>15/08/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>16/08/2023 17:27</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>15/08/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>16/08/2023 17:27</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
         <v>2.84</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>15/08/2023 05:42</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>16/08/2023 16:02</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>15/08/2023 05:42</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>16/08/2023 16:02</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>15/08/2023 05:42</t>
-        </is>
-      </c>
       <c r="T30" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/08/2023 16:02</t>
+          <t>16/08/2023 17:21</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-ajka/rqz9ELCL/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-nyiregyhaza/hI9h6cK1/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.33</v>
+        <v>1.58</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.97</v>
+        <v>1.67</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/08/2023 17:27</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.13</v>
+        <v>3.94</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.28</v>
+        <v>3.79</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16/08/2023 17:27</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.84</v>
+        <v>5.6</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.4</v>
+        <v>5.15</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/08/2023 17:21</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-nyiregyhaza/hI9h6cK1/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-bvsc-zuglo/2TGu9azq/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Ajka</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>2</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>BVSC-Zuglo</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>1.58</v>
+        <v>2.84</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.67</v>
+        <v>3.5</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 16:02</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.94</v>
+        <v>3.23</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.79</v>
+        <v>3.29</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 16:02</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>5.6</v>
+        <v>2.33</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>5.15</v>
+        <v>2.14</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 16:02</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-bvsc-zuglo/2TGu9azq/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-ajka/rqz9ELCL/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:59</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.73</v>
+        <v>3.22</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.61</v>
+        <v>3.21</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:59</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>4.16</v>
+        <v>3.41</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.77</v>
+        <v>3.59</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:59</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-tiszakecske/W88d5HZ7/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyirmot-fc-gyor/Q7PDDuSR/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.01</v>
+        <v>2.34</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,48 +3632,48 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:59</t>
+          <t>16/08/2023 18:44</t>
         </is>
       </c>
       <c r="N35" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>15/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
         <v>3.22</v>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>16/08/2023 18:44</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>15/08/2023 07:12</t>
         </is>
       </c>
-      <c r="P35" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>16/08/2023 18:59</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>15/08/2023 07:12</t>
-        </is>
-      </c>
       <c r="T35" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:59</t>
+          <t>16/08/2023 18:44</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyirmot-fc-gyor/Q7PDDuSR/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-siofok/dSy1Gsr9/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.34</v>
+        <v>1.8</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>2.98</v>
+        <v>3.73</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.22</v>
+        <v>3.61</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.96</v>
+        <v>4.16</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.46</v>
+        <v>3.77</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-siofok/dSy1Gsr9/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-tiszakecske/W88d5HZ7/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>1.7</v>
+        <v>2.29</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.76</v>
+        <v>2.72</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>19/08/2023 17:19</t>
+          <t>19/08/2023 17:15</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.83</v>
+        <v>3.17</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.86</v>
+        <v>3.35</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>19/08/2023 17:19</t>
+          <t>19/08/2023 15:44</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.1</v>
+        <v>2.94</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>4.31</v>
+        <v>2.56</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>19/08/2023 17:19</t>
+          <t>19/08/2023 17:15</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-mosonmagyarovari-te/AgtJMI4r/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-gyor/pCdvU0C8/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>2.29</v>
+        <v>1.7</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.72</v>
+        <v>1.76</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19/08/2023 17:15</t>
+          <t>19/08/2023 17:19</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.17</v>
+        <v>3.83</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.35</v>
+        <v>3.86</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19/08/2023 15:44</t>
+          <t>19/08/2023 17:19</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.94</v>
+        <v>4.1</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.56</v>
+        <v>4.31</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>19/08/2023 17:15</t>
+          <t>19/08/2023 17:19</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-gyor/pCdvU0C8/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-mosonmagyarovari-te/AgtJMI4r/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>2.1</v>
+        <v>1.51</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.04</v>
+        <v>1.65</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.01</v>
+        <v>4.2</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.26</v>
+        <v>3.88</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.4</v>
+        <v>6.12</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.83</v>
+        <v>5.16</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-pecsi-mfc/lpuNLxKl/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-kazincbarcikai/W8URKdZf/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Pecsi MFC</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>2</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Soroksar</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
       <c r="J42" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.3</v>
+        <v>3.01</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.36</v>
+        <v>3.26</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.12</v>
+        <v>3.83</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-soroksar/dn0rTKRE/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-pecsi-mfc/lpuNLxKl/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,63 +4353,63 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>1.51</v>
+        <v>2.12</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.65</v>
+        <v>2.36</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.2</v>
+        <v>3.22</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.88</v>
+        <v>3.28</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>6.12</v>
+        <v>3.12</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>5.16</v>
+        <v>3.05</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-kazincbarcikai/W8URKdZf/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-haladas/pCYVJGl1/</t>
         </is>
       </c>
     </row>
@@ -4437,46 +4437,46 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>3.27</v>
+        <v>2.69</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.95</v>
+        <v>2.48</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>19/08/2023 18:55</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.49</v>
+        <v>3.2</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.49</v>
+        <v>3.29</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,24 +4484,24 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.11</v>
+        <v>2.45</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.31</v>
+        <v>2.86</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>19/08/2023 18:55</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-honved/vZXZIz47/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-budafoki-mte/vBkmSvsL/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,63 +4537,63 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>2.12</v>
+        <v>3.27</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.36</v>
+        <v>2.95</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:55</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.22</v>
+        <v>3.49</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.28</v>
+        <v>3.49</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.12</v>
+        <v>2.11</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.05</v>
+        <v>2.31</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:55</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-haladas/pCYVJGl1/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-honved/vZXZIz47/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2.69</v>
+        <v>2.22</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.29</v>
+        <v>3.36</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.86</v>
+        <v>3.12</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-budafoki-mte/vBkmSvsL/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-soroksar/dn0rTKRE/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,11 +4736,11 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.84</v>
+        <v>2.64</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>27/08/2023 17:28</t>
+          <t>27/08/2023 17:25</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.35</v>
+        <v>3.44</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>27/08/2023 17:23</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>27/08/2023 17:28</t>
+          <t>27/08/2023 17:25</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-nyiregyhaza/C0gd5xi5/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-bvsc-zuglo/xr1q8v7n/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>1.99</v>
+        <v>2.39</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.28</v>
+        <v>2.84</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>27/08/2023 17:25</t>
+          <t>27/08/2023 17:28</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.24</v>
+        <v>3.16</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>27/08/2023 17:22</t>
+          <t>27/08/2023 17:23</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.45</v>
+        <v>2.72</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.37</v>
+        <v>2.46</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>27/08/2023 17:25</t>
+          <t>27/08/2023 17:28</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-kozarmisleny-se/Y9fh6Iya/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-nyiregyhaza/C0gd5xi5/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>2.33</v>
+        <v>1.99</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.64</v>
+        <v>2.28</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.16</v>
+        <v>3.24</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.44</v>
+        <v>3.1</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 17:22</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.58</v>
+        <v>3.37</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-bvsc-zuglo/xr1q8v7n/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-kozarmisleny-se/Y9fh6Iya/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.61</v>
+        <v>2.81</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.71</v>
+        <v>2.26</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>27/08/2023 18:51</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.71</v>
+        <v>2.98</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.79</v>
+        <v>3.02</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>27/08/2023 18:51</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.78</v>
+        <v>3.01</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>27/08/2023 18:51</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-siofok/IPWwIfJD/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-ajka/6evCQnND/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.18</v>
+        <v>1.59</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.19</v>
+        <v>1.58</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>27/08/2023 18:54</t>
+          <t>27/08/2023 09:56</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.09</v>
+        <v>3.82</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.25</v>
+        <v>4.03</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>27/08/2023 18:24</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.13</v>
+        <v>4.95</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.41</v>
+        <v>5.65</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>27/08/2023 18:54</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyirmot-fc-gyor/rL1u9Kit/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-tiszakecske/tzb04d6B/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.81</v>
+        <v>1.61</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.26</v>
+        <v>1.71</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:51</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2.98</v>
+        <v>3.71</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.02</v>
+        <v>3.79</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:51</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.01</v>
+        <v>4.78</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:51</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-ajka/6evCQnND/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-siofok/IPWwIfJD/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Csakvari</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>2</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Tiszakecske</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
       <c r="J53" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/08/2023 09:56</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.82</v>
+        <v>3.48</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.03</v>
+        <v>3.78</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.95</v>
+        <v>4.18</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>5.65</v>
+        <v>4.55</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-tiszakecske/tzb04d6B/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-csakvari/jo5m7bMh/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.74</v>
+        <v>2.18</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.75</v>
+        <v>2.19</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:54</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.48</v>
+        <v>3.09</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.78</v>
+        <v>3.25</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:24</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.18</v>
+        <v>3.13</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.55</v>
+        <v>3.41</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:54</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-csakvari/jo5m7bMh/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyirmot-fc-gyor/rL1u9Kit/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.14</v>
+        <v>2.48</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.32</v>
+        <v>2.47</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>03/09/2023 16:44</t>
+          <t>03/09/2023 16:48</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.3</v>
+        <v>3.17</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.38</v>
+        <v>3.14</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>03/09/2023 16:44</t>
+          <t>03/09/2023 16:48</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.03</v>
+        <v>2.62</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>03/09/2023 16:44</t>
+          <t>03/09/2023 16:48</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-haladas/GhCrHZkH/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-szeged-csanad-ga/EPkD1fjU/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.48</v>
+        <v>1.89</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.47</v>
+        <v>1.93</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>03/09/2023 16:48</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.17</v>
+        <v>3.48</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.14</v>
+        <v>3.57</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>03/09/2023 16:48</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.62</v>
+        <v>3.5</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.99</v>
+        <v>3.86</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>03/09/2023 16:48</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-szeged-csanad-ga/EPkD1fjU/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-mosonmagyarovari-te/joRIMwMu/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Vasas</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>2</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Mosonmagyarovari TE</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
       <c r="J63" t="n">
-        <v>1.89</v>
+        <v>2.82</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.93</v>
+        <v>3.52</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.48</v>
+        <v>3.17</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.57</v>
+        <v>3.28</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.5</v>
+        <v>2.32</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.86</v>
+        <v>2.13</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-mosonmagyarovari-te/joRIMwMu/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-vasas/Q3JVJy6b/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.82</v>
+        <v>2.14</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.52</v>
+        <v>2.32</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:44</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.17</v>
+        <v>3.3</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.28</v>
+        <v>3.38</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:44</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.32</v>
+        <v>3.03</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.13</v>
+        <v>3.02</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:44</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-vasas/Q3JVJy6b/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-haladas/GhCrHZkH/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>2.61</v>
+        <v>1.86</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.61</v>
+        <v>1.95</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>24/09/2023 15:57</t>
+          <t>24/09/2023 15:34</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>24/09/2023 15:57</t>
+          <t>24/09/2023 15:34</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.49</v>
+        <v>3.88</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.1</v>
+        <v>4.16</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>24/09/2023 15:57</t>
+          <t>24/09/2023 14:04</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-kozarmisleny-se/KQv5YzLi/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-tiszakecske/hvwDWEk4/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>1.86</v>
+        <v>2.61</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.95</v>
+        <v>3.61</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>24/09/2023 15:34</t>
+          <t>24/09/2023 15:57</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.27</v>
+        <v>3.29</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>24/09/2023 15:34</t>
+          <t>24/09/2023 15:57</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.88</v>
+        <v>2.49</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.16</v>
+        <v>2.1</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>24/09/2023 14:04</t>
+          <t>24/09/2023 15:57</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-tiszakecske/hvwDWEk4/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-kozarmisleny-se/KQv5YzLi/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>24/09/2023 16:57</t>
+          <t>24/09/2023 16:56</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.06</v>
+        <v>3.3</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>24/09/2023 16:50</t>
+          <t>24/09/2023 16:56</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.87</v>
+        <v>3.62</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.85</v>
+        <v>3.34</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>24/09/2023 16:57</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-csakvari/6Nz1ZG5o/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-bvsc-zuglo/4IdIAXSp/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.47</v>
+        <v>2.12</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:57</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.18</v>
+        <v>3.26</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.23</v>
+        <v>3.06</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:50</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.4</v>
+        <v>3.87</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.92</v>
+        <v>3.85</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:57</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-nyiregyhaza/Emv9Xfzb/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-csakvari/6Nz1ZG5o/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.2</v>
+        <v>1.76</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.31</v>
+        <v>3.78</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.3</v>
+        <v>3.71</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.62</v>
+        <v>4.55</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.34</v>
+        <v>4.54</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-bvsc-zuglo/4IdIAXSp/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-gyirmot-fc-gyor/29AjFDKT/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Siofok</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
         <v>2</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Gyirmot</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
       <c r="J71" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:31</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.78</v>
+        <v>3.27</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,32 +6960,32 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.71</v>
+        <v>3.49</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:46</t>
         </is>
       </c>
       <c r="R71" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>23/09/2023 05:13</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
         <v>4.55</v>
       </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>23/09/2023 05:13</t>
-        </is>
-      </c>
-      <c r="T71" t="n">
-        <v>4.54</v>
-      </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:31</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-gyirmot-fc-gyor/29AjFDKT/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-siofok/fqBnGg5N/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.81</v>
+        <v>2.47</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:31</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.27</v>
+        <v>3.18</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.49</v>
+        <v>3.23</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:46</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>4.55</v>
+        <v>2.92</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:31</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-siofok/fqBnGg5N/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-nyiregyhaza/Emv9Xfzb/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>2.29</v>
+        <v>2.8</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.28</v>
+        <v>3.13</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:46</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.36</v>
+        <v>3.09</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:46</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.03</v>
+        <v>2.43</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.12</v>
+        <v>2.41</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:46</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-pecsi-mfc/tElTSWlT/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-szeged-csanad-ga/lKBfqhZ9/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>3.48</v>
+        <v>2.29</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>4.72</v>
+        <v>2.28</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:48</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.33</v>
+        <v>2.99</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.87</v>
+        <v>3.36</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:48</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>1.98</v>
+        <v>3.03</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>1.7</v>
+        <v>3.12</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:48</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-gyor/rsBbrClG/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-pecsi-mfc/tElTSWlT/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>2.8</v>
+        <v>3.48</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3.13</v>
+        <v>4.72</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>27/09/2023 17:46</t>
+          <t>27/09/2023 17:48</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.01</v>
+        <v>3.33</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.09</v>
+        <v>3.87</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>27/09/2023 17:46</t>
+          <t>27/09/2023 17:48</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.43</v>
+        <v>1.98</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.41</v>
+        <v>1.7</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>27/09/2023 17:46</t>
+          <t>27/09/2023 17:48</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-szeged-csanad-ga/lKBfqhZ9/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-gyor/rsBbrClG/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.45</v>
+        <v>2.03</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.51</v>
+        <v>2.19</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:39</t>
+          <t>01/10/2023 16:38</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4.23</v>
+        <v>3.23</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4.2</v>
+        <v>3.32</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:39</t>
+          <t>01/10/2023 16:38</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>5.96</v>
+        <v>3.34</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>6.36</v>
+        <v>3.33</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:39</t>
+          <t>01/10/2023 16:38</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-csakvari/4hDRyARq/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-honved/hEgMcil3/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2.03</v>
+        <v>2.34</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.19</v>
+        <v>2.51</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>01/10/2023 16:38</t>
+          <t>01/10/2023 16:59</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.23</v>
+        <v>3.15</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.32</v>
+        <v>3.04</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>01/10/2023 16:38</t>
+          <t>01/10/2023 16:59</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.34</v>
+        <v>2.81</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.33</v>
+        <v>3.03</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>01/10/2023 16:38</t>
+          <t>01/10/2023 16:57</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-honved/hEgMcil3/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-kozarmisleny-se/bFCVzUtj/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>BVSC-Zuglo</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
         <v>1</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Kozarmisleny SE</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
       <c r="J89" t="n">
-        <v>2.34</v>
+        <v>1.72</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.51</v>
+        <v>1.83</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>01/10/2023 16:59</t>
+          <t>01/10/2023 15:04</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.04</v>
+        <v>3.49</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>01/10/2023 16:59</t>
+          <t>01/10/2023 15:04</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.81</v>
+        <v>4.28</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>3.03</v>
+        <v>4.41</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>01/10/2023 16:57</t>
+          <t>01/10/2023 15:04</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-kozarmisleny-se/bFCVzUtj/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-bvsc-zuglo/2qRatjJS/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>1.72</v>
+        <v>1.45</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.83</v>
+        <v>1.51</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>01/10/2023 15:04</t>
+          <t>01/10/2023 16:39</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.5</v>
+        <v>4.23</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.49</v>
+        <v>4.2</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>01/10/2023 15:04</t>
+          <t>01/10/2023 16:39</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>4.28</v>
+        <v>5.96</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.41</v>
+        <v>6.36</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>01/10/2023 15:04</t>
+          <t>01/10/2023 16:39</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-bvsc-zuglo/2qRatjJS/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-csakvari/4hDRyARq/</t>
         </is>
       </c>
     </row>
@@ -8826,6 +8826,650 @@
       <c r="V91" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-nyiregyhaza/CIGZZmdd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>BVSC-Zuglo</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Gyirmot</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>3</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-gyirmot-fc-gyor/QPCAy1X0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Csakvari</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Ajka</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:40</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:40</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:40</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-ajka/nZD6xsIf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Honved</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>3</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Mosonmagyarovari TE</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:37</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:37</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:37</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-mosonmagyarovari-te/zef1bOvE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kozarmisleny SE</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>4</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Vasas</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:40</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:40</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:40</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-vasas/hCE2wN2l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Nyiregyhaza</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Kazincbarcikai</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-kazincbarcikai/txBbv3mr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Siofok</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Soroksar</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:39</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:39</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:39</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-soroksar/WMmAd29Q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Tiszakecske</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Pecsi MFC</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-pecsi-mfc/lbb5crfK/</t>
         </is>
       </c>
     </row>

--- a/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
+++ b/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.49</v>
+        <v>2.95</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.52</v>
+        <v>2.79</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>12/08/2023 12:53</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.94</v>
+        <v>2.93</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>4.08</v>
+        <v>2.92</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>13/08/2023 17:02</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>5.73</v>
+        <v>2.38</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>6.25</v>
+        <v>2.8</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>12/08/2023 12:53</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-mosonmagyarovari-te/2TfAgKzd/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-pecsi-mfc/GWbEhvj2/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.26</v>
+        <v>1.49</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.27</v>
+        <v>1.52</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>12/08/2023 12:53</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.43</v>
+        <v>3.94</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.46</v>
+        <v>4.08</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>13/08/2023 18:14</t>
+          <t>13/08/2023 17:02</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.8</v>
+        <v>5.73</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.04</v>
+        <v>6.25</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>12/08/2023 12:53</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-haladas/G8GR1rTF/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-mosonmagyarovari-te/2TfAgKzd/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.7</v>
+        <v>2.27</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>13/08/2023 18:44</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.96</v>
+        <v>3.43</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.05</v>
+        <v>3.46</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>13/08/2023 18:07</t>
+          <t>13/08/2023 18:14</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.91</v>
+        <v>2.8</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.79</v>
+        <v>3.04</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>13/08/2023 18:44</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-szeged-csanad-ga/86e6f0Lk/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-haladas/G8GR1rTF/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.95</v>
+        <v>2.38</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,48 +2804,48 @@
         </is>
       </c>
       <c r="L26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>13/08/2023 18:44</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>13/08/2023 18:07</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
         <v>2.79</v>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:52</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T26" t="n">
-        <v>2.8</v>
-      </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:44</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-pecsi-mfc/GWbEhvj2/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-szeged-csanad-ga/86e6f0Lk/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.47</v>
+        <v>2.27</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3.24</v>
+        <v>2.16</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13/08/2023 18:47</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.29</v>
+        <v>3.22</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.29</v>
+        <v>3.31</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>13/08/2023 18:47</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.61</v>
+        <v>2.93</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.25</v>
+        <v>3.43</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>13/08/2023 11:08</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-gyor/AVFV02rM/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-tiszakecske/IywcHNS2/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>2.27</v>
+        <v>2.47</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.16</v>
+        <v>3.24</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 18:47</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.22</v>
+        <v>3.29</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 18:47</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.93</v>
+        <v>2.61</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.43</v>
+        <v>2.25</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 11:08</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-tiszakecske/IywcHNS2/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-gyor/AVFV02rM/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.07</v>
+        <v>2.33</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.98</v>
+        <v>2.97</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/08/2023 17:29</t>
+          <t>16/08/2023 17:27</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.33</v>
+        <v>3.13</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.74</v>
+        <v>3.28</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16/08/2023 17:29</t>
+          <t>16/08/2023 17:27</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.34</v>
+        <v>2.4</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/08/2023 17:29</t>
+          <t>16/08/2023 17:21</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-csakvari/djGq8Jkk/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-nyiregyhaza/hI9h6cK1/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.33</v>
+        <v>2.07</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.97</v>
+        <v>1.98</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16/08/2023 17:27</t>
+          <t>16/08/2023 17:29</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.13</v>
+        <v>3.33</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.28</v>
+        <v>3.74</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>16/08/2023 17:27</t>
+          <t>16/08/2023 17:29</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.4</v>
+        <v>3.34</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/08/2023 17:21</t>
+          <t>16/08/2023 17:29</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-nyiregyhaza/hI9h6cK1/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-csakvari/djGq8Jkk/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Ajka</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>2</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>BVSC-Zuglo</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.58</v>
+        <v>2.84</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.67</v>
+        <v>3.5</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 16:02</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.94</v>
+        <v>3.23</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.79</v>
+        <v>3.29</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 16:02</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>5.6</v>
+        <v>2.33</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>5.15</v>
+        <v>2.14</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 16:02</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-bvsc-zuglo/2TGu9azq/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-ajka/rqz9ELCL/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>BVSC-Zuglo</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Ajka</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
       <c r="J32" t="n">
-        <v>2.84</v>
+        <v>1.58</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3.5</v>
+        <v>1.67</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16/08/2023 16:02</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.23</v>
+        <v>3.94</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.29</v>
+        <v>3.79</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>16/08/2023 16:02</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.33</v>
+        <v>5.6</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.14</v>
+        <v>5.15</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16/08/2023 16:02</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-ajka/rqz9ELCL/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-bvsc-zuglo/2TGu9azq/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.34</v>
+        <v>1.8</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>2.98</v>
+        <v>3.73</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.22</v>
+        <v>3.61</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.96</v>
+        <v>4.16</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.46</v>
+        <v>3.77</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-siofok/dSy1Gsr9/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-tiszakecske/W88d5HZ7/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.8</v>
+        <v>2.34</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:44</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.73</v>
+        <v>2.98</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.61</v>
+        <v>3.22</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:44</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.16</v>
+        <v>2.96</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.77</v>
+        <v>3.46</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:44</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-tiszakecske/W88d5HZ7/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-siofok/dSy1Gsr9/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>2.85</v>
+        <v>1.7</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.22</v>
+        <v>1.76</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19/08/2023 15:33</t>
+          <t>19/08/2023 17:19</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.34</v>
+        <v>3.83</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.38</v>
+        <v>3.86</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>19/08/2023 15:33</t>
+          <t>19/08/2023 17:19</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.27</v>
+        <v>4.1</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.22</v>
+        <v>4.31</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>19/08/2023 15:33</t>
+          <t>19/08/2023 17:19</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-szeged-csanad-ga/I1liRbdR/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-mosonmagyarovari-te/AgtJMI4r/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.7</v>
+        <v>2.85</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.76</v>
+        <v>3.22</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19/08/2023 17:19</t>
+          <t>19/08/2023 15:33</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.83</v>
+        <v>3.34</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.86</v>
+        <v>3.38</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19/08/2023 17:19</t>
+          <t>19/08/2023 15:33</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.1</v>
+        <v>2.27</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.31</v>
+        <v>2.22</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>19/08/2023 17:19</t>
+          <t>19/08/2023 15:33</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-mosonmagyarovari-te/AgtJMI4r/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-szeged-csanad-ga/I1liRbdR/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,63 +4169,63 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>1.51</v>
+        <v>2.12</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.65</v>
+        <v>2.36</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.2</v>
+        <v>3.22</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.88</v>
+        <v>3.28</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>6.12</v>
+        <v>3.12</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>5.16</v>
+        <v>3.05</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-kazincbarcikai/W8URKdZf/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-haladas/pCYVJGl1/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.1</v>
+        <v>3.27</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.04</v>
+        <v>2.95</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:55</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.01</v>
+        <v>3.49</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.26</v>
+        <v>3.49</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.4</v>
+        <v>2.11</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.83</v>
+        <v>2.31</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:55</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-pecsi-mfc/lpuNLxKl/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-honved/vZXZIz47/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Pecsi MFC</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>2</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Haladas</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>3</v>
-      </c>
       <c r="J43" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.36</v>
+        <v>2.04</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.22</v>
+        <v>3.01</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.12</v>
+        <v>3.4</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.05</v>
+        <v>3.83</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-haladas/pCYVJGl1/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-pecsi-mfc/lpuNLxKl/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>3.27</v>
+        <v>1.51</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.95</v>
+        <v>1.65</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:55</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.49</v>
+        <v>4.2</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.49</v>
+        <v>3.88</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.11</v>
+        <v>6.12</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.31</v>
+        <v>5.16</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:55</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-honved/vZXZIz47/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-kazincbarcikai/W8URKdZf/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>2.33</v>
+        <v>2.39</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,11 +4736,11 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.64</v>
+        <v>2.84</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>27/08/2023 17:25</t>
+          <t>27/08/2023 17:28</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.44</v>
+        <v>3.35</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 17:23</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>27/08/2023 17:25</t>
+          <t>27/08/2023 17:28</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-bvsc-zuglo/xr1q8v7n/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-nyiregyhaza/C0gd5xi5/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,11 +4828,11 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.84</v>
+        <v>2.64</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>27/08/2023 17:28</t>
+          <t>27/08/2023 17:25</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.35</v>
+        <v>3.44</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>27/08/2023 17:23</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>27/08/2023 17:28</t>
+          <t>27/08/2023 17:25</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-nyiregyhaza/C0gd5xi5/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-bvsc-zuglo/xr1q8v7n/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.81</v>
+        <v>1.74</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.26</v>
+        <v>1.75</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>2.98</v>
+        <v>3.48</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.02</v>
+        <v>3.78</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.5</v>
+        <v>4.18</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.01</v>
+        <v>4.55</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-ajka/6evCQnND/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-csakvari/jo5m7bMh/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>27/08/2023 09:56</t>
+          <t>27/08/2023 18:51</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.82</v>
+        <v>3.71</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4.03</v>
+        <v>3.79</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:51</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.95</v>
+        <v>4.7</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>5.65</v>
+        <v>4.78</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:51</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-tiszakecske/tzb04d6B/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-siofok/IPWwIfJD/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.61</v>
+        <v>2.81</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.71</v>
+        <v>2.26</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>27/08/2023 18:51</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.71</v>
+        <v>2.98</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.79</v>
+        <v>3.02</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>27/08/2023 18:51</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.78</v>
+        <v>3.01</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>27/08/2023 18:51</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-siofok/IPWwIfJD/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-ajka/6evCQnND/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Tiszakecske</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Csakvari</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
       <c r="J53" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,48 +5288,48 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
+          <t>27/08/2023 09:56</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>26/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
           <t>27/08/2023 18:59</t>
         </is>
       </c>
-      <c r="N53" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="O53" t="inlineStr">
+      <c r="R53" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="S53" t="inlineStr">
         <is>
           <t>26/08/2023 07:12</t>
         </is>
       </c>
-      <c r="P53" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="Q53" t="inlineStr">
+      <c r="T53" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="U53" t="inlineStr">
         <is>
           <t>27/08/2023 18:59</t>
         </is>
       </c>
-      <c r="R53" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>26/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>27/08/2023 18:59</t>
-        </is>
-      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-csakvari/jo5m7bMh/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-tiszakecske/tzb04d6B/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.48</v>
+        <v>2.14</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>03/09/2023 16:48</t>
+          <t>03/09/2023 16:44</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.17</v>
+        <v>3.3</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.14</v>
+        <v>3.38</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>03/09/2023 16:48</t>
+          <t>03/09/2023 16:44</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.62</v>
+        <v>3.03</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.99</v>
+        <v>3.02</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>03/09/2023 16:48</t>
+          <t>03/09/2023 16:44</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-szeged-csanad-ga/EPkD1fjU/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-haladas/GhCrHZkH/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.89</v>
+        <v>2.48</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.93</v>
+        <v>2.47</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:48</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.48</v>
+        <v>3.17</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.57</v>
+        <v>3.14</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:48</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.5</v>
+        <v>2.62</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.86</v>
+        <v>2.99</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:48</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-mosonmagyarovari-te/joRIMwMu/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-szeged-csanad-ga/EPkD1fjU/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.82</v>
+        <v>1.89</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3.52</v>
+        <v>1.93</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.17</v>
+        <v>3.48</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.28</v>
+        <v>3.57</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.32</v>
+        <v>3.5</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.13</v>
+        <v>3.86</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-vasas/Q3JVJy6b/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-mosonmagyarovari-te/joRIMwMu/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.14</v>
+        <v>2.82</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,48 +6300,48 @@
         </is>
       </c>
       <c r="L64" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>03/09/2023 16:51</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>02/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>03/09/2023 16:51</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
         <v>2.32</v>
       </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>03/09/2023 16:44</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>02/09/2023 04:12</t>
         </is>
       </c>
-      <c r="P64" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>03/09/2023 16:44</t>
-        </is>
-      </c>
-      <c r="R64" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>02/09/2023 04:12</t>
-        </is>
-      </c>
       <c r="T64" t="n">
-        <v>3.02</v>
+        <v>2.13</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>03/09/2023 16:44</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-haladas/GhCrHZkH/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-vasas/Q3JVJy6b/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,14 +6469,14 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.61</v>
+        <v>2.73</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.15</v>
+        <v>3.22</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,32 +6500,32 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.29</v>
+        <v>3.31</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
+          <t>24/09/2023 15:40</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>23/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
           <t>24/09/2023 15:57</t>
         </is>
       </c>
-      <c r="R66" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>23/09/2023 04:12</t>
-        </is>
-      </c>
-      <c r="T66" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>24/09/2023 15:57</t>
-        </is>
-      </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-kozarmisleny-se/KQv5YzLi/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-honved/AFXHVY4A/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,14 +6561,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.73</v>
+        <v>3.61</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.22</v>
+        <v>3.15</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>24/09/2023 15:40</t>
+          <t>24/09/2023 15:57</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.54</v>
+        <v>2.49</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.57</v>
+        <v>2.1</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-honved/AFXHVY4A/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-kozarmisleny-se/KQv5YzLi/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:31</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.31</v>
+        <v>3.27</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:46</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.62</v>
+        <v>3.9</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.34</v>
+        <v>4.55</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:31</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-bvsc-zuglo/4IdIAXSp/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-siofok/fqBnGg5N/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>24/09/2023 16:57</t>
+          <t>24/09/2023 16:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.06</v>
+        <v>3.3</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>24/09/2023 16:50</t>
+          <t>24/09/2023 16:56</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.87</v>
+        <v>3.62</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.85</v>
+        <v>3.34</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>24/09/2023 16:57</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-csakvari/6Nz1ZG5o/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-bvsc-zuglo/4IdIAXSp/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.62</v>
+        <v>2.07</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.76</v>
+        <v>2.47</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.78</v>
+        <v>3.18</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.71</v>
+        <v>3.23</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>4.55</v>
+        <v>3.4</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.54</v>
+        <v>2.92</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-gyirmot-fc-gyor/29AjFDKT/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-nyiregyhaza/Emv9Xfzb/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Gyirmot</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Siofok</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>2</v>
-      </c>
       <c r="J71" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/09/2023 16:31</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.27</v>
+        <v>3.78</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.49</v>
+        <v>3.71</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/09/2023 16:46</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.9</v>
+        <v>4.55</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/09/2023 16:31</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-siofok/fqBnGg5N/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-gyirmot-fc-gyor/29AjFDKT/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.47</v>
+        <v>2.12</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:57</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.18</v>
+        <v>3.26</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.23</v>
+        <v>3.06</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:50</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.4</v>
+        <v>3.87</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.92</v>
+        <v>3.85</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:57</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-nyiregyhaza/Emv9Xfzb/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-csakvari/6Nz1ZG5o/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Mosonmagyarovari TE</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Vasas</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
       <c r="J74" t="n">
-        <v>3.93</v>
+        <v>1.56</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>26/09/2023 03:11</t>
+          <t>26/09/2023 03:12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4.72</v>
+        <v>1.51</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>27/09/2023 15:24</t>
+          <t>27/09/2023 14:39</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.62</v>
+        <v>3.85</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>26/09/2023 03:11</t>
+          <t>26/09/2023 03:12</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.77</v>
+        <v>4.14</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>27/09/2023 14:04</t>
+          <t>27/09/2023 15:55</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.75</v>
+        <v>5.02</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>26/09/2023 03:11</t>
+          <t>26/09/2023 03:12</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.72</v>
+        <v>6.52</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>27/09/2023 15:24</t>
+          <t>27/09/2023 15:55</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-vasas/QoQaNACj/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-mosonmagyarovari-te/rTVPTCZM/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.56</v>
+        <v>2.11</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.51</v>
+        <v>2.04</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>27/09/2023 14:39</t>
+          <t>27/09/2023 15:49</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.85</v>
+        <v>3.18</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.14</v>
+        <v>3.48</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>27/09/2023 15:55</t>
+          <t>27/09/2023 15:49</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>5.02</v>
+        <v>3.21</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>6.52</v>
+        <v>3.52</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>27/09/2023 15:55</t>
+          <t>27/09/2023 15:49</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-mosonmagyarovari-te/rTVPTCZM/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-ajka/E1Jsnfki/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Vasas</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>2</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Ajka</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
       <c r="J76" t="n">
-        <v>2.11</v>
+        <v>3.93</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>26/09/2023 03:12</t>
+          <t>26/09/2023 03:11</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.04</v>
+        <v>4.72</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>27/09/2023 15:49</t>
+          <t>27/09/2023 15:24</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.18</v>
+        <v>3.62</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>26/09/2023 03:12</t>
+          <t>26/09/2023 03:11</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.48</v>
+        <v>3.77</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>27/09/2023 15:49</t>
+          <t>27/09/2023 14:04</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.21</v>
+        <v>1.75</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>26/09/2023 03:12</t>
+          <t>26/09/2023 03:11</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.52</v>
+        <v>1.72</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>27/09/2023 15:49</t>
+          <t>27/09/2023 15:24</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-ajka/E1Jsnfki/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-vasas/QoQaNACj/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.2</v>
+        <v>2.99</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.19</v>
+        <v>3.36</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.09</v>
+        <v>3.03</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.06</v>
+        <v>3.12</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-kazincbarcikai/neReOjcp/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-pecsi-mfc/tElTSWlT/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3.13</v>
+        <v>2.4</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:46</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.01</v>
+        <v>3.2</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,32 +7604,32 @@
         </is>
       </c>
       <c r="P78" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>27/09/2023 17:45</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
         <v>3.09</v>
       </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>27/09/2023 17:46</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>2.43</v>
-      </c>
       <c r="S78" t="inlineStr">
         <is>
           <t>26/09/2023 05:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.41</v>
+        <v>3.06</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:46</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-szeged-csanad-ga/lKBfqhZ9/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-kazincbarcikai/neReOjcp/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>2.29</v>
+        <v>2.8</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.28</v>
+        <v>3.13</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:46</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.36</v>
+        <v>3.09</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:46</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.03</v>
+        <v>2.43</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.12</v>
+        <v>2.41</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:46</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-pecsi-mfc/tElTSWlT/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-szeged-csanad-ga/lKBfqhZ9/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.03</v>
+        <v>1.45</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.19</v>
+        <v>1.51</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:38</t>
+          <t>01/10/2023 16:39</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.23</v>
+        <v>4.23</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.32</v>
+        <v>4.2</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:38</t>
+          <t>01/10/2023 16:39</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.34</v>
+        <v>5.96</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.33</v>
+        <v>6.36</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:38</t>
+          <t>01/10/2023 16:39</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-honved/hEgMcil3/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-csakvari/4hDRyARq/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.45</v>
+        <v>2.03</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.51</v>
+        <v>2.19</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>01/10/2023 16:39</t>
+          <t>01/10/2023 16:38</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>4.23</v>
+        <v>3.23</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>4.2</v>
+        <v>3.32</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>01/10/2023 16:39</t>
+          <t>01/10/2023 16:38</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>5.96</v>
+        <v>3.34</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>6.36</v>
+        <v>3.33</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>01/10/2023 16:39</t>
+          <t>01/10/2023 16:38</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-csakvari/4hDRyARq/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-honved/hEgMcil3/</t>
         </is>
       </c>
     </row>
@@ -9470,6 +9470,190 @@
       <c r="V98" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-pecsi-mfc/lbb5crfK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45207.70833333334</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Gyor</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>4</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Budafoki</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:46</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-budafoki-mte/r17FzLn7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45207.70833333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Haladas</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Szeged</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:40</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:40</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:40</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-szeged-csanad-ga/Mi6JZv2D/</t>
         </is>
       </c>
     </row>

--- a/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
+++ b/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.01</v>
+        <v>3.3</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.26</v>
+        <v>3.36</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.83</v>
+        <v>3.12</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-pecsi-mfc/lpuNLxKl/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-soroksar/dn0rTKRE/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.65</v>
+        <v>2.04</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.2</v>
+        <v>3.01</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.88</v>
+        <v>3.26</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>6.12</v>
+        <v>3.4</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>5.16</v>
+        <v>3.83</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-kazincbarcikai/W8URKdZf/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-pecsi-mfc/lpuNLxKl/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,22 +4629,22 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>2.22</v>
+        <v>1.51</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.28</v>
+        <v>1.65</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,15 +4652,15 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.36</v>
+        <v>3.88</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,15 +4668,15 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.88</v>
+        <v>6.12</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.12</v>
+        <v>5.16</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-soroksar/dn0rTKRE/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-kazincbarcikai/W8URKdZf/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1.66</v>
+        <v>2.35</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.57</v>
+        <v>2.37</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:40</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.65</v>
+        <v>3.12</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>4.15</v>
+        <v>3.21</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:40</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>4.42</v>
+        <v>2.83</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>5.61</v>
+        <v>3.09</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>08/10/2023 16:46</t>
+          <t>08/10/2023 16:40</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-budafoki-mte/r17FzLn7/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-szeged-csanad-ga/Mi6JZv2D/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.35</v>
+        <v>1.66</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,48 +9612,876 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.37</v>
+        <v>1.57</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>08/10/2023 16:40</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="N100" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:46</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-budafoki-mte/r17FzLn7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Budafoki</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Soroksar</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:49</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:49</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:49</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-soroksar/joNnALwQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>BVSC-Zuglo</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Siofok</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:39</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:39</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:37</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-siofok/YVZyhMHs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Gyirmot</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Csakvari</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:40</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:40</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:40</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-csakvari/S6luitXm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kazincbarcikai</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Tiszakecske</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>3.12</v>
       </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>07/10/2023 04:13</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-tiszakecske/2PthlvH6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Mosonmagyarovari TE</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Haladas</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>22/10/2023 11:08</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>3.21</v>
       </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>08/10/2023 16:40</t>
-        </is>
-      </c>
-      <c r="R100" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>07/10/2023 04:13</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>22/10/2023 11:08</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:55</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-haladas/zwu0nIoJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45221.70833333334</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Szeged</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Gyor</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>21/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>21/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
         <v>3.09</v>
       </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>08/10/2023 16:40</t>
-        </is>
-      </c>
-      <c r="V100" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-szeged-csanad-ga/Mi6JZv2D/</t>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:48</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>21/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:57</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyor/CfOrB1OJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45221.70833333334</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Ajka</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Kozarmisleny SE</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>21/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:40</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>21/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>21/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:40</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-kozarmisleny-se/6cmqj0nf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45221.70833333334</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Pecsi MFC</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Honved</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>21/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:37</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>21/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:37</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>21/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:37</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-honved/dntdmbWC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45221.70833333334</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Vasas</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>3</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Nyiregyhaza</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>21/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>21/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>21/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-nyiregyhaza/lMxlkK10/</t>
         </is>
       </c>
     </row>

--- a/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
+++ b/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.63</v>
+        <v>2.26</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.63</v>
+        <v>2.48</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 08:09</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.16</v>
+        <v>3.4</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 15:33</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.48</v>
+        <v>2.81</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 08:09</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-soroksar/lMEZaMcS/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-honved/INcO2OD9/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,63 +2329,63 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.34</v>
+        <v>2.63</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13/08/2023 17:14</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.21</v>
+        <v>3.16</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>13/08/2023 16:31</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.29</v>
+        <v>2.48</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.99</v>
+        <v>2.65</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13/08/2023 17:14</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-budafoki-mte/UFd2et6q/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-soroksar/lMEZaMcS/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>13/08/2023 08:09</t>
+          <t>13/08/2023 17:14</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.4</v>
+        <v>3.21</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.38</v>
+        <v>3.39</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>13/08/2023 15:33</t>
+          <t>13/08/2023 16:31</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.81</v>
+        <v>3.29</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.75</v>
+        <v>2.99</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 08:09</t>
+          <t>13/08/2023 17:14</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-honved/INcO2OD9/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-budafoki-mte/UFd2et6q/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,14 +2513,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.95</v>
+        <v>2.38</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,48 +2528,48 @@
         </is>
       </c>
       <c r="L23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>13/08/2023 18:44</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>13/08/2023 18:07</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
         <v>2.79</v>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:52</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>2.8</v>
-      </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:44</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-pecsi-mfc/GWbEhvj2/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-szeged-csanad-ga/86e6f0Lk/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.49</v>
+        <v>2.95</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.52</v>
+        <v>2.79</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>12/08/2023 12:53</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.94</v>
+        <v>2.93</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>4.08</v>
+        <v>2.92</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>13/08/2023 17:02</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>5.73</v>
+        <v>2.38</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>6.25</v>
+        <v>2.8</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>12/08/2023 12:53</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-mosonmagyarovari-te/2TfAgKzd/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-pecsi-mfc/GWbEhvj2/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.38</v>
+        <v>1.49</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.7</v>
+        <v>1.52</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>13/08/2023 18:44</t>
+          <t>12/08/2023 12:53</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>2.96</v>
+        <v>3.94</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.05</v>
+        <v>4.08</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>13/08/2023 18:07</t>
+          <t>13/08/2023 17:02</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.91</v>
+        <v>5.73</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.79</v>
+        <v>6.25</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>13/08/2023 18:44</t>
+          <t>12/08/2023 12:53</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-szeged-csanad-ga/86e6f0Lk/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-mosonmagyarovari-te/2TfAgKzd/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.27</v>
+        <v>2.47</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.16</v>
+        <v>3.24</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 18:47</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.22</v>
+        <v>3.29</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 18:47</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.93</v>
+        <v>2.61</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.43</v>
+        <v>2.25</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 11:08</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-tiszakecske/IywcHNS2/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-gyor/AVFV02rM/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.47</v>
+        <v>2.27</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3.24</v>
+        <v>2.16</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13/08/2023 18:47</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.29</v>
+        <v>3.22</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.29</v>
+        <v>3.31</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13/08/2023 18:47</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.61</v>
+        <v>2.93</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.25</v>
+        <v>3.43</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>13/08/2023 11:08</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-gyor/AVFV02rM/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-tiszakecske/IywcHNS2/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.33</v>
+        <v>1.58</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.97</v>
+        <v>1.67</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/08/2023 17:27</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.13</v>
+        <v>3.94</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.28</v>
+        <v>3.79</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16/08/2023 17:27</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.84</v>
+        <v>5.6</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.4</v>
+        <v>5.15</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/08/2023 17:21</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-nyiregyhaza/hI9h6cK1/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-bvsc-zuglo/2TGu9azq/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1.58</v>
+        <v>2.33</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.67</v>
+        <v>2.97</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 17:27</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.94</v>
+        <v>3.13</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.79</v>
+        <v>3.28</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 17:27</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>5.6</v>
+        <v>2.84</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>5.15</v>
+        <v>2.4</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 17:21</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-bvsc-zuglo/2TGu9azq/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-nyiregyhaza/hI9h6cK1/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.34</v>
+        <v>1.78</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.18</v>
+        <v>1.52</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:27</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>2.98</v>
+        <v>3.6</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.22</v>
+        <v>4.24</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:30</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.96</v>
+        <v>3.99</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.46</v>
+        <v>5.73</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:27</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-siofok/dSy1Gsr9/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-kozarmisleny-se/zsFm7w5e/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.78</v>
+        <v>2.34</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.52</v>
+        <v>2.18</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>16/08/2023 18:27</t>
+          <t>16/08/2023 18:44</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.6</v>
+        <v>2.98</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>4.24</v>
+        <v>3.22</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>16/08/2023 18:30</t>
+          <t>16/08/2023 18:44</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.99</v>
+        <v>2.96</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>5.73</v>
+        <v>3.46</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>16/08/2023 18:27</t>
+          <t>16/08/2023 18:44</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-kozarmisleny-se/zsFm7w5e/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-siofok/dSy1Gsr9/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,63 +4169,63 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>2.12</v>
+        <v>1.51</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.36</v>
+        <v>1.65</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.22</v>
+        <v>4.2</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.28</v>
+        <v>3.88</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.12</v>
+        <v>6.12</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.05</v>
+        <v>5.16</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-haladas/pCYVJGl1/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-kazincbarcikai/W8URKdZf/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,38 +4261,38 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>3.27</v>
+        <v>2.22</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.95</v>
+        <v>2.28</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19/08/2023 18:55</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.49</v>
+        <v>3.3</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.49</v>
+        <v>3.36</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,24 +4300,24 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.11</v>
+        <v>2.88</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.31</v>
+        <v>3.12</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 18:55</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-honved/vZXZIz47/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-soroksar/dn0rTKRE/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.22</v>
+        <v>2.69</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.36</v>
+        <v>3.29</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.88</v>
+        <v>2.45</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.12</v>
+        <v>2.86</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-soroksar/dn0rTKRE/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-budafoki-mte/vBkmSvsL/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.69</v>
+        <v>2.1</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.48</v>
+        <v>2.04</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.2</v>
+        <v>3.01</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.29</v>
+        <v>3.26</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.86</v>
+        <v>3.83</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-budafoki-mte/vBkmSvsL/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-pecsi-mfc/lpuNLxKl/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>2.1</v>
+        <v>3.27</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.04</v>
+        <v>2.95</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:55</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.01</v>
+        <v>3.49</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.26</v>
+        <v>3.49</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.4</v>
+        <v>2.11</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.83</v>
+        <v>2.31</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:55</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-pecsi-mfc/lpuNLxKl/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-honved/vZXZIz47/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,63 +4629,63 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.51</v>
+        <v>2.12</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.65</v>
+        <v>2.36</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.2</v>
+        <v>3.22</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.88</v>
+        <v>3.28</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>6.12</v>
+        <v>3.12</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>5.16</v>
+        <v>3.05</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-kazincbarcikai/W8URKdZf/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-haladas/pCYVJGl1/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.74</v>
+        <v>2.18</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.75</v>
+        <v>2.19</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:54</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.48</v>
+        <v>3.09</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.78</v>
+        <v>3.25</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:24</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.18</v>
+        <v>3.13</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.55</v>
+        <v>3.41</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:54</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-csakvari/jo5m7bMh/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyirmot-fc-gyor/rL1u9Kit/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1.61</v>
+        <v>2.81</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.71</v>
+        <v>2.26</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>27/08/2023 18:51</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.71</v>
+        <v>2.98</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.79</v>
+        <v>3.02</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>27/08/2023 18:51</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.78</v>
+        <v>3.01</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>27/08/2023 18:51</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-siofok/IPWwIfJD/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-ajka/6evCQnND/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.81</v>
+        <v>1.59</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.26</v>
+        <v>1.58</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 09:56</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2.98</v>
+        <v>3.82</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.02</v>
+        <v>4.03</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.5</v>
+        <v>4.95</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.01</v>
+        <v>5.65</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-ajka/6evCQnND/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-tiszakecske/tzb04d6B/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Csakvari</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>2</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Tiszakecske</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
       <c r="J53" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/08/2023 09:56</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.82</v>
+        <v>3.48</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.03</v>
+        <v>3.78</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.95</v>
+        <v>4.18</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>5.65</v>
+        <v>4.55</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-tiszakecske/tzb04d6B/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-csakvari/jo5m7bMh/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2.18</v>
+        <v>1.61</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.19</v>
+        <v>1.71</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>27/08/2023 18:54</t>
+          <t>27/08/2023 18:51</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.09</v>
+        <v>3.71</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.25</v>
+        <v>3.79</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>27/08/2023 18:24</t>
+          <t>27/08/2023 18:51</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.13</v>
+        <v>4.7</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.41</v>
+        <v>4.78</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>27/08/2023 18:54</t>
+          <t>27/08/2023 18:51</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyirmot-fc-gyor/rL1u9Kit/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-siofok/IPWwIfJD/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2.38</v>
+        <v>2.13</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.56</v>
+        <v>2.2</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>03/09/2023 15:51</t>
+          <t>03/09/2023 15:56</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.21</v>
+        <v>3.16</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.14</v>
+        <v>3.26</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>03/09/2023 15:51</t>
+          <t>03/09/2023 15:56</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.71</v>
+        <v>3.17</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.87</v>
+        <v>3.37</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>03/09/2023 15:51</t>
+          <t>03/09/2023 15:56</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-soroksar/YTMwIFzB/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-budafoki-mte/2kn92zyO/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.2</v>
+        <v>3.12</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>03/09/2023 15:56</t>
+          <t>03/09/2023 15:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.16</v>
+        <v>3.38</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.26</v>
+        <v>3.56</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>03/09/2023 15:56</t>
+          <t>03/09/2023 15:59</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.17</v>
+        <v>2.89</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.37</v>
+        <v>2.19</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>03/09/2023 15:56</t>
+          <t>03/09/2023 15:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-budafoki-mte/2kn92zyO/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-gyor/KQIZIeL4/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>2.23</v>
+        <v>1.94</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,48 +5748,48 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.12</v>
+        <v>2.07</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>03/09/2023 15:59</t>
+          <t>03/09/2023 09:45</t>
         </is>
       </c>
       <c r="N58" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>02/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
         <v>3.38</v>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>03/09/2023 14:05</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="S58" t="inlineStr">
         <is>
           <t>02/09/2023 04:12</t>
         </is>
       </c>
-      <c r="P58" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>03/09/2023 15:59</t>
-        </is>
-      </c>
-      <c r="R58" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>02/09/2023 04:12</t>
-        </is>
-      </c>
       <c r="T58" t="n">
-        <v>2.19</v>
+        <v>3.54</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>03/09/2023 15:59</t>
+          <t>03/09/2023 12:06</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-gyor/KQIZIeL4/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-kazincbarcikai/nDKRKHjh/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.94</v>
+        <v>2.98</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.07</v>
+        <v>2.79</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>03/09/2023 09:45</t>
+          <t>03/09/2023 15:58</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.36</v>
+        <v>3.09</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>03/09/2023 14:05</t>
+          <t>03/09/2023 15:51</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.46</v>
+        <v>2.27</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.54</v>
+        <v>2.54</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>03/09/2023 12:06</t>
+          <t>03/09/2023 15:58</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-kazincbarcikai/nDKRKHjh/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-pecsi-mfc/UyQMLcyn/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.98</v>
+        <v>2.38</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.79</v>
+        <v>2.56</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>03/09/2023 15:58</t>
+          <t>03/09/2023 15:51</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.09</v>
+        <v>3.21</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.29</v>
+        <v>3.14</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.27</v>
+        <v>2.71</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.54</v>
+        <v>2.87</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>03/09/2023 15:58</t>
+          <t>03/09/2023 15:51</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-pecsi-mfc/UyQMLcyn/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-soroksar/YTMwIFzB/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.14</v>
+        <v>2.48</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.32</v>
+        <v>2.47</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>03/09/2023 16:44</t>
+          <t>03/09/2023 16:48</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.3</v>
+        <v>3.17</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.38</v>
+        <v>3.14</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>03/09/2023 16:44</t>
+          <t>03/09/2023 16:48</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.03</v>
+        <v>2.62</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>03/09/2023 16:44</t>
+          <t>03/09/2023 16:48</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-haladas/GhCrHZkH/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-szeged-csanad-ga/EPkD1fjU/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.48</v>
+        <v>1.89</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.47</v>
+        <v>1.93</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>03/09/2023 16:48</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.17</v>
+        <v>3.48</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.14</v>
+        <v>3.57</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>03/09/2023 16:48</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.62</v>
+        <v>3.5</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.99</v>
+        <v>3.86</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>03/09/2023 16:48</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-szeged-csanad-ga/EPkD1fjU/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-mosonmagyarovari-te/joRIMwMu/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Vasas</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>2</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Mosonmagyarovari TE</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
       <c r="J63" t="n">
-        <v>1.89</v>
+        <v>2.82</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.93</v>
+        <v>3.52</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.48</v>
+        <v>3.17</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.57</v>
+        <v>3.28</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.5</v>
+        <v>2.32</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.86</v>
+        <v>2.13</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-mosonmagyarovari-te/joRIMwMu/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-vasas/Q3JVJy6b/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.82</v>
+        <v>2.14</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.52</v>
+        <v>2.32</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:44</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.17</v>
+        <v>3.3</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.28</v>
+        <v>3.38</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:44</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.32</v>
+        <v>3.03</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.13</v>
+        <v>3.02</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:44</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-vasas/Q3JVJy6b/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-haladas/GhCrHZkH/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1.86</v>
+        <v>2.59</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.95</v>
+        <v>2.73</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>24/09/2023 15:34</t>
+          <t>24/09/2023 15:57</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.27</v>
+        <v>3.31</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>24/09/2023 15:34</t>
+          <t>24/09/2023 15:40</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.88</v>
+        <v>2.54</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.16</v>
+        <v>2.57</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>24/09/2023 14:04</t>
+          <t>24/09/2023 15:57</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-tiszakecske/hvwDWEk4/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-honved/AFXHVY4A/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,14 +6469,14 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.73</v>
+        <v>3.61</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.22</v>
+        <v>3.15</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>24/09/2023 15:40</t>
+          <t>24/09/2023 15:57</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.54</v>
+        <v>2.49</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.57</v>
+        <v>2.1</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-honved/AFXHVY4A/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-kozarmisleny-se/KQv5YzLi/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.61</v>
+        <v>1.86</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.61</v>
+        <v>1.95</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>24/09/2023 15:57</t>
+          <t>24/09/2023 15:34</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>24/09/2023 15:57</t>
+          <t>24/09/2023 15:34</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.49</v>
+        <v>3.88</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.1</v>
+        <v>4.16</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>24/09/2023 15:57</t>
+          <t>24/09/2023 14:04</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-kozarmisleny-se/KQv5YzLi/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-tiszakecske/hvwDWEk4/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.2</v>
+        <v>2.47</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.31</v>
+        <v>3.18</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.3</v>
+        <v>3.23</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.62</v>
+        <v>3.4</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.34</v>
+        <v>2.92</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-bvsc-zuglo/4IdIAXSp/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-nyiregyhaza/Emv9Xfzb/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.47</v>
+        <v>2.2</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:56</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.18</v>
+        <v>3.31</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.23</v>
+        <v>3.3</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:56</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.92</v>
+        <v>3.34</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-nyiregyhaza/Emv9Xfzb/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-bvsc-zuglo/4IdIAXSp/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.76</v>
+        <v>2.12</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:57</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.78</v>
+        <v>3.26</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.71</v>
+        <v>3.06</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:50</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>4.55</v>
+        <v>3.87</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>4.54</v>
+        <v>3.85</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:57</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-gyirmot-fc-gyor/29AjFDKT/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-csakvari/6Nz1ZG5o/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Gyirmot</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Csakvari</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
       <c r="J72" t="n">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:57</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.26</v>
+        <v>3.78</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.06</v>
+        <v>3.71</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:50</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.87</v>
+        <v>4.55</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.85</v>
+        <v>4.54</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:57</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-csakvari/6Nz1ZG5o/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-gyirmot-fc-gyor/29AjFDKT/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Vasas</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Ajka</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
       <c r="J75" t="n">
-        <v>2.11</v>
+        <v>3.93</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>26/09/2023 03:12</t>
+          <t>26/09/2023 03:11</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.04</v>
+        <v>4.72</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>27/09/2023 15:49</t>
+          <t>27/09/2023 15:24</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.18</v>
+        <v>3.62</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>26/09/2023 03:12</t>
+          <t>26/09/2023 03:11</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.48</v>
+        <v>3.77</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>27/09/2023 15:49</t>
+          <t>27/09/2023 14:04</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.21</v>
+        <v>1.75</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>26/09/2023 03:12</t>
+          <t>26/09/2023 03:11</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.52</v>
+        <v>1.72</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>27/09/2023 15:49</t>
+          <t>27/09/2023 15:24</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-ajka/E1Jsnfki/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-vasas/QoQaNACj/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>3.93</v>
+        <v>2.11</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>26/09/2023 03:11</t>
+          <t>26/09/2023 03:12</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4.72</v>
+        <v>2.04</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>27/09/2023 15:24</t>
+          <t>27/09/2023 15:49</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.62</v>
+        <v>3.18</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>26/09/2023 03:11</t>
+          <t>26/09/2023 03:12</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.77</v>
+        <v>3.48</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>27/09/2023 14:04</t>
+          <t>27/09/2023 15:49</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>1.75</v>
+        <v>3.21</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>26/09/2023 03:11</t>
+          <t>26/09/2023 03:12</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.72</v>
+        <v>3.52</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>27/09/2023 15:24</t>
+          <t>27/09/2023 15:49</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-vasas/QoQaNACj/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-ajka/E1Jsnfki/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.29</v>
+        <v>2.15</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2.99</v>
+        <v>3.2</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.36</v>
+        <v>3.19</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.03</v>
+        <v>3.09</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.12</v>
+        <v>3.06</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-pecsi-mfc/tElTSWlT/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-kazincbarcikai/neReOjcp/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
-        <v>2.15</v>
+        <v>3.48</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.4</v>
+        <v>4.72</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:48</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.19</v>
+        <v>3.87</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:48</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.09</v>
+        <v>1.98</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.06</v>
+        <v>1.7</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:48</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-kazincbarcikai/neReOjcp/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-gyor/rsBbrClG/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.8</v>
+        <v>2.29</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.13</v>
+        <v>2.28</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:46</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.01</v>
+        <v>2.99</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.09</v>
+        <v>3.36</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:46</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.43</v>
+        <v>3.03</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.41</v>
+        <v>3.12</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:46</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-szeged-csanad-ga/lKBfqhZ9/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-pecsi-mfc/tElTSWlT/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>3.48</v>
+        <v>2.8</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>4.72</v>
+        <v>3.13</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>27/09/2023 17:48</t>
+          <t>27/09/2023 17:46</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.33</v>
+        <v>3.01</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.87</v>
+        <v>3.09</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>27/09/2023 17:48</t>
+          <t>27/09/2023 17:46</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>1.98</v>
+        <v>2.43</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.7</v>
+        <v>2.41</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>27/09/2023 17:48</t>
+          <t>27/09/2023 17:46</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-gyor/rsBbrClG/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-szeged-csanad-ga/lKBfqhZ9/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2.34</v>
+        <v>2.03</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.51</v>
+        <v>2.19</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>01/10/2023 16:59</t>
+          <t>01/10/2023 16:38</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.15</v>
+        <v>3.23</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.04</v>
+        <v>3.32</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>01/10/2023 16:59</t>
+          <t>01/10/2023 16:38</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.81</v>
+        <v>3.34</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.03</v>
+        <v>3.33</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>01/10/2023 16:57</t>
+          <t>01/10/2023 16:38</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-kozarmisleny-se/bFCVzUtj/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-honved/hEgMcil3/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Kozarmisleny SE</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>BVSC-Zuglo</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
       <c r="J89" t="n">
-        <v>1.72</v>
+        <v>2.34</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.83</v>
+        <v>2.51</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>01/10/2023 15:04</t>
+          <t>01/10/2023 16:59</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.49</v>
+        <v>3.04</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>01/10/2023 15:04</t>
+          <t>01/10/2023 16:59</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>4.28</v>
+        <v>2.81</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.41</v>
+        <v>3.03</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>01/10/2023 15:04</t>
+          <t>01/10/2023 16:57</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-bvsc-zuglo/2qRatjJS/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-kozarmisleny-se/bFCVzUtj/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>BVSC-Zuglo</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
         <v>1</v>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Honved</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
       <c r="J90" t="n">
-        <v>2.03</v>
+        <v>1.72</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.19</v>
+        <v>1.83</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>01/10/2023 16:38</t>
+          <t>01/10/2023 15:04</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.32</v>
+        <v>3.49</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>01/10/2023 16:38</t>
+          <t>01/10/2023 15:04</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.34</v>
+        <v>4.28</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>3.33</v>
+        <v>4.41</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>01/10/2023 16:38</t>
+          <t>01/10/2023 15:04</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-honved/hEgMcil3/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-bvsc-zuglo/2qRatjJS/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.35</v>
+        <v>1.66</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.37</v>
+        <v>1.57</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>08/10/2023 16:40</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.12</v>
+        <v>3.65</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.21</v>
+        <v>4.15</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>08/10/2023 16:40</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.83</v>
+        <v>4.42</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.09</v>
+        <v>5.61</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>08/10/2023 16:40</t>
+          <t>08/10/2023 16:46</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-szeged-csanad-ga/Mi6JZv2D/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-budafoki-mte/r17FzLn7/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1.66</v>
+        <v>2.35</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.57</v>
+        <v>2.37</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:40</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.65</v>
+        <v>3.12</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>4.15</v>
+        <v>3.21</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:40</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>4.42</v>
+        <v>2.83</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>5.61</v>
+        <v>3.09</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>08/10/2023 16:46</t>
+          <t>08/10/2023 16:40</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-budafoki-mte/r17FzLn7/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-szeged-csanad-ga/Mi6JZv2D/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>2.01</v>
+        <v>3.13</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.14</v>
+        <v>4.14</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>22/10/2023 12:49</t>
+          <t>22/10/2023 11:08</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.29</v>
+        <v>3.21</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.38</v>
+        <v>3.54</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>22/10/2023 12:49</t>
+          <t>22/10/2023 11:08</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.35</v>
+        <v>2.13</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.39</v>
+        <v>1.88</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>22/10/2023 12:49</t>
+          <t>22/10/2023 09:55</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-soroksar/joNnALwQ/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-haladas/zwu0nIoJ/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>22/10/2023 12:39</t>
+          <t>22/10/2023 12:40</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9816,11 +9816,11 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>22/10/2023 12:39</t>
+          <t>22/10/2023 12:40</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.57</v>
+        <v>3.68</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.04</v>
+        <v>4.01</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>22/10/2023 12:37</t>
+          <t>22/10/2023 12:40</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-siofok/YVZyhMHs/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-csakvari/S6luitXm/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>1.88</v>
+        <v>2.11</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.91</v>
+        <v>2.23</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>22/10/2023 12:40</t>
+          <t>22/10/2023 12:56</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.35</v>
+        <v>3.12</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.52</v>
+        <v>3.14</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>22/10/2023 12:40</t>
+          <t>22/10/2023 12:56</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.68</v>
+        <v>3.25</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.01</v>
+        <v>3.45</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>22/10/2023 12:40</t>
+          <t>22/10/2023 12:56</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-csakvari/S6luitXm/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-tiszakecske/2PthlvH6/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>22/10/2023 12:56</t>
+          <t>22/10/2023 12:49</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.12</v>
+        <v>3.29</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.14</v>
+        <v>3.38</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>22/10/2023 12:56</t>
+          <t>22/10/2023 12:49</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>22/10/2023 12:56</t>
+          <t>22/10/2023 12:49</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-tiszakecske/2PthlvH6/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-soroksar/joNnALwQ/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,14 +10057,14 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>3.13</v>
+        <v>1.95</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>4.14</v>
+        <v>2.25</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>22/10/2023 11:08</t>
+          <t>22/10/2023 12:39</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.21</v>
+        <v>3.32</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.54</v>
+        <v>3.52</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>22/10/2023 11:08</t>
+          <t>22/10/2023 12:39</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.13</v>
+        <v>3.57</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>1.88</v>
+        <v>3.04</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>22/10/2023 09:55</t>
+          <t>22/10/2023 12:37</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-haladas/zwu0nIoJ/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-siofok/YVZyhMHs/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>2.74</v>
+        <v>2.17</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.44</v>
+        <v>2.4</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>22/10/2023 16:57</t>
+          <t>22/10/2023 16:40</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,32 +10180,32 @@
         </is>
       </c>
       <c r="P106" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
         <v>3.09</v>
       </c>
-      <c r="Q106" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:48</t>
-        </is>
-      </c>
-      <c r="R106" t="n">
-        <v>2.41</v>
-      </c>
       <c r="S106" t="inlineStr">
         <is>
           <t>21/10/2023 04:13</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.26</v>
+        <v>3.21</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>22/10/2023 16:57</t>
+          <t>22/10/2023 16:40</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyor/CfOrB1OJ/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-kozarmisleny-se/6cmqj0nf/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.17</v>
+        <v>2.58</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>22/10/2023 16:40</t>
+          <t>22/10/2023 16:37</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10276,11 +10276,11 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>22/10/2023 15:58</t>
+          <t>22/10/2023 16:37</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.09</v>
+        <v>2.65</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.21</v>
+        <v>2.88</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>22/10/2023 16:40</t>
+          <t>22/10/2023 16:37</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-kozarmisleny-se/6cmqj0nf/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-honved/dntdmbWC/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.62</v>
+        <v>3.44</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>22/10/2023 16:37</t>
+          <t>22/10/2023 16:57</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>2.98</v>
+        <v>3.12</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>22/10/2023 16:37</t>
+          <t>22/10/2023 16:48</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.65</v>
+        <v>2.41</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.88</v>
+        <v>2.26</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>22/10/2023 16:37</t>
+          <t>22/10/2023 16:57</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-honved/dntdmbWC/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyor/CfOrB1OJ/</t>
         </is>
       </c>
     </row>
@@ -10482,6 +10482,834 @@
       <c r="V109" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-nyiregyhaza/lMxlkK10/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45227.70833333334</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Gyor</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>4</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Mosonmagyarovari TE</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>27/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:19</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>27/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:33</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>27/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:33</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-mosonmagyarovari-te/Ak6V1co6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Csakvari</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>BVSC-Zuglo</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:36</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:36</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:35</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-bvsc-zuglo/2P2N3JGg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Nyiregyhaza</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Ajka</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-ajka/8Q9E5uns/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Siofok</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>3</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Budafoki</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:39</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:39</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:39</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-budafoki-mte/bBnQNv8P/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Soroksar</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Szeged</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:40</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:40</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:40</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-szeged-csanad-ga/tG1R2wWa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45228.70833333334</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Tiszakecske</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Vasas</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>2</v>
+      </c>
+      <c r="J115" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>28/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:34</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>28/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:34</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>28/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:26</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-vasas/p8braeVO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45228.70833333334</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Haladas</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Pecsi MFC</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>28/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:44</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>28/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:44</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>28/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:44</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-pecsi-mfc/lt5Z0H0C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45228.70833333334</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Honved</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Kazincbarcikai</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>28/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:39</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>28/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:39</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>28/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:39</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kazincbarcikai/W4fv0yGI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45228.70833333334</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Kozarmisleny SE</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Gyirmot</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>2</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>28/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:44</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>28/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:44</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>28/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:44</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-gyirmot-fc-gyor/K0DI4a1m/</t>
         </is>
       </c>
     </row>

--- a/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
+++ b/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,63 +1501,63 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.42</v>
+        <v>1.56</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.65</v>
+        <v>1.61</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>06/08/2023 16:48</t>
+          <t>06/08/2023 17:26</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.22</v>
+        <v>4.48</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.33</v>
+        <v>4.22</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>06/08/2023 16:48</t>
+          <t>06/08/2023 17:29</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.72</v>
+        <v>4.97</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>5.02</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>06/08/2023 16:48</t>
+          <t>06/08/2023 17:26</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-gyirmot-fc-gyor/AHzcn3TS/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kozarmisleny-se/8hGXu16d/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ajka</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Kazincbarcikai</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
       <c r="J13" t="n">
-        <v>2.24</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,48 +1608,48 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>06/08/2023 16:26</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>05/08/2023 05:42</t>
         </is>
       </c>
-      <c r="N13" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>06/08/2023 17:28</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>05/08/2023 05:42</t>
         </is>
       </c>
-      <c r="P13" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>06/08/2023 15:31</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>05/08/2023 05:42</t>
-        </is>
-      </c>
       <c r="T13" t="n">
-        <v>3.19</v>
+        <v>3.1</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 17:28</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-kazincbarcikai/dhLik5qA/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-ajka/GfygmqEM/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.56</v>
+        <v>2.24</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.61</v>
+        <v>2.24</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>06/08/2023 17:26</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.48</v>
+        <v>3.03</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.22</v>
+        <v>3.12</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>06/08/2023 17:29</t>
+          <t>06/08/2023 15:31</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.97</v>
+        <v>3.19</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>5.02</v>
+        <v>3.19</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>06/08/2023 17:26</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kozarmisleny-se/8hGXu16d/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-kazincbarcikai/dhLik5qA/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>2.42</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.34</v>
+        <v>2.65</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>06/08/2023 16:26</t>
+          <t>06/08/2023 16:48</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.92</v>
+        <v>3.22</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.31</v>
+        <v>3.33</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>06/08/2023 17:28</t>
+          <t>06/08/2023 16:48</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.43</v>
+        <v>2.72</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>06/08/2023 17:28</t>
+          <t>06/08/2023 16:48</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-ajka/GfygmqEM/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-gyirmot-fc-gyor/AHzcn3TS/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.61</v>
+        <v>2.93</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>06/08/2023 18:00</t>
+          <t>06/08/2023 18:45</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.01</v>
+        <v>2.92</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>06/08/2023 18:00</t>
+          <t>06/08/2023 17:02</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.76</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>06/08/2023 18:00</t>
+          <t>06/08/2023 18:45</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-nyiregyhaza/d89F4pqc/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-pecsi-mfc/za8J34b3/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>BVSC-Zuglo</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Pecsi MFC</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
       <c r="J17" t="n">
-        <v>2.57</v>
+        <v>1.62</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>05/08/2023 07:13</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.93</v>
+        <v>1.6</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>06/08/2023 18:45</t>
+          <t>06/08/2023 18:05</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.92</v>
+        <v>4.15</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>05/08/2023 07:13</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.98</v>
+        <v>4.13</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>06/08/2023 17:02</t>
+          <t>06/08/2023 18:50</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.7</v>
+        <v>4.87</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>05/08/2023 07:13</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.63</v>
+        <v>5.25</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>06/08/2023 18:45</t>
+          <t>06/08/2023 18:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-pecsi-mfc/za8J34b3/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-bvsc-zuglo/nwSOsNyp/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,63 +2053,63 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.62</v>
+        <v>2.19</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 07:13</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.6</v>
+        <v>2.57</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>06/08/2023 18:05</t>
+          <t>06/08/2023 17:54</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.15</v>
+        <v>3.23</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 07:13</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.13</v>
+        <v>3.51</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>06/08/2023 18:50</t>
+          <t>06/08/2023 17:54</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>4.87</v>
+        <v>3</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 07:13</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5.25</v>
+        <v>2.61</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>06/08/2023 18:59</t>
+          <t>06/08/2023 17:54</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-bvsc-zuglo/nwSOsNyp/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-haladas/U1HTtsij/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.19</v>
+        <v>2.73</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>06/08/2023 17:54</t>
+          <t>06/08/2023 18:00</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.23</v>
+        <v>3.01</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.51</v>
+        <v>3.2</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>06/08/2023 17:54</t>
+          <t>06/08/2023 18:00</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>2.48</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.61</v>
+        <v>2.76</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>06/08/2023 17:54</t>
+          <t>06/08/2023 18:00</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-haladas/U1HTtsij/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-nyiregyhaza/d89F4pqc/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.26</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,48 +2252,48 @@
         </is>
       </c>
       <c r="L20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:17</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>12/08/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:17</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>2.48</v>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>13/08/2023 08:09</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>12/08/2023 08:42</t>
         </is>
       </c>
-      <c r="P20" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:33</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>12/08/2023 08:42</t>
-        </is>
-      </c>
       <c r="T20" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>13/08/2023 08:09</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-honved/INcO2OD9/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-soroksar/lMEZaMcS/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,63 +2329,63 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.63</v>
+        <v>2.34</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 17:14</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.16</v>
+        <v>3.21</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.35</v>
+        <v>3.39</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 16:31</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.48</v>
+        <v>3.29</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.65</v>
+        <v>2.99</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 17:14</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-soroksar/lMEZaMcS/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-budafoki-mte/UFd2et6q/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>13/08/2023 17:14</t>
+          <t>13/08/2023 08:09</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.21</v>
+        <v>3.4</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.39</v>
+        <v>3.38</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>13/08/2023 16:31</t>
+          <t>13/08/2023 15:33</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.29</v>
+        <v>2.81</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.99</v>
+        <v>2.75</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 17:14</t>
+          <t>13/08/2023 08:09</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-budafoki-mte/UFd2et6q/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-honved/INcO2OD9/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,63 +2513,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>13/08/2023 18:52</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>13/08/2023 18:52</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
         <v>2.38</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>12/08/2023 07:12</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:44</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:07</t>
-        </is>
-      </c>
-      <c r="R23" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
       <c r="T23" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>13/08/2023 18:44</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-szeged-csanad-ga/86e6f0Lk/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-pecsi-mfc/GWbEhvj2/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.95</v>
+        <v>2.27</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,48 +2620,48 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.79</v>
+        <v>2.16</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="N24" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:30</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
         <v>2.93</v>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>12/08/2023 07:12</t>
         </is>
       </c>
-      <c r="P24" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
       <c r="T24" t="n">
-        <v>2.8</v>
+        <v>3.43</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-pecsi-mfc/GWbEhvj2/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-tiszakecske/IywcHNS2/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Gyor</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
         <v>2</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Haladas</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
       <c r="J25" t="n">
-        <v>2.26</v>
+        <v>2.47</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.27</v>
+        <v>3.24</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 18:47</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.46</v>
+        <v>3.29</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>13/08/2023 18:14</t>
+          <t>13/08/2023 18:47</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.8</v>
+        <v>2.61</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.04</v>
+        <v>2.25</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 11:08</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-haladas/G8GR1rTF/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-gyor/AVFV02rM/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3.24</v>
+        <v>2.7</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13/08/2023 18:47</t>
+          <t>13/08/2023 18:44</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.29</v>
+        <v>2.96</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.29</v>
+        <v>3.05</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>13/08/2023 18:47</t>
+          <t>13/08/2023 18:07</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.61</v>
+        <v>2.91</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.25</v>
+        <v>2.79</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>13/08/2023 11:08</t>
+          <t>13/08/2023 18:44</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-gyor/AVFV02rM/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-szeged-csanad-ga/86e6f0Lk/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
         <v>2.27</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:17</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O28" t="inlineStr">
         <is>
           <t>12/08/2023 07:12</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>13/08/2023 17:30</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>13/08/2023 18:14</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S28" t="inlineStr">
         <is>
           <t>12/08/2023 07:12</t>
         </is>
       </c>
-      <c r="P28" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>13/08/2023 17:30</t>
-        </is>
-      </c>
-      <c r="R28" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
       <c r="T28" t="n">
-        <v>3.43</v>
+        <v>3.04</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-tiszakecske/IywcHNS2/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-haladas/G8GR1rTF/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.58</v>
+        <v>2.07</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 17:29</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.94</v>
+        <v>3.33</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.79</v>
+        <v>3.74</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 17:29</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5.6</v>
+        <v>3.15</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>5.15</v>
+        <v>3.34</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 17:29</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-bvsc-zuglo/2TGu9azq/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-csakvari/djGq8Jkk/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.07</v>
+        <v>1.58</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16/08/2023 17:29</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.33</v>
+        <v>3.94</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.74</v>
+        <v>3.79</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>16/08/2023 17:29</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.15</v>
+        <v>5.6</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.34</v>
+        <v>5.15</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/08/2023 17:29</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-csakvari/djGq8Jkk/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-bvsc-zuglo/2TGu9azq/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.01</v>
+        <v>2.34</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,48 +3540,48 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16/08/2023 18:59</t>
+          <t>16/08/2023 18:44</t>
         </is>
       </c>
       <c r="N34" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>15/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
         <v>3.22</v>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>16/08/2023 18:44</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S34" t="inlineStr">
         <is>
           <t>15/08/2023 07:12</t>
         </is>
       </c>
-      <c r="P34" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>16/08/2023 18:59</t>
-        </is>
-      </c>
-      <c r="R34" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>15/08/2023 07:12</t>
-        </is>
-      </c>
       <c r="T34" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/08/2023 18:59</t>
+          <t>16/08/2023 18:44</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyirmot-fc-gyor/Q7PDDuSR/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-siofok/dSy1Gsr9/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,63 +3617,63 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.93</v>
+        <v>1.52</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:27</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.73</v>
+        <v>3.6</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.61</v>
+        <v>4.24</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:30</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.16</v>
+        <v>3.99</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.77</v>
+        <v>5.73</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:27</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-tiszakecske/W88d5HZ7/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-kozarmisleny-se/zsFm7w5e/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.78</v>
+        <v>2.01</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.52</v>
+        <v>2.14</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:27</t>
+          <t>16/08/2023 18:59</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.6</v>
+        <v>3.22</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.24</v>
+        <v>3.21</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:30</t>
+          <t>16/08/2023 18:59</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.99</v>
+        <v>3.41</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>5.73</v>
+        <v>3.59</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:27</t>
+          <t>16/08/2023 18:59</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-kozarmisleny-se/zsFm7w5e/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyirmot-fc-gyor/Q7PDDuSR/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.34</v>
+        <v>1.8</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2.98</v>
+        <v>3.73</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.22</v>
+        <v>3.61</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.96</v>
+        <v>4.16</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.46</v>
+        <v>3.77</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-siofok/dSy1Gsr9/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-tiszakecske/W88d5HZ7/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,14 +4261,14 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.3</v>
+        <v>3.22</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.88</v>
+        <v>3.12</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.12</v>
+        <v>3.05</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-soroksar/dn0rTKRE/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-haladas/pCYVJGl1/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.69</v>
+        <v>3.27</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.48</v>
+        <v>2.95</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
+          <t>19/08/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>19/08/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
           <t>19/08/2023 18:45</t>
         </is>
       </c>
-      <c r="N43" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>18/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="P43" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>19/08/2023 18:45</t>
-        </is>
-      </c>
       <c r="R43" t="n">
-        <v>2.45</v>
+        <v>2.11</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.86</v>
+        <v>2.31</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:55</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-budafoki-mte/vBkmSvsL/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-honved/vZXZIz47/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.01</v>
+        <v>3.3</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.26</v>
+        <v>3.36</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.83</v>
+        <v>3.12</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-pecsi-mfc/lpuNLxKl/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-soroksar/dn0rTKRE/</t>
         </is>
       </c>
     </row>
@@ -4529,46 +4529,46 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>3.27</v>
+        <v>2.69</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.95</v>
+        <v>2.48</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:55</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.49</v>
+        <v>3.2</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.49</v>
+        <v>3.29</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -4576,24 +4576,24 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.11</v>
+        <v>2.45</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.31</v>
+        <v>2.86</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:55</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-honved/vZXZIz47/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-budafoki-mte/vBkmSvsL/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Pecsi MFC</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>2</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Haladas</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>3</v>
-      </c>
       <c r="J46" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.36</v>
+        <v>2.04</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.22</v>
+        <v>3.01</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.12</v>
+        <v>3.4</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.05</v>
+        <v>3.83</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-haladas/pCYVJGl1/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-pecsi-mfc/lpuNLxKl/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.18</v>
+        <v>1.74</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.19</v>
+        <v>1.75</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>27/08/2023 18:54</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.09</v>
+        <v>3.48</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.25</v>
+        <v>3.78</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>27/08/2023 18:24</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.13</v>
+        <v>4.18</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.41</v>
+        <v>4.55</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>27/08/2023 18:54</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyirmot-fc-gyor/rL1u9Kit/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-csakvari/jo5m7bMh/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.81</v>
+        <v>2.18</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.26</v>
+        <v>2.19</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:54</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>2.98</v>
+        <v>3.09</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.02</v>
+        <v>3.25</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:24</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.5</v>
+        <v>3.13</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.01</v>
+        <v>3.41</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:54</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-ajka/6evCQnND/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyirmot-fc-gyor/rL1u9Kit/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.59</v>
+        <v>2.81</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.58</v>
+        <v>2.26</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>27/08/2023 09:56</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.82</v>
+        <v>2.98</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.03</v>
+        <v>3.02</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.95</v>
+        <v>2.5</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>5.65</v>
+        <v>3.01</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-tiszakecske/tzb04d6B/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-ajka/6evCQnND/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Tiszakecske</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Csakvari</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
       <c r="J53" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,48 +5288,48 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
+          <t>27/08/2023 09:56</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>26/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
           <t>27/08/2023 18:59</t>
         </is>
       </c>
-      <c r="N53" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="O53" t="inlineStr">
+      <c r="R53" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="S53" t="inlineStr">
         <is>
           <t>26/08/2023 07:12</t>
         </is>
       </c>
-      <c r="P53" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="Q53" t="inlineStr">
+      <c r="T53" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="U53" t="inlineStr">
         <is>
           <t>27/08/2023 18:59</t>
         </is>
       </c>
-      <c r="R53" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>26/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>27/08/2023 18:59</t>
-        </is>
-      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-csakvari/jo5m7bMh/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-tiszakecske/tzb04d6B/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2.13</v>
+        <v>2.38</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.2</v>
+        <v>2.56</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>03/09/2023 15:56</t>
+          <t>03/09/2023 15:51</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.16</v>
+        <v>3.21</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.26</v>
+        <v>3.14</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>03/09/2023 15:56</t>
+          <t>03/09/2023 15:51</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.17</v>
+        <v>2.71</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.37</v>
+        <v>2.87</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>03/09/2023 15:56</t>
+          <t>03/09/2023 15:51</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-budafoki-mte/2kn92zyO/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-soroksar/YTMwIFzB/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.94</v>
+        <v>2.13</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>03/09/2023 09:45</t>
+          <t>03/09/2023 15:56</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.36</v>
+        <v>3.16</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.38</v>
+        <v>3.26</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>03/09/2023 14:05</t>
+          <t>03/09/2023 15:56</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.46</v>
+        <v>3.17</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.54</v>
+        <v>3.37</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>03/09/2023 12:06</t>
+          <t>03/09/2023 15:56</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-kazincbarcikai/nDKRKHjh/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-budafoki-mte/2kn92zyO/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.38</v>
+        <v>1.94</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.56</v>
+        <v>2.07</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>03/09/2023 15:51</t>
+          <t>03/09/2023 09:45</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.21</v>
+        <v>3.36</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.14</v>
+        <v>3.38</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>03/09/2023 15:51</t>
+          <t>03/09/2023 14:05</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.71</v>
+        <v>3.46</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.87</v>
+        <v>3.54</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>03/09/2023 15:51</t>
+          <t>03/09/2023 12:06</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-soroksar/YTMwIFzB/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-kazincbarcikai/nDKRKHjh/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.07</v>
+        <v>1.62</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.47</v>
+        <v>1.76</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.18</v>
+        <v>3.78</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.23</v>
+        <v>3.71</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.4</v>
+        <v>4.55</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.92</v>
+        <v>4.54</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-nyiregyhaza/Emv9Xfzb/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-gyirmot-fc-gyor/29AjFDKT/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1.62</v>
+        <v>2.07</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.76</v>
+        <v>2.47</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.78</v>
+        <v>3.18</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.71</v>
+        <v>3.23</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>4.55</v>
+        <v>3.4</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>4.54</v>
+        <v>2.92</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-gyirmot-fc-gyor/29AjFDKT/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-nyiregyhaza/Emv9Xfzb/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Vasas</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>2</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Mosonmagyarovari TE</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
       <c r="J74" t="n">
-        <v>1.56</v>
+        <v>3.93</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>26/09/2023 03:12</t>
+          <t>26/09/2023 03:11</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.51</v>
+        <v>4.72</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>27/09/2023 14:39</t>
+          <t>27/09/2023 15:24</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.85</v>
+        <v>3.62</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>26/09/2023 03:12</t>
+          <t>26/09/2023 03:11</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4.14</v>
+        <v>3.77</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>27/09/2023 15:55</t>
+          <t>27/09/2023 14:04</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>5.02</v>
+        <v>1.75</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>26/09/2023 03:12</t>
+          <t>26/09/2023 03:11</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>6.52</v>
+        <v>1.72</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>27/09/2023 15:55</t>
+          <t>27/09/2023 15:24</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-mosonmagyarovari-te/rTVPTCZM/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-vasas/QoQaNACj/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Mosonmagyarovari TE</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Vasas</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
       <c r="J75" t="n">
-        <v>3.93</v>
+        <v>1.56</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>26/09/2023 03:11</t>
+          <t>26/09/2023 03:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4.72</v>
+        <v>1.51</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>27/09/2023 15:24</t>
+          <t>27/09/2023 14:39</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.62</v>
+        <v>3.85</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>26/09/2023 03:11</t>
+          <t>26/09/2023 03:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.77</v>
+        <v>4.14</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>27/09/2023 14:04</t>
+          <t>27/09/2023 15:55</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>1.75</v>
+        <v>5.02</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>26/09/2023 03:11</t>
+          <t>26/09/2023 03:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>1.72</v>
+        <v>6.52</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>27/09/2023 15:24</t>
+          <t>27/09/2023 15:55</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-vasas/QoQaNACj/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-mosonmagyarovari-te/rTVPTCZM/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>3.48</v>
+        <v>2.06</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>4.72</v>
+        <v>2.05</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:48</t>
+          <t>27/09/2023 17:33</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.33</v>
+        <v>3.41</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.87</v>
+        <v>3.43</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:48</t>
+          <t>27/09/2023 17:41</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>1.98</v>
+        <v>3.1</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1.7</v>
+        <v>3.59</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:48</t>
+          <t>27/09/2023 17:33</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-gyor/rsBbrClG/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-soroksar/hhIooE4c/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>2.29</v>
+        <v>3.48</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.28</v>
+        <v>4.72</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:48</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.99</v>
+        <v>3.33</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.36</v>
+        <v>3.87</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:48</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.03</v>
+        <v>1.98</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.12</v>
+        <v>1.7</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:48</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-pecsi-mfc/tElTSWlT/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-gyor/rsBbrClG/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>2.06</v>
+        <v>2.29</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.05</v>
+        <v>2.28</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>27/09/2023 17:33</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.41</v>
+        <v>2.99</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.43</v>
+        <v>3.36</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>27/09/2023 17:41</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.1</v>
+        <v>3.03</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>3.59</v>
+        <v>3.12</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>27/09/2023 17:33</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-soroksar/hhIooE4c/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-pecsi-mfc/tElTSWlT/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>3.13</v>
+        <v>2.01</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>4.14</v>
+        <v>2.14</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>22/10/2023 11:08</t>
+          <t>22/10/2023 12:49</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.21</v>
+        <v>3.29</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.54</v>
+        <v>3.38</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>22/10/2023 11:08</t>
+          <t>22/10/2023 12:49</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.13</v>
+        <v>3.35</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>1.88</v>
+        <v>3.39</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>22/10/2023 09:55</t>
+          <t>22/10/2023 12:49</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-haladas/zwu0nIoJ/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-soroksar/joNnALwQ/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>22/10/2023 12:40</t>
+          <t>22/10/2023 12:39</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9816,11 +9816,11 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>22/10/2023 12:40</t>
+          <t>22/10/2023 12:39</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.68</v>
+        <v>3.57</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>4.01</v>
+        <v>3.04</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>22/10/2023 12:40</t>
+          <t>22/10/2023 12:37</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-csakvari/S6luitXm/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-siofok/YVZyhMHs/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>2.11</v>
+        <v>1.88</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.23</v>
+        <v>1.91</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>22/10/2023 12:56</t>
+          <t>22/10/2023 12:40</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.12</v>
+        <v>3.35</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.14</v>
+        <v>3.52</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>22/10/2023 12:56</t>
+          <t>22/10/2023 12:40</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.25</v>
+        <v>3.68</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.45</v>
+        <v>4.01</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>22/10/2023 12:56</t>
+          <t>22/10/2023 12:40</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-tiszakecske/2PthlvH6/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-csakvari/S6luitXm/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>22/10/2023 12:49</t>
+          <t>22/10/2023 12:56</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.29</v>
+        <v>3.12</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.38</v>
+        <v>3.14</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>22/10/2023 12:49</t>
+          <t>22/10/2023 12:56</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.39</v>
+        <v>3.45</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>22/10/2023 12:49</t>
+          <t>22/10/2023 12:56</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-soroksar/joNnALwQ/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-tiszakecske/2PthlvH6/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,14 +10057,14 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.95</v>
+        <v>3.13</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.25</v>
+        <v>4.14</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>22/10/2023 12:39</t>
+          <t>22/10/2023 11:08</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.32</v>
+        <v>3.21</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.52</v>
+        <v>3.54</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>22/10/2023 12:39</t>
+          <t>22/10/2023 11:08</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.57</v>
+        <v>2.13</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>3.04</v>
+        <v>1.88</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>22/10/2023 12:37</t>
+          <t>22/10/2023 09:55</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-siofok/YVZyhMHs/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-haladas/zwu0nIoJ/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G106" t="n">
+        <v>3</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Nyiregyhaza</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Kozarmisleny SE</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
-        <v>3</v>
-      </c>
       <c r="J106" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>22/10/2023 16:40</t>
+          <t>22/10/2023 16:56</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.15</v>
+        <v>3.57</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.04</v>
+        <v>3.39</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>22/10/2023 15:58</t>
+          <t>22/10/2023 16:56</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.09</v>
+        <v>3.21</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.21</v>
+        <v>3.03</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>22/10/2023 16:40</t>
+          <t>22/10/2023 16:56</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-kozarmisleny-se/6cmqj0nf/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-nyiregyhaza/lMxlkK10/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.62</v>
+        <v>3.44</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>22/10/2023 16:37</t>
+          <t>22/10/2023 16:57</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>2.98</v>
+        <v>3.12</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>22/10/2023 16:37</t>
+          <t>22/10/2023 16:48</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.65</v>
+        <v>2.41</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.88</v>
+        <v>2.26</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>22/10/2023 16:37</t>
+          <t>22/10/2023 16:57</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-honved/dntdmbWC/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyor/CfOrB1OJ/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>3.44</v>
+        <v>2.62</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>22/10/2023 16:57</t>
+          <t>22/10/2023 16:37</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.12</v>
+        <v>2.98</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>22/10/2023 16:48</t>
+          <t>22/10/2023 16:37</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.41</v>
+        <v>2.65</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.26</v>
+        <v>2.88</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>22/10/2023 16:57</t>
+          <t>22/10/2023 16:37</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyor/CfOrB1OJ/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-honved/dntdmbWC/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Kozarmisleny SE</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
         <v>3</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Nyiregyhaza</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
       <c r="J109" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 16:40</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.57</v>
+        <v>3.15</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,32 +10456,32 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.39</v>
+        <v>3.04</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 15:58</t>
         </is>
       </c>
       <c r="R109" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>21/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
         <v>3.21</v>
       </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>21/10/2023 04:13</t>
-        </is>
-      </c>
-      <c r="T109" t="n">
-        <v>3.03</v>
-      </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 16:40</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-nyiregyhaza/lMxlkK10/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-kozarmisleny-se/6cmqj0nf/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Pecsi MFC</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
         <v>1</v>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Vasas</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
-        <v>2</v>
-      </c>
       <c r="J115" t="n">
-        <v>3.54</v>
+        <v>1.96</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>3.79</v>
+        <v>2.12</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>29/10/2023 16:34</t>
+          <t>29/10/2023 16:44</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.3</v>
+        <v>3.19</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.42</v>
+        <v>3.14</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>29/10/2023 16:34</t>
+          <t>29/10/2023 16:44</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>1.93</v>
+        <v>3.59</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>1.99</v>
+        <v>3.73</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>29/10/2023 14:26</t>
+          <t>29/10/2023 16:44</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-vasas/p8braeVO/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-pecsi-mfc/lt5Z0H0C/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,14 +11069,14 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I116" t="n">
         <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.12</v>
+        <v>1.86</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>29/10/2023 16:44</t>
+          <t>29/10/2023 16:39</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.19</v>
+        <v>3.41</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.14</v>
+        <v>3.59</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>29/10/2023 16:44</t>
+          <t>29/10/2023 16:39</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>3.59</v>
+        <v>3.87</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>3.73</v>
+        <v>4.12</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>29/10/2023 16:44</t>
+          <t>29/10/2023 16:39</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-pecsi-mfc/lt5Z0H0C/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kazincbarcikai/W4fv0yGI/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>1.82</v>
+        <v>2.32</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.86</v>
+        <v>2.6</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>29/10/2023 16:39</t>
+          <t>29/10/2023 16:44</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.41</v>
+        <v>3.23</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.59</v>
+        <v>3.01</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>29/10/2023 16:39</t>
+          <t>29/10/2023 16:44</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.87</v>
+        <v>2.77</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>4.12</v>
+        <v>2.94</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>29/10/2023 16:39</t>
+          <t>29/10/2023 16:44</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kazincbarcikai/W4fv0yGI/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-gyirmot-fc-gyor/K0DI4a1m/</t>
         </is>
       </c>
     </row>
@@ -11245,71 +11245,531 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>2</v>
       </c>
       <c r="J118" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>28/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:34</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>28/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:34</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>28/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:26</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-vasas/p8braeVO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45235.54166666666</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>BVSC-Zuglo</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Kozarmisleny SE</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:57</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:34</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
         <v>2.32</v>
       </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>28/10/2023 06:12</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:44</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>28/10/2023 06:12</t>
-        </is>
-      </c>
-      <c r="P118" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="Q118" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:44</t>
-        </is>
-      </c>
-      <c r="R118" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>28/10/2023 06:12</t>
-        </is>
-      </c>
-      <c r="T118" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:44</t>
-        </is>
-      </c>
-      <c r="V118" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-gyirmot-fc-gyor/K0DI4a1m/</t>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:34</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-kozarmisleny-se/tWkkIIVn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45235.54166666666</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Gyirmot</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Nyiregyhaza</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>4</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:36</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:01</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:36</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-nyiregyhaza/KMlgHxog/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45235.54166666666</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Kazincbarcikai</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>2</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Haladas</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>2</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:40</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:40</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:40</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-haladas/ABs6EzVB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45235.54166666666</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Mosonmagyarovari TE</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Soroksar</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>2</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:37</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:37</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:37</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-soroksar/IyoECEaO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45235.54166666666</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Pecsi MFC</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Gyor</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:49</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:49</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:49</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyor/l2tADfpI/</t>
         </is>
       </c>
     </row>

--- a/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
+++ b/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V123"/>
+  <dimension ref="A1:V126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,63 +1501,63 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.56</v>
+        <v>2.42</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.61</v>
+        <v>2.65</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:26</t>
+          <t>06/08/2023 16:48</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.48</v>
+        <v>3.22</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.22</v>
+        <v>3.33</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:29</t>
+          <t>06/08/2023 16:48</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>4.97</v>
+        <v>2.72</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>5.02</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>06/08/2023 17:26</t>
+          <t>06/08/2023 16:48</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kozarmisleny-se/8hGXu16d/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-gyirmot-fc-gyor/AHzcn3TS/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>2.24</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>06/08/2023 16:26</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.92</v>
+        <v>3.03</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.31</v>
+        <v>3.12</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:28</t>
+          <t>06/08/2023 15:31</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.43</v>
+        <v>3.19</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.1</v>
+        <v>3.19</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:28</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-ajka/GfygmqEM/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-kazincbarcikai/dhLik5qA/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.24</v>
+        <v>1.56</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.24</v>
+        <v>1.61</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 17:26</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.03</v>
+        <v>4.48</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.12</v>
+        <v>4.22</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>06/08/2023 15:31</t>
+          <t>06/08/2023 17:29</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.19</v>
+        <v>4.97</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.19</v>
+        <v>5.02</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 17:26</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-kazincbarcikai/dhLik5qA/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kozarmisleny-se/8hGXu16d/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.42</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.65</v>
+        <v>2.34</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>06/08/2023 16:48</t>
+          <t>06/08/2023 16:26</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.22</v>
+        <v>2.92</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.33</v>
+        <v>3.31</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>06/08/2023 16:48</t>
+          <t>06/08/2023 17:28</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.72</v>
+        <v>2.43</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>06/08/2023 16:48</t>
+          <t>06/08/2023 17:28</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-gyirmot-fc-gyor/AHzcn3TS/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-ajka/GfygmqEM/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.93</v>
+        <v>2.61</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>06/08/2023 18:45</t>
+          <t>06/08/2023 18:00</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.92</v>
+        <v>3.01</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>06/08/2023 17:02</t>
+          <t>06/08/2023 18:00</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.63</v>
+        <v>2.76</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>06/08/2023 18:45</t>
+          <t>06/08/2023 18:00</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-pecsi-mfc/za8J34b3/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-nyiregyhaza/d89F4pqc/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.62</v>
+        <v>2.57</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 07:13</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.6</v>
+        <v>2.93</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>06/08/2023 18:05</t>
+          <t>06/08/2023 18:45</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4.15</v>
+        <v>2.92</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 07:13</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.13</v>
+        <v>2.98</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>06/08/2023 18:50</t>
+          <t>06/08/2023 17:02</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>4.87</v>
+        <v>2.7</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 07:13</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>5.25</v>
+        <v>2.63</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>06/08/2023 18:59</t>
+          <t>06/08/2023 18:45</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-bvsc-zuglo/nwSOsNyp/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-pecsi-mfc/za8J34b3/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,63 +2053,63 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.19</v>
+        <v>1.62</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>05/08/2023 07:13</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.57</v>
+        <v>1.6</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>06/08/2023 17:54</t>
+          <t>06/08/2023 18:05</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.23</v>
+        <v>4.15</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>05/08/2023 07:13</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.51</v>
+        <v>4.13</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>06/08/2023 17:54</t>
+          <t>06/08/2023 18:50</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>4.87</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>05/08/2023 07:13</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.61</v>
+        <v>5.25</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>06/08/2023 17:54</t>
+          <t>06/08/2023 18:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-haladas/U1HTtsij/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-bvsc-zuglo/nwSOsNyp/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.73</v>
+        <v>2.19</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,48 +2160,48 @@
         </is>
       </c>
       <c r="L19" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>06/08/2023 17:54</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>05/08/2023 07:13</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>06/08/2023 17:54</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>05/08/2023 07:13</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
         <v>2.61</v>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>06/08/2023 18:00</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>05/08/2023 07:13</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>06/08/2023 18:00</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>05/08/2023 07:13</t>
-        </is>
-      </c>
-      <c r="T19" t="n">
-        <v>2.76</v>
-      </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>06/08/2023 18:00</t>
+          <t>06/08/2023 17:54</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-nyiregyhaza/d89F4pqc/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-haladas/U1HTtsij/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.63</v>
+        <v>2.26</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.63</v>
+        <v>2.48</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 08:09</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.16</v>
+        <v>3.4</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 15:33</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.48</v>
+        <v>2.81</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 08:09</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-soroksar/lMEZaMcS/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-honved/INcO2OD9/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,63 +2329,63 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.34</v>
+        <v>2.63</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13/08/2023 17:14</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.21</v>
+        <v>3.16</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>13/08/2023 16:31</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.29</v>
+        <v>2.48</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.99</v>
+        <v>2.65</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13/08/2023 17:14</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-budafoki-mte/UFd2et6q/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-soroksar/lMEZaMcS/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>13/08/2023 08:09</t>
+          <t>13/08/2023 17:14</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.4</v>
+        <v>3.21</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.38</v>
+        <v>3.39</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>13/08/2023 15:33</t>
+          <t>13/08/2023 16:31</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.81</v>
+        <v>3.29</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.75</v>
+        <v>2.99</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 08:09</t>
+          <t>13/08/2023 17:14</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-honved/INcO2OD9/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-budafoki-mte/UFd2et6q/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,14 +2513,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.95</v>
+        <v>2.38</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,48 +2528,48 @@
         </is>
       </c>
       <c r="L23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>13/08/2023 18:44</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>13/08/2023 18:07</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
         <v>2.79</v>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:52</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>2.8</v>
-      </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:44</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-pecsi-mfc/GWbEhvj2/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-szeged-csanad-ga/86e6f0Lk/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.27</v>
+        <v>2.95</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.16</v>
+        <v>2.79</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.22</v>
+        <v>2.93</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.31</v>
+        <v>2.92</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.93</v>
+        <v>2.38</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.43</v>
+        <v>2.8</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-tiszakecske/IywcHNS2/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-pecsi-mfc/GWbEhvj2/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.47</v>
+        <v>2.26</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3.24</v>
+        <v>2.27</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>13/08/2023 18:47</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.29</v>
+        <v>3.46</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>13/08/2023 18:47</t>
+          <t>13/08/2023 18:14</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.61</v>
+        <v>2.8</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.25</v>
+        <v>3.04</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>13/08/2023 11:08</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-gyor/AVFV02rM/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-haladas/G8GR1rTF/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.38</v>
+        <v>2.47</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.7</v>
+        <v>3.24</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13/08/2023 18:44</t>
+          <t>13/08/2023 18:47</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>2.96</v>
+        <v>3.29</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.05</v>
+        <v>3.29</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>13/08/2023 18:07</t>
+          <t>13/08/2023 18:47</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.91</v>
+        <v>2.61</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.79</v>
+        <v>2.25</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>13/08/2023 18:44</t>
+          <t>13/08/2023 11:08</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-szeged-csanad-ga/86e6f0Lk/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-gyor/AVFV02rM/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.26</v>
+        <v>2.27</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,48 +2988,48 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.27</v>
+        <v>2.16</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="N28" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:30</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
         <v>3.43</v>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:14</t>
-        </is>
-      </c>
-      <c r="R28" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T28" t="n">
-        <v>3.04</v>
-      </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-haladas/G8GR1rTF/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-tiszakecske/IywcHNS2/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.07</v>
+        <v>1.58</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/08/2023 17:29</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.33</v>
+        <v>3.94</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.74</v>
+        <v>3.79</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16/08/2023 17:29</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.15</v>
+        <v>5.6</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.34</v>
+        <v>5.15</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/08/2023 17:29</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-csakvari/djGq8Jkk/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-bvsc-zuglo/2TGu9azq/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.58</v>
+        <v>2.07</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 17:29</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.94</v>
+        <v>3.33</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.79</v>
+        <v>3.74</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 17:29</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>5.6</v>
+        <v>3.15</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>5.15</v>
+        <v>3.34</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 17:29</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-bvsc-zuglo/2TGu9azq/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-csakvari/djGq8Jkk/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,63 +3617,63 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.52</v>
+        <v>1.93</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:27</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.6</v>
+        <v>3.73</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>4.24</v>
+        <v>3.61</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:30</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.99</v>
+        <v>4.16</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.73</v>
+        <v>3.77</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:27</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-kozarmisleny-se/zsFm7w5e/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-tiszakecske/W88d5HZ7/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.14</v>
+        <v>1.52</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:59</t>
+          <t>16/08/2023 18:27</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.22</v>
+        <v>3.6</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.21</v>
+        <v>4.24</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:59</t>
+          <t>16/08/2023 18:30</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.41</v>
+        <v>3.99</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.59</v>
+        <v>5.73</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:59</t>
+          <t>16/08/2023 18:27</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyirmot-fc-gyor/Q7PDDuSR/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-kozarmisleny-se/zsFm7w5e/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:59</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.73</v>
+        <v>3.22</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.61</v>
+        <v>3.21</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:59</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.16</v>
+        <v>3.41</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.77</v>
+        <v>3.59</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:59</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-tiszakecske/W88d5HZ7/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyirmot-fc-gyor/Q7PDDuSR/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,14 +4261,14 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.22</v>
+        <v>3.3</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,32 +4292,32 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.28</v>
+        <v>3.36</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="R42" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>18/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
         <v>3.12</v>
       </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>18/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>3.05</v>
-      </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-haladas/pCYVJGl1/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-soroksar/dn0rTKRE/</t>
         </is>
       </c>
     </row>
@@ -4345,46 +4345,46 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>3.27</v>
+        <v>2.69</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.95</v>
+        <v>2.48</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>19/08/2023 18:55</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.49</v>
+        <v>3.2</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.49</v>
+        <v>3.29</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,24 +4392,24 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.11</v>
+        <v>2.45</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.31</v>
+        <v>2.86</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>19/08/2023 18:55</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-honved/vZXZIz47/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-budafoki-mte/vBkmSvsL/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Pecsi MFC</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>2</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Soroksar</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
       <c r="J44" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.3</v>
+        <v>3.01</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.36</v>
+        <v>3.26</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.12</v>
+        <v>3.83</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-soroksar/dn0rTKRE/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-pecsi-mfc/lpuNLxKl/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>2.69</v>
+        <v>3.27</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.48</v>
+        <v>2.95</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>19/08/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>19/08/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
           <t>19/08/2023 18:45</t>
         </is>
       </c>
-      <c r="N45" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>18/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>19/08/2023 18:45</t>
-        </is>
-      </c>
       <c r="R45" t="n">
-        <v>2.45</v>
+        <v>2.11</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.86</v>
+        <v>2.31</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:55</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-budafoki-mte/vBkmSvsL/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-honved/vZXZIz47/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.04</v>
+        <v>2.36</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.01</v>
+        <v>3.22</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.4</v>
+        <v>3.12</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.83</v>
+        <v>3.05</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-pecsi-mfc/lpuNLxKl/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-haladas/pCYVJGl1/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.74</v>
+        <v>2.18</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.75</v>
+        <v>2.19</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:54</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.48</v>
+        <v>3.09</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.78</v>
+        <v>3.25</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:24</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.18</v>
+        <v>3.13</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.55</v>
+        <v>3.41</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:54</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-csakvari/jo5m7bMh/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyirmot-fc-gyor/rL1u9Kit/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.18</v>
+        <v>2.81</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.19</v>
+        <v>2.26</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>27/08/2023 18:54</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.09</v>
+        <v>2.98</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.25</v>
+        <v>3.02</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>27/08/2023 18:24</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.13</v>
+        <v>2.5</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.41</v>
+        <v>3.01</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>27/08/2023 18:54</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyirmot-fc-gyor/rL1u9Kit/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-ajka/6evCQnND/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.81</v>
+        <v>1.59</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.26</v>
+        <v>1.58</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 09:56</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2.98</v>
+        <v>3.82</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.02</v>
+        <v>4.03</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.5</v>
+        <v>4.95</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.01</v>
+        <v>5.65</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-ajka/6evCQnND/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-tiszakecske/tzb04d6B/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Csakvari</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>2</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Tiszakecske</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
       <c r="J53" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/08/2023 09:56</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.82</v>
+        <v>3.48</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.03</v>
+        <v>3.78</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.95</v>
+        <v>4.18</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>5.65</v>
+        <v>4.55</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-tiszakecske/tzb04d6B/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-csakvari/jo5m7bMh/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2.38</v>
+        <v>2.13</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.56</v>
+        <v>2.2</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>03/09/2023 15:51</t>
+          <t>03/09/2023 15:56</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.21</v>
+        <v>3.16</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.14</v>
+        <v>3.26</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>03/09/2023 15:51</t>
+          <t>03/09/2023 15:56</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.71</v>
+        <v>3.17</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.87</v>
+        <v>3.37</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>03/09/2023 15:51</t>
+          <t>03/09/2023 15:56</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-soroksar/YTMwIFzB/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-budafoki-mte/2kn92zyO/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>2.13</v>
+        <v>1.94</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>03/09/2023 15:56</t>
+          <t>03/09/2023 09:45</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.16</v>
+        <v>3.36</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.26</v>
+        <v>3.38</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>03/09/2023 15:56</t>
+          <t>03/09/2023 14:05</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.17</v>
+        <v>3.46</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.37</v>
+        <v>3.54</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>03/09/2023 15:56</t>
+          <t>03/09/2023 12:06</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-budafoki-mte/2kn92zyO/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-kazincbarcikai/nDKRKHjh/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.94</v>
+        <v>2.38</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.07</v>
+        <v>2.56</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>03/09/2023 09:45</t>
+          <t>03/09/2023 15:51</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.36</v>
+        <v>3.21</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.38</v>
+        <v>3.14</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>03/09/2023 14:05</t>
+          <t>03/09/2023 15:51</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.46</v>
+        <v>2.71</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.54</v>
+        <v>2.87</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>03/09/2023 12:06</t>
+          <t>03/09/2023 15:51</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-kazincbarcikai/nDKRKHjh/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-soroksar/YTMwIFzB/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.62</v>
+        <v>2.07</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.76</v>
+        <v>2.47</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.78</v>
+        <v>3.18</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.71</v>
+        <v>3.23</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.55</v>
+        <v>3.4</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.54</v>
+        <v>2.92</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-gyirmot-fc-gyor/29AjFDKT/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-nyiregyhaza/Emv9Xfzb/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.07</v>
+        <v>1.62</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.47</v>
+        <v>1.76</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.18</v>
+        <v>3.78</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.23</v>
+        <v>3.71</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.4</v>
+        <v>4.55</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.92</v>
+        <v>4.54</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-nyiregyhaza/Emv9Xfzb/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-gyirmot-fc-gyor/29AjFDKT/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Mosonmagyarovari TE</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Vasas</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
       <c r="J74" t="n">
-        <v>3.93</v>
+        <v>1.56</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>26/09/2023 03:11</t>
+          <t>26/09/2023 03:12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4.72</v>
+        <v>1.51</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>27/09/2023 15:24</t>
+          <t>27/09/2023 14:39</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.62</v>
+        <v>3.85</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>26/09/2023 03:11</t>
+          <t>26/09/2023 03:12</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.77</v>
+        <v>4.14</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>27/09/2023 14:04</t>
+          <t>27/09/2023 15:55</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.75</v>
+        <v>5.02</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>26/09/2023 03:11</t>
+          <t>26/09/2023 03:12</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.72</v>
+        <v>6.52</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>27/09/2023 15:24</t>
+          <t>27/09/2023 15:55</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-vasas/QoQaNACj/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-mosonmagyarovari-te/rTVPTCZM/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Vasas</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Mosonmagyarovari TE</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
       <c r="J75" t="n">
-        <v>1.56</v>
+        <v>3.93</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>26/09/2023 03:12</t>
+          <t>26/09/2023 03:11</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.51</v>
+        <v>4.72</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>27/09/2023 14:39</t>
+          <t>27/09/2023 15:24</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.85</v>
+        <v>3.62</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>26/09/2023 03:12</t>
+          <t>26/09/2023 03:11</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.14</v>
+        <v>3.77</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>27/09/2023 15:55</t>
+          <t>27/09/2023 14:04</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>5.02</v>
+        <v>1.75</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>26/09/2023 03:12</t>
+          <t>26/09/2023 03:11</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>6.52</v>
+        <v>1.72</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>27/09/2023 15:55</t>
+          <t>27/09/2023 15:24</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-mosonmagyarovari-te/rTVPTCZM/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-vasas/QoQaNACj/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
-        <v>2.06</v>
+        <v>3.48</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.05</v>
+        <v>4.72</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:33</t>
+          <t>27/09/2023 17:48</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.41</v>
+        <v>3.33</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.43</v>
+        <v>3.87</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:41</t>
+          <t>27/09/2023 17:48</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.1</v>
+        <v>1.98</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.59</v>
+        <v>1.7</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:33</t>
+          <t>27/09/2023 17:48</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-soroksar/hhIooE4c/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-gyor/rsBbrClG/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>3.48</v>
+        <v>2.29</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>4.72</v>
+        <v>2.28</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:48</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.33</v>
+        <v>2.99</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.87</v>
+        <v>3.36</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:48</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>1.98</v>
+        <v>3.03</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>1.7</v>
+        <v>3.12</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:48</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-gyor/rsBbrClG/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-pecsi-mfc/tElTSWlT/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.28</v>
+        <v>2.05</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:33</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>2.99</v>
+        <v>3.41</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.36</v>
+        <v>3.43</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:41</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.03</v>
+        <v>3.1</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>3.12</v>
+        <v>3.59</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:33</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-pecsi-mfc/tElTSWlT/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-soroksar/hhIooE4c/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>2</v>
+        <v>2.74</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.31</v>
+        <v>3.44</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 16:57</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.57</v>
+        <v>3.12</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.39</v>
+        <v>3.09</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 16:48</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.21</v>
+        <v>2.41</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.03</v>
+        <v>2.26</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 16:57</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-nyiregyhaza/lMxlkK10/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyor/CfOrB1OJ/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.74</v>
+        <v>2</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>3.44</v>
+        <v>2.31</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>22/10/2023 16:57</t>
+          <t>22/10/2023 16:56</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.12</v>
+        <v>3.57</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.09</v>
+        <v>3.39</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>22/10/2023 16:48</t>
+          <t>22/10/2023 16:56</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.41</v>
+        <v>3.21</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.26</v>
+        <v>3.03</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>22/10/2023 16:57</t>
+          <t>22/10/2023 16:56</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyor/CfOrB1OJ/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-nyiregyhaza/lMxlkK10/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>22/10/2023 16:37</t>
+          <t>22/10/2023 16:40</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10368,11 +10368,11 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>22/10/2023 16:37</t>
+          <t>22/10/2023 15:58</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.65</v>
+        <v>3.09</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.88</v>
+        <v>3.21</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>22/10/2023 16:37</t>
+          <t>22/10/2023 16:40</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-honved/dntdmbWC/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-kozarmisleny-se/6cmqj0nf/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,14 +10425,14 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2.17</v>
+        <v>2.58</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>22/10/2023 16:40</t>
+          <t>22/10/2023 16:37</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10460,11 +10460,11 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>22/10/2023 15:58</t>
+          <t>22/10/2023 16:37</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.09</v>
+        <v>2.65</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.21</v>
+        <v>2.88</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>22/10/2023 16:40</t>
+          <t>22/10/2023 16:37</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-kozarmisleny-se/6cmqj0nf/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-honved/dntdmbWC/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.76</v>
+        <v>2.58</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.63</v>
+        <v>2.71</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:40</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.39</v>
+        <v>3.06</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.95</v>
+        <v>3.14</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:40</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>4.18</v>
+        <v>2.58</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>5.27</v>
+        <v>2.71</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:40</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-ajka/8Q9E5uns/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-szeged-csanad-ga/tG1R2wWa/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>2.58</v>
+        <v>1.76</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.71</v>
+        <v>1.63</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>29/10/2023 12:40</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.06</v>
+        <v>3.39</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.14</v>
+        <v>3.95</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>29/10/2023 12:40</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.58</v>
+        <v>4.18</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.71</v>
+        <v>5.27</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>29/10/2023 12:40</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-szeged-csanad-ga/tG1R2wWa/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-ajka/8Q9E5uns/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>1.96</v>
+        <v>3.54</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.12</v>
+        <v>3.79</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>29/10/2023 16:44</t>
+          <t>29/10/2023 16:34</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.19</v>
+        <v>3.3</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.14</v>
+        <v>3.42</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>29/10/2023 16:44</t>
+          <t>29/10/2023 16:34</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.59</v>
+        <v>1.93</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>3.73</v>
+        <v>1.99</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>29/10/2023 16:44</t>
+          <t>29/10/2023 14:26</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-pecsi-mfc/lt5Z0H0C/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-vasas/p8braeVO/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>2.32</v>
+        <v>1.96</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.6</v>
+        <v>2.12</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.23</v>
+        <v>3.19</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.01</v>
+        <v>3.14</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.77</v>
+        <v>3.59</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.94</v>
+        <v>3.73</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-gyirmot-fc-gyor/K0DI4a1m/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-pecsi-mfc/lt5Z0H0C/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>3.54</v>
+        <v>2.32</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>3.79</v>
+        <v>2.6</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>29/10/2023 16:34</t>
+          <t>29/10/2023 16:44</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.3</v>
+        <v>3.23</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.42</v>
+        <v>3.01</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>29/10/2023 16:34</t>
+          <t>29/10/2023 16:44</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>1.93</v>
+        <v>2.77</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>1.99</v>
+        <v>2.94</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>29/10/2023 14:26</t>
+          <t>29/10/2023 16:44</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-vasas/p8braeVO/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-gyirmot-fc-gyor/K0DI4a1m/</t>
         </is>
       </c>
     </row>
@@ -11770,6 +11770,282 @@
       <c r="V123" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyor/l2tADfpI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45235.70833333334</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Csakvari</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Siofok</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:32</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:32</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:32</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-siofok/0KYiJbGt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45235.70833333334</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Ajka</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Tiszakecske</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:34</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:34</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:34</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-tiszakecske/EqlcGd0a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45235.70833333334</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Szeged</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Budafoki</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:44</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:44</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:44</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-budafoki-mte/dSqIBYEU/</t>
         </is>
       </c>
     </row>

--- a/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
+++ b/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V126"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,14 +11805,14 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,15 +11820,15 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>05/11/2023 16:32</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.49</v>
+        <v>3.31</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>05/11/2023 16:32</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.36</v>
+        <v>3.88</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>3.62</v>
+        <v>4.32</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>05/11/2023 16:32</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-siofok/0KYiJbGt/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-budafoki-mte/dSqIBYEU/</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -11989,14 +11989,14 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:32</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.31</v>
+        <v>3.49</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:32</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>3.88</v>
+        <v>3.36</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,108 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>4.32</v>
+        <v>3.62</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:32</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-budafoki-mte/dSqIBYEU/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-siofok/0KYiJbGt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45236.83333333334</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Vasas</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>3</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Honved</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:50</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:50</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:50</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-honved/Snh1FGF5/</t>
         </is>
       </c>
     </row>

--- a/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
+++ b/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V127"/>
+  <dimension ref="A1:V131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.65</v>
+        <v>2.24</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>06/08/2023 16:48</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.22</v>
+        <v>3.03</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.33</v>
+        <v>3.12</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>06/08/2023 16:48</t>
+          <t>06/08/2023 15:31</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.72</v>
+        <v>3.19</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>3.19</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>06/08/2023 16:48</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-gyirmot-fc-gyor/AHzcn3TS/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-kazincbarcikai/dhLik5qA/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.24</v>
+        <v>1.56</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.24</v>
+        <v>1.61</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 17:26</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.03</v>
+        <v>4.48</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.12</v>
+        <v>4.22</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>06/08/2023 15:31</t>
+          <t>06/08/2023 17:29</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.19</v>
+        <v>4.97</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.19</v>
+        <v>5.02</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 17:26</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-kazincbarcikai/dhLik5qA/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kozarmisleny-se/8hGXu16d/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.56</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.61</v>
+        <v>2.34</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>06/08/2023 17:26</t>
+          <t>06/08/2023 16:26</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.48</v>
+        <v>2.92</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.22</v>
+        <v>3.31</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>06/08/2023 17:29</t>
+          <t>06/08/2023 17:28</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.97</v>
+        <v>2.43</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>5.02</v>
+        <v>3.1</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>06/08/2023 17:26</t>
+          <t>06/08/2023 17:28</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kozarmisleny-se/8hGXu16d/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-ajka/GfygmqEM/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>2.42</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.34</v>
+        <v>2.65</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>06/08/2023 16:26</t>
+          <t>06/08/2023 16:48</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.92</v>
+        <v>3.22</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.31</v>
+        <v>3.33</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>06/08/2023 17:28</t>
+          <t>06/08/2023 16:48</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.43</v>
+        <v>2.72</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>06/08/2023 17:28</t>
+          <t>06/08/2023 16:48</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-ajka/GfygmqEM/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-gyirmot-fc-gyor/AHzcn3TS/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,63 +2329,63 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.63</v>
+        <v>2.34</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 17:14</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.16</v>
+        <v>3.21</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.35</v>
+        <v>3.39</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 16:31</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.48</v>
+        <v>3.29</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.65</v>
+        <v>2.99</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 17:14</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-soroksar/lMEZaMcS/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-budafoki-mte/UFd2et6q/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.34</v>
+        <v>2.63</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>13/08/2023 17:14</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.21</v>
+        <v>3.16</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>13/08/2023 16:31</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.29</v>
+        <v>2.48</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.99</v>
+        <v>2.65</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 17:14</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-budafoki-mte/UFd2et6q/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-soroksar/lMEZaMcS/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.38</v>
+        <v>1.49</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.7</v>
+        <v>1.52</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>13/08/2023 18:44</t>
+          <t>12/08/2023 12:53</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.96</v>
+        <v>3.94</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.05</v>
+        <v>4.08</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>13/08/2023 18:07</t>
+          <t>13/08/2023 17:02</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.91</v>
+        <v>5.73</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.79</v>
+        <v>6.25</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>13/08/2023 18:44</t>
+          <t>12/08/2023 12:53</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-szeged-csanad-ga/86e6f0Lk/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-mosonmagyarovari-te/2TfAgKzd/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.95</v>
+        <v>2.27</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,48 +2620,48 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.79</v>
+        <v>2.16</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="N24" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:30</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
         <v>2.93</v>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>12/08/2023 07:12</t>
         </is>
       </c>
-      <c r="P24" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
       <c r="T24" t="n">
-        <v>2.8</v>
+        <v>3.43</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-pecsi-mfc/GWbEhvj2/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-tiszakecske/IywcHNS2/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.49</v>
+        <v>2.95</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.52</v>
+        <v>2.79</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>12/08/2023 12:53</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.94</v>
+        <v>2.93</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.08</v>
+        <v>2.92</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>13/08/2023 17:02</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.73</v>
+        <v>2.38</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>6.25</v>
+        <v>2.8</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>12/08/2023 12:53</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-mosonmagyarovari-te/2TfAgKzd/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-pecsi-mfc/GWbEhvj2/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.27</v>
+        <v>2.38</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.16</v>
+        <v>2.7</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 18:44</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.22</v>
+        <v>2.96</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.31</v>
+        <v>3.05</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 18:07</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.43</v>
+        <v>2.79</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 18:44</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-tiszakecske/IywcHNS2/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-szeged-csanad-ga/86e6f0Lk/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Ajka</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Csakvari</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.07</v>
+        <v>2.84</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.98</v>
+        <v>3.5</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16/08/2023 17:29</t>
+          <t>16/08/2023 16:02</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.33</v>
+        <v>3.23</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.74</v>
+        <v>3.29</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>16/08/2023 17:29</t>
+          <t>16/08/2023 16:02</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.15</v>
+        <v>2.33</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.34</v>
+        <v>2.14</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/08/2023 17:29</t>
+          <t>16/08/2023 16:02</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-csakvari/djGq8Jkk/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-ajka/rqz9ELCL/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>15/08/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>16/08/2023 17:27</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>15/08/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>16/08/2023 17:27</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
         <v>2.84</v>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>15/08/2023 05:42</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>16/08/2023 16:02</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>15/08/2023 05:42</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>16/08/2023 16:02</t>
-        </is>
-      </c>
-      <c r="R31" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>15/08/2023 05:42</t>
-        </is>
-      </c>
       <c r="T31" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/08/2023 16:02</t>
+          <t>16/08/2023 17:21</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-ajka/rqz9ELCL/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-nyiregyhaza/hI9h6cK1/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.33</v>
+        <v>2.07</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.97</v>
+        <v>1.98</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16/08/2023 17:27</t>
+          <t>16/08/2023 17:29</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.13</v>
+        <v>3.33</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.28</v>
+        <v>3.74</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>16/08/2023 17:27</t>
+          <t>16/08/2023 17:29</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.4</v>
+        <v>3.34</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16/08/2023 17:21</t>
+          <t>16/08/2023 17:29</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-nyiregyhaza/hI9h6cK1/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-csakvari/djGq8Jkk/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.34</v>
+        <v>2.01</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:59</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>2.98</v>
+        <v>3.22</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.22</v>
+        <v>3.21</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:59</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.96</v>
+        <v>3.41</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:59</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-siofok/dSy1Gsr9/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyirmot-fc-gyor/Q7PDDuSR/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.8</v>
+        <v>2.34</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:44</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.73</v>
+        <v>2.98</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.61</v>
+        <v>3.22</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:44</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.16</v>
+        <v>2.96</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.77</v>
+        <v>3.46</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:44</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-tiszakecske/W88d5HZ7/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-siofok/dSy1Gsr9/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,63 +3709,63 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.52</v>
+        <v>1.93</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:27</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.6</v>
+        <v>3.73</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.24</v>
+        <v>3.61</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:30</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.99</v>
+        <v>4.16</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>5.73</v>
+        <v>3.77</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:27</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-kozarmisleny-se/zsFm7w5e/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-tiszakecske/W88d5HZ7/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.14</v>
+        <v>1.52</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>16/08/2023 18:59</t>
+          <t>16/08/2023 18:27</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.22</v>
+        <v>3.6</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.21</v>
+        <v>4.24</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>16/08/2023 18:59</t>
+          <t>16/08/2023 18:30</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.41</v>
+        <v>3.99</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.59</v>
+        <v>5.73</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>16/08/2023 18:59</t>
+          <t>16/08/2023 18:27</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyirmot-fc-gyor/Q7PDDuSR/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-kozarmisleny-se/zsFm7w5e/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.29</v>
+        <v>2.85</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.72</v>
+        <v>3.22</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>19/08/2023 17:15</t>
+          <t>19/08/2023 15:33</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.17</v>
+        <v>3.34</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>19/08/2023 15:44</t>
+          <t>19/08/2023 15:33</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.94</v>
+        <v>2.27</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.56</v>
+        <v>2.22</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>19/08/2023 17:15</t>
+          <t>19/08/2023 15:33</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-gyor/pCdvU0C8/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-szeged-csanad-ga/I1liRbdR/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>2.85</v>
+        <v>2.29</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.22</v>
+        <v>2.72</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19/08/2023 15:33</t>
+          <t>19/08/2023 17:15</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.38</v>
+        <v>3.35</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19/08/2023 15:33</t>
+          <t>19/08/2023 15:44</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.27</v>
+        <v>2.94</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.22</v>
+        <v>2.56</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>19/08/2023 15:33</t>
+          <t>19/08/2023 17:15</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-szeged-csanad-ga/I1liRbdR/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-gyor/pCdvU0C8/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.65</v>
+        <v>2.04</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.2</v>
+        <v>3.01</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.88</v>
+        <v>3.26</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>6.12</v>
+        <v>3.4</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>5.16</v>
+        <v>3.83</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-kazincbarcikai/W8URKdZf/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-pecsi-mfc/lpuNLxKl/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>2.69</v>
+        <v>2.12</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.29</v>
+        <v>3.28</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.45</v>
+        <v>3.12</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-budafoki-mte/vBkmSvsL/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-haladas/pCYVJGl1/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.1</v>
+        <v>3.27</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.04</v>
+        <v>2.95</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:55</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.01</v>
+        <v>3.49</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.26</v>
+        <v>3.49</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.4</v>
+        <v>2.11</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.83</v>
+        <v>2.31</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:55</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-pecsi-mfc/lpuNLxKl/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-honved/vZXZIz47/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>3.27</v>
+        <v>1.51</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.95</v>
+        <v>1.65</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:55</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.49</v>
+        <v>4.2</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.49</v>
+        <v>3.88</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.11</v>
+        <v>6.12</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.31</v>
+        <v>5.16</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:55</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-honved/vZXZIz47/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-kazincbarcikai/W8URKdZf/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2.12</v>
+        <v>2.69</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.12</v>
+        <v>2.45</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-haladas/pCYVJGl1/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-budafoki-mte/vBkmSvsL/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>2.33</v>
+        <v>1.99</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.64</v>
+        <v>2.28</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.16</v>
+        <v>3.24</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.44</v>
+        <v>3.1</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 17:22</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.58</v>
+        <v>3.37</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-bvsc-zuglo/xr1q8v7n/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-kozarmisleny-se/Y9fh6Iya/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>1.99</v>
+        <v>2.33</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.28</v>
+        <v>2.64</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.24</v>
+        <v>3.16</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.1</v>
+        <v>3.44</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>27/08/2023 17:22</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.37</v>
+        <v>2.58</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-kozarmisleny-se/Y9fh6Iya/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-bvsc-zuglo/xr1q8v7n/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.18</v>
+        <v>1.61</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.19</v>
+        <v>1.71</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>27/08/2023 18:54</t>
+          <t>27/08/2023 18:51</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.09</v>
+        <v>3.71</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.25</v>
+        <v>3.79</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>27/08/2023 18:24</t>
+          <t>27/08/2023 18:51</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.13</v>
+        <v>4.7</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.41</v>
+        <v>4.78</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>27/08/2023 18:54</t>
+          <t>27/08/2023 18:51</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyirmot-fc-gyor/rL1u9Kit/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-siofok/IPWwIfJD/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>2.81</v>
+        <v>1.74</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.26</v>
+        <v>1.75</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>2.98</v>
+        <v>3.48</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.02</v>
+        <v>3.78</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.5</v>
+        <v>4.18</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.01</v>
+        <v>4.55</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-ajka/6evCQnND/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-csakvari/jo5m7bMh/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.59</v>
+        <v>2.18</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.58</v>
+        <v>2.19</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>27/08/2023 09:56</t>
+          <t>27/08/2023 18:54</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.82</v>
+        <v>3.09</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.03</v>
+        <v>3.25</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:24</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.95</v>
+        <v>3.13</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>5.65</v>
+        <v>3.41</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:54</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-tiszakecske/tzb04d6B/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyirmot-fc-gyor/rL1u9Kit/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Ajka</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Csakvari</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
       <c r="J53" t="n">
-        <v>1.74</v>
+        <v>2.81</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.75</v>
+        <v>2.26</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.48</v>
+        <v>2.98</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.78</v>
+        <v>3.02</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.18</v>
+        <v>2.5</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.55</v>
+        <v>3.01</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-csakvari/jo5m7bMh/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-ajka/6evCQnND/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>27/08/2023 18:51</t>
+          <t>27/08/2023 09:56</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.71</v>
+        <v>3.82</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.79</v>
+        <v>4.03</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>27/08/2023 18:51</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.7</v>
+        <v>4.95</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.78</v>
+        <v>5.65</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>27/08/2023 18:51</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-siofok/IPWwIfJD/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-tiszakecske/tzb04d6B/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2.13</v>
+        <v>2.38</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.2</v>
+        <v>2.56</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>03/09/2023 15:56</t>
+          <t>03/09/2023 15:51</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.16</v>
+        <v>3.21</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.26</v>
+        <v>3.14</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>03/09/2023 15:56</t>
+          <t>03/09/2023 15:51</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.17</v>
+        <v>2.71</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.37</v>
+        <v>2.87</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>03/09/2023 15:56</t>
+          <t>03/09/2023 15:51</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-budafoki-mte/2kn92zyO/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-soroksar/YTMwIFzB/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3.12</v>
+        <v>2.2</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>03/09/2023 15:59</t>
+          <t>03/09/2023 15:56</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.38</v>
+        <v>3.16</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.56</v>
+        <v>3.26</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>03/09/2023 15:59</t>
+          <t>03/09/2023 15:56</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.89</v>
+        <v>3.17</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.19</v>
+        <v>3.37</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>03/09/2023 15:59</t>
+          <t>03/09/2023 15:56</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-gyor/KQIZIeL4/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-budafoki-mte/2kn92zyO/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.94</v>
+        <v>2.23</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.07</v>
+        <v>3.12</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>03/09/2023 09:45</t>
+          <t>03/09/2023 15:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.36</v>
+        <v>3.38</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.38</v>
+        <v>3.56</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>03/09/2023 14:05</t>
+          <t>03/09/2023 15:59</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.46</v>
+        <v>2.89</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.54</v>
+        <v>2.19</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>03/09/2023 12:06</t>
+          <t>03/09/2023 15:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-kazincbarcikai/nDKRKHjh/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-gyor/KQIZIeL4/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>2.98</v>
+        <v>1.94</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.79</v>
+        <v>2.07</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>03/09/2023 15:58</t>
+          <t>03/09/2023 09:45</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.09</v>
+        <v>3.36</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.29</v>
+        <v>3.38</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>03/09/2023 15:51</t>
+          <t>03/09/2023 14:05</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.27</v>
+        <v>3.46</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.54</v>
+        <v>3.54</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>03/09/2023 15:58</t>
+          <t>03/09/2023 12:06</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-pecsi-mfc/UyQMLcyn/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-kazincbarcikai/nDKRKHjh/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.38</v>
+        <v>2.98</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,48 +5932,48 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.56</v>
+        <v>2.79</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
+          <t>03/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>02/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
           <t>03/09/2023 15:51</t>
         </is>
       </c>
-      <c r="N60" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O60" t="inlineStr">
+      <c r="R60" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S60" t="inlineStr">
         <is>
           <t>02/09/2023 04:12</t>
         </is>
       </c>
-      <c r="P60" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>03/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="R60" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>02/09/2023 04:12</t>
-        </is>
-      </c>
       <c r="T60" t="n">
-        <v>2.87</v>
+        <v>2.54</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>03/09/2023 15:51</t>
+          <t>03/09/2023 15:58</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-soroksar/YTMwIFzB/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-pecsi-mfc/UyQMLcyn/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.48</v>
+        <v>2.14</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>03/09/2023 16:48</t>
+          <t>03/09/2023 16:44</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.17</v>
+        <v>3.3</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.14</v>
+        <v>3.38</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>03/09/2023 16:48</t>
+          <t>03/09/2023 16:44</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.62</v>
+        <v>3.03</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.99</v>
+        <v>3.02</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>03/09/2023 16:48</t>
+          <t>03/09/2023 16:44</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-szeged-csanad-ga/EPkD1fjU/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-haladas/GhCrHZkH/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.89</v>
+        <v>2.48</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.93</v>
+        <v>2.47</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:48</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.48</v>
+        <v>3.17</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.57</v>
+        <v>3.14</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:48</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.5</v>
+        <v>2.62</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.86</v>
+        <v>2.99</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:48</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-mosonmagyarovari-te/joRIMwMu/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-szeged-csanad-ga/EPkD1fjU/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.82</v>
+        <v>1.89</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3.52</v>
+        <v>1.93</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.17</v>
+        <v>3.48</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.28</v>
+        <v>3.57</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.32</v>
+        <v>3.5</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.13</v>
+        <v>3.86</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-vasas/Q3JVJy6b/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-mosonmagyarovari-te/joRIMwMu/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.14</v>
+        <v>2.82</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,48 +6300,48 @@
         </is>
       </c>
       <c r="L64" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>03/09/2023 16:51</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>02/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>03/09/2023 16:51</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
         <v>2.32</v>
       </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>03/09/2023 16:44</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>02/09/2023 04:12</t>
         </is>
       </c>
-      <c r="P64" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>03/09/2023 16:44</t>
-        </is>
-      </c>
-      <c r="R64" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>02/09/2023 04:12</t>
-        </is>
-      </c>
       <c r="T64" t="n">
-        <v>3.02</v>
+        <v>2.13</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>03/09/2023 16:44</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-haladas/GhCrHZkH/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-vasas/Q3JVJy6b/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,14 +6377,14 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.73</v>
+        <v>3.61</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.22</v>
+        <v>3.15</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>24/09/2023 15:40</t>
+          <t>24/09/2023 15:57</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.54</v>
+        <v>2.49</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.57</v>
+        <v>2.1</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-honved/AFXHVY4A/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-kozarmisleny-se/KQv5YzLi/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>2.61</v>
+        <v>1.86</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.61</v>
+        <v>1.95</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>24/09/2023 15:57</t>
+          <t>24/09/2023 15:34</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>24/09/2023 15:57</t>
+          <t>24/09/2023 15:34</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.49</v>
+        <v>3.88</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.1</v>
+        <v>4.16</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>24/09/2023 15:57</t>
+          <t>24/09/2023 14:04</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-kozarmisleny-se/KQv5YzLi/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-tiszakecske/hvwDWEk4/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.86</v>
+        <v>2.59</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.95</v>
+        <v>2.73</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>24/09/2023 15:34</t>
+          <t>24/09/2023 15:57</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.27</v>
+        <v>3.31</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>24/09/2023 15:34</t>
+          <t>24/09/2023 15:40</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.88</v>
+        <v>2.54</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.16</v>
+        <v>2.57</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>24/09/2023 14:04</t>
+          <t>24/09/2023 15:57</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-tiszakecske/hvwDWEk4/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-honved/AFXHVY4A/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>24/09/2023 16:31</t>
+          <t>24/09/2023 16:56</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.27</v>
+        <v>3.31</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.49</v>
+        <v>3.3</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>24/09/2023 16:46</t>
+          <t>24/09/2023 16:56</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.9</v>
+        <v>3.62</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.55</v>
+        <v>3.34</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>24/09/2023 16:31</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-siofok/fqBnGg5N/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-bvsc-zuglo/4IdIAXSp/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:31</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.31</v>
+        <v>3.27</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:46</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.62</v>
+        <v>3.9</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.34</v>
+        <v>4.55</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:31</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-bvsc-zuglo/4IdIAXSp/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-siofok/fqBnGg5N/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Gyirmot</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Csakvari</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
       <c r="J71" t="n">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/09/2023 16:57</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.26</v>
+        <v>3.78</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.06</v>
+        <v>3.71</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/09/2023 16:50</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.87</v>
+        <v>4.55</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.85</v>
+        <v>4.54</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/09/2023 16:57</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-csakvari/6Nz1ZG5o/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-gyirmot-fc-gyor/29AjFDKT/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.76</v>
+        <v>2.12</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:57</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.78</v>
+        <v>3.26</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.71</v>
+        <v>3.06</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:50</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>4.55</v>
+        <v>3.87</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>4.54</v>
+        <v>3.85</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:57</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-gyirmot-fc-gyor/29AjFDKT/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-csakvari/6Nz1ZG5o/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,14 +7205,14 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.56</v>
+        <v>2.11</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.51</v>
+        <v>2.04</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>27/09/2023 14:39</t>
+          <t>27/09/2023 15:49</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.85</v>
+        <v>3.18</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4.14</v>
+        <v>3.48</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>27/09/2023 15:55</t>
+          <t>27/09/2023 15:49</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>5.02</v>
+        <v>3.21</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>6.52</v>
+        <v>3.52</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>27/09/2023 15:55</t>
+          <t>27/09/2023 15:49</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-mosonmagyarovari-te/rTVPTCZM/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-ajka/E1Jsnfki/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.11</v>
+        <v>1.56</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.04</v>
+        <v>1.51</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>27/09/2023 15:49</t>
+          <t>27/09/2023 14:39</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.18</v>
+        <v>3.85</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.48</v>
+        <v>4.14</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>27/09/2023 15:49</t>
+          <t>27/09/2023 15:55</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.21</v>
+        <v>5.02</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.52</v>
+        <v>6.52</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>27/09/2023 15:49</t>
+          <t>27/09/2023 15:55</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-ajka/E1Jsnfki/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-mosonmagyarovari-te/rTVPTCZM/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:33</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.2</v>
+        <v>3.41</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.19</v>
+        <v>3.43</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:41</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.06</v>
+        <v>3.59</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:33</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-kazincbarcikai/neReOjcp/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-soroksar/hhIooE4c/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>3.48</v>
+        <v>2.15</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>4.72</v>
+        <v>2.4</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:48</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.33</v>
+        <v>3.2</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.87</v>
+        <v>3.19</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:48</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>1.98</v>
+        <v>3.09</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1.7</v>
+        <v>3.06</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:48</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-gyor/rsBbrClG/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-kazincbarcikai/neReOjcp/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>2.29</v>
+        <v>3.48</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.28</v>
+        <v>4.72</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:48</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.99</v>
+        <v>3.33</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.36</v>
+        <v>3.87</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:48</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.03</v>
+        <v>1.98</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.12</v>
+        <v>1.7</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:48</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-pecsi-mfc/tElTSWlT/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-gyor/rsBbrClG/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>2.8</v>
+        <v>2.29</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3.13</v>
+        <v>2.28</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>27/09/2023 17:46</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.01</v>
+        <v>2.99</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.09</v>
+        <v>3.36</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>27/09/2023 17:46</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.43</v>
+        <v>3.03</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.41</v>
+        <v>3.12</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>27/09/2023 17:46</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-szeged-csanad-ga/lKBfqhZ9/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-pecsi-mfc/tElTSWlT/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,14 +7849,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>2.06</v>
+        <v>2.8</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.05</v>
+        <v>3.13</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>27/09/2023 17:33</t>
+          <t>27/09/2023 17:46</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.41</v>
+        <v>3.01</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.43</v>
+        <v>3.09</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>27/09/2023 17:41</t>
+          <t>27/09/2023 17:46</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.1</v>
+        <v>2.43</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>3.59</v>
+        <v>2.41</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>27/09/2023 17:33</t>
+          <t>27/09/2023 17:46</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-soroksar/hhIooE4c/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-szeged-csanad-ga/lKBfqhZ9/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>2.01</v>
+        <v>3.13</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.14</v>
+        <v>4.14</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>22/10/2023 12:49</t>
+          <t>22/10/2023 11:08</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.29</v>
+        <v>3.21</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.38</v>
+        <v>3.54</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>22/10/2023 12:49</t>
+          <t>22/10/2023 11:08</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.35</v>
+        <v>2.13</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.39</v>
+        <v>1.88</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>22/10/2023 12:49</t>
+          <t>22/10/2023 09:55</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-soroksar/joNnALwQ/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-haladas/zwu0nIoJ/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>22/10/2023 12:39</t>
+          <t>22/10/2023 12:56</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.32</v>
+        <v>3.12</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.52</v>
+        <v>3.14</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>22/10/2023 12:39</t>
+          <t>22/10/2023 12:56</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.57</v>
+        <v>3.25</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.04</v>
+        <v>3.45</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>22/10/2023 12:37</t>
+          <t>22/10/2023 12:56</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-siofok/YVZyhMHs/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-tiszakecske/2PthlvH6/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,14 +9965,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.11</v>
+        <v>1.95</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>22/10/2023 12:56</t>
+          <t>22/10/2023 12:39</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.12</v>
+        <v>3.32</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.14</v>
+        <v>3.52</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>22/10/2023 12:56</t>
+          <t>22/10/2023 12:39</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.25</v>
+        <v>3.57</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.45</v>
+        <v>3.04</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>22/10/2023 12:56</t>
+          <t>22/10/2023 12:37</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-tiszakecske/2PthlvH6/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-siofok/YVZyhMHs/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>3.13</v>
+        <v>2.01</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>4.14</v>
+        <v>2.14</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>22/10/2023 11:08</t>
+          <t>22/10/2023 12:49</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.21</v>
+        <v>3.29</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.54</v>
+        <v>3.38</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>22/10/2023 11:08</t>
+          <t>22/10/2023 12:49</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.13</v>
+        <v>3.35</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>1.88</v>
+        <v>3.39</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>22/10/2023 09:55</t>
+          <t>22/10/2023 12:49</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-haladas/zwu0nIoJ/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-soroksar/joNnALwQ/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>2.74</v>
+        <v>2.17</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.44</v>
+        <v>2.4</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>22/10/2023 16:57</t>
+          <t>22/10/2023 16:40</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,32 +10180,32 @@
         </is>
       </c>
       <c r="P106" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
         <v>3.09</v>
       </c>
-      <c r="Q106" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:48</t>
-        </is>
-      </c>
-      <c r="R106" t="n">
-        <v>2.41</v>
-      </c>
       <c r="S106" t="inlineStr">
         <is>
           <t>21/10/2023 04:13</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.26</v>
+        <v>3.21</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>22/10/2023 16:57</t>
+          <t>22/10/2023 16:40</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyor/CfOrB1OJ/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-kozarmisleny-se/6cmqj0nf/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2</v>
+        <v>2.58</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.31</v>
+        <v>2.62</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 16:37</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.57</v>
+        <v>2.98</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.39</v>
+        <v>3.04</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 16:37</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.21</v>
+        <v>2.65</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.03</v>
+        <v>2.88</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 16:37</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-nyiregyhaza/lMxlkK10/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-honved/dntdmbWC/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>2.17</v>
+        <v>2.74</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.4</v>
+        <v>3.44</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>22/10/2023 16:40</t>
+          <t>22/10/2023 16:57</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.15</v>
+        <v>3.12</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>22/10/2023 15:58</t>
+          <t>22/10/2023 16:48</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.09</v>
+        <v>2.41</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.21</v>
+        <v>2.26</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>22/10/2023 16:40</t>
+          <t>22/10/2023 16:57</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-kozarmisleny-se/6cmqj0nf/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyor/CfOrB1OJ/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2.58</v>
+        <v>2</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.62</v>
+        <v>2.31</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>22/10/2023 16:37</t>
+          <t>22/10/2023 16:56</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>2.98</v>
+        <v>3.57</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.04</v>
+        <v>3.39</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>22/10/2023 16:37</t>
+          <t>22/10/2023 16:56</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.65</v>
+        <v>3.21</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>2.88</v>
+        <v>3.03</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>22/10/2023 16:37</t>
+          <t>22/10/2023 16:56</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-honved/dntdmbWC/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-nyiregyhaza/lMxlkK10/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>2.47</v>
+        <v>1.76</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.57</v>
+        <v>1.63</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>29/10/2023 12:39</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.01</v>
+        <v>3.39</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.07</v>
+        <v>3.95</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>29/10/2023 12:39</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>2.75</v>
+        <v>4.18</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.92</v>
+        <v>5.27</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>29/10/2023 12:39</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-budafoki-mte/bBnQNv8P/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-ajka/8Q9E5uns/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1.76</v>
+        <v>2.47</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.63</v>
+        <v>2.57</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:39</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.39</v>
+        <v>3.01</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.95</v>
+        <v>3.07</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:39</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>4.18</v>
+        <v>2.75</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>5.27</v>
+        <v>2.92</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:39</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-ajka/8Q9E5uns/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-budafoki-mte/bBnQNv8P/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,14 +11069,14 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I116" t="n">
         <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.86</v>
+        <v>2.12</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>29/10/2023 16:39</t>
+          <t>29/10/2023 16:44</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.41</v>
+        <v>3.19</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,32 +11100,32 @@
         </is>
       </c>
       <c r="P116" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:44</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
         <v>3.59</v>
       </c>
-      <c r="Q116" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:39</t>
-        </is>
-      </c>
-      <c r="R116" t="n">
-        <v>3.87</v>
-      </c>
       <c r="S116" t="inlineStr">
         <is>
           <t>28/10/2023 06:12</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>4.12</v>
+        <v>3.73</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>29/10/2023 16:39</t>
+          <t>29/10/2023 16:44</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kazincbarcikai/W4fv0yGI/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-pecsi-mfc/lt5Z0H0C/</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -11161,14 +11161,14 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.12</v>
+        <v>1.86</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>29/10/2023 16:44</t>
+          <t>29/10/2023 16:39</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.19</v>
+        <v>3.41</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.14</v>
+        <v>3.59</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>29/10/2023 16:44</t>
+          <t>29/10/2023 16:39</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.59</v>
+        <v>3.87</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>3.73</v>
+        <v>4.12</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>29/10/2023 16:44</t>
+          <t>29/10/2023 16:39</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-pecsi-mfc/lt5Z0H0C/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kazincbarcikai/W4fv0yGI/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,14 +11805,14 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,15 +11820,15 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:34</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.31</v>
+        <v>3.23</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:34</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.88</v>
+        <v>3.45</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>4.32</v>
+        <v>3.82</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:34</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-budafoki-mte/dSqIBYEU/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-tiszakecske/EqlcGd0a/</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -11897,14 +11897,14 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,15 +11912,15 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>05/11/2023 16:34</t>
+          <t>05/11/2023 16:32</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11928,15 +11928,15 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.23</v>
+        <v>3.49</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>05/11/2023 16:34</t>
+          <t>05/11/2023 16:32</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>3.45</v>
+        <v>3.36</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>3.82</v>
+        <v>3.62</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>05/11/2023 16:34</t>
+          <t>05/11/2023 16:32</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-tiszakecske/EqlcGd0a/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-siofok/0KYiJbGt/</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -11989,14 +11989,14 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>05/11/2023 16:32</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.49</v>
+        <v>3.31</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>05/11/2023 16:32</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>3.36</v>
+        <v>3.88</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>3.62</v>
+        <v>4.32</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>05/11/2023 16:32</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-siofok/0KYiJbGt/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-budafoki-mte/dSqIBYEU/</t>
         </is>
       </c>
     </row>
@@ -12138,6 +12138,374 @@
       <c r="V127" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-honved/Snh1FGF5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45242.54166666666</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Siofok</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Szeged</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:48</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:48</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:48</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-szeged-csanad-ga/xvwL85bj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45242.54166666666</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Budafoki</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Mosonmagyarovari TE</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>2</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:40</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:40</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:40</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-mosonmagyarovari-te/EcTVUeFh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45242.54166666666</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Nyiregyhaza</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>BVSC-Zuglo</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:46</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>4</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:46</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:46</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-bvsc-zuglo/MkBOWHpt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45242.54166666666</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Soroksar</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Pecsi MFC</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-pecsi-mfc/hlSZTFUb/</t>
         </is>
       </c>
     </row>

--- a/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
+++ b/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V131"/>
+  <dimension ref="A1:V136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.56</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.61</v>
+        <v>2.34</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:26</t>
+          <t>06/08/2023 16:26</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.48</v>
+        <v>2.92</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.22</v>
+        <v>3.31</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:29</t>
+          <t>06/08/2023 17:28</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.97</v>
+        <v>2.43</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>5.02</v>
+        <v>3.1</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:26</t>
+          <t>06/08/2023 17:28</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kozarmisleny-se/8hGXu16d/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-ajka/GfygmqEM/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>2.42</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.34</v>
+        <v>2.65</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>06/08/2023 16:26</t>
+          <t>06/08/2023 16:48</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2.92</v>
+        <v>3.22</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.31</v>
+        <v>3.33</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>06/08/2023 17:28</t>
+          <t>06/08/2023 16:48</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.43</v>
+        <v>2.72</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>06/08/2023 17:28</t>
+          <t>06/08/2023 16:48</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-ajka/GfygmqEM/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-gyirmot-fc-gyor/AHzcn3TS/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.42</v>
+        <v>1.56</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.65</v>
+        <v>1.61</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>06/08/2023 16:48</t>
+          <t>06/08/2023 17:26</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.22</v>
+        <v>4.48</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.33</v>
+        <v>4.22</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>06/08/2023 16:48</t>
+          <t>06/08/2023 17:29</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.72</v>
+        <v>4.97</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.63</v>
+        <v>5.02</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>06/08/2023 16:48</t>
+          <t>06/08/2023 17:26</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-gyirmot-fc-gyor/AHzcn3TS/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kozarmisleny-se/8hGXu16d/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.73</v>
+        <v>1.62</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>05/08/2023 07:13</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.61</v>
+        <v>1.6</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>06/08/2023 18:00</t>
+          <t>06/08/2023 18:05</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.01</v>
+        <v>4.15</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>05/08/2023 07:13</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.2</v>
+        <v>4.13</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>06/08/2023 18:00</t>
+          <t>06/08/2023 18:50</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.48</v>
+        <v>4.87</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>05/08/2023 07:13</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.76</v>
+        <v>5.25</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>06/08/2023 18:00</t>
+          <t>06/08/2023 18:59</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-nyiregyhaza/d89F4pqc/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-bvsc-zuglo/nwSOsNyp/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>05/08/2023 07:13</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
         <v>2.57</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>06/08/2023 17:54</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>05/08/2023 07:13</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>06/08/2023 18:45</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>06/08/2023 17:54</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>05/08/2023 07:13</t>
         </is>
       </c>
-      <c r="P17" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>06/08/2023 17:02</t>
-        </is>
-      </c>
-      <c r="R17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>05/08/2023 07:13</t>
-        </is>
-      </c>
       <c r="T17" t="n">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>06/08/2023 18:45</t>
+          <t>06/08/2023 17:54</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-pecsi-mfc/za8J34b3/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-haladas/U1HTtsij/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.62</v>
+        <v>2.73</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 07:13</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.6</v>
+        <v>2.61</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>06/08/2023 18:05</t>
+          <t>06/08/2023 18:00</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.15</v>
+        <v>3.01</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 07:13</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.13</v>
+        <v>3.2</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>06/08/2023 18:50</t>
+          <t>06/08/2023 18:00</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>4.87</v>
+        <v>2.48</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 07:13</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5.25</v>
+        <v>2.76</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>06/08/2023 18:59</t>
+          <t>06/08/2023 18:00</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-bvsc-zuglo/nwSOsNyp/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-nyiregyhaza/d89F4pqc/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.19</v>
+        <v>2.57</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.57</v>
+        <v>2.93</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>06/08/2023 17:54</t>
+          <t>06/08/2023 18:45</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.23</v>
+        <v>2.92</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.51</v>
+        <v>2.98</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>06/08/2023 17:54</t>
+          <t>06/08/2023 17:02</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>06/08/2023 17:54</t>
+          <t>06/08/2023 18:45</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-haladas/U1HTtsij/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-pecsi-mfc/za8J34b3/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.49</v>
+        <v>2.38</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.52</v>
+        <v>2.7</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>12/08/2023 12:53</t>
+          <t>13/08/2023 18:44</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.94</v>
+        <v>2.96</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>4.08</v>
+        <v>3.05</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>13/08/2023 17:02</t>
+          <t>13/08/2023 18:07</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>5.73</v>
+        <v>2.91</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>6.25</v>
+        <v>2.79</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>12/08/2023 12:53</t>
+          <t>13/08/2023 18:44</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-mosonmagyarovari-te/2TfAgKzd/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-szeged-csanad-ga/86e6f0Lk/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.27</v>
+        <v>1.49</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.16</v>
+        <v>1.52</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>12/08/2023 12:53</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.22</v>
+        <v>3.94</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.31</v>
+        <v>4.08</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 17:02</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.93</v>
+        <v>5.73</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.43</v>
+        <v>6.25</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>12/08/2023 12:53</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-tiszakecske/IywcHNS2/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-mosonmagyarovari-te/2TfAgKzd/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.26</v>
+        <v>2.27</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,48 +2712,48 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.27</v>
+        <v>2.16</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="N25" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:30</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
         <v>3.43</v>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:14</t>
-        </is>
-      </c>
-      <c r="R25" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T25" t="n">
-        <v>3.04</v>
-      </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-haladas/G8GR1rTF/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-tiszakecske/IywcHNS2/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.95</v>
+        <v>2.26</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.79</v>
+        <v>2.27</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>2.93</v>
+        <v>3.43</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>2.92</v>
+        <v>3.46</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:14</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.8</v>
+        <v>3.04</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-pecsi-mfc/GWbEhvj2/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-haladas/G8GR1rTF/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,63 +2973,63 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>13/08/2023 18:52</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>13/08/2023 18:52</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
         <v>2.38</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>12/08/2023 07:12</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:44</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:07</t>
-        </is>
-      </c>
-      <c r="R28" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
       <c r="T28" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>13/08/2023 18:44</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-szeged-csanad-ga/86e6f0Lk/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-pecsi-mfc/GWbEhvj2/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.58</v>
+        <v>2.07</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 17:29</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.94</v>
+        <v>3.33</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.79</v>
+        <v>3.74</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 17:29</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5.6</v>
+        <v>3.15</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>5.15</v>
+        <v>3.34</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 17:29</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-bvsc-zuglo/2TGu9azq/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-csakvari/djGq8Jkk/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,63 +3341,63 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.07</v>
+        <v>1.58</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16/08/2023 17:29</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.33</v>
+        <v>3.94</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.74</v>
+        <v>3.79</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>16/08/2023 17:29</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.15</v>
+        <v>5.6</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.34</v>
+        <v>5.15</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16/08/2023 17:29</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-csakvari/djGq8Jkk/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-bvsc-zuglo/2TGu9azq/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.01</v>
+        <v>1.8</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16/08/2023 18:59</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.22</v>
+        <v>3.73</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.21</v>
+        <v>3.61</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>16/08/2023 18:59</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.41</v>
+        <v>4.16</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.59</v>
+        <v>3.77</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/08/2023 18:59</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyirmot-fc-gyor/Q7PDDuSR/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-tiszakecske/W88d5HZ7/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.34</v>
+        <v>2.01</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:59</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>2.98</v>
+        <v>3.22</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.22</v>
+        <v>3.21</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:59</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.96</v>
+        <v>3.41</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:59</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-siofok/dSy1Gsr9/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyirmot-fc-gyor/Q7PDDuSR/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.8</v>
+        <v>2.34</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:44</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.73</v>
+        <v>2.98</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.61</v>
+        <v>3.22</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:44</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.16</v>
+        <v>2.96</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.77</v>
+        <v>3.46</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:44</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-tiszakecske/W88d5HZ7/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-siofok/dSy1Gsr9/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.12</v>
+        <v>2.69</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.12</v>
+        <v>2.45</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-haladas/pCYVJGl1/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-budafoki-mte/vBkmSvsL/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,63 +4537,63 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>1.51</v>
+        <v>2.12</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.65</v>
+        <v>2.36</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.2</v>
+        <v>3.22</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.88</v>
+        <v>3.28</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>6.12</v>
+        <v>3.12</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>5.16</v>
+        <v>3.05</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-kazincbarcikai/W8URKdZf/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-haladas/pCYVJGl1/</t>
         </is>
       </c>
     </row>
@@ -4621,30 +4621,30 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>2.69</v>
+        <v>1.51</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.48</v>
+        <v>1.65</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,15 +4652,15 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.29</v>
+        <v>3.88</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,15 +4668,15 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.45</v>
+        <v>6.12</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.86</v>
+        <v>5.16</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-budafoki-mte/vBkmSvsL/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-kazincbarcikai/W8URKdZf/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>1.99</v>
+        <v>2.33</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.28</v>
+        <v>2.64</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.24</v>
+        <v>3.16</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.1</v>
+        <v>3.44</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>27/08/2023 17:22</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.37</v>
+        <v>2.58</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-kozarmisleny-se/Y9fh6Iya/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-bvsc-zuglo/xr1q8v7n/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>2.33</v>
+        <v>1.99</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.64</v>
+        <v>2.28</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.16</v>
+        <v>3.24</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.44</v>
+        <v>3.1</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 17:22</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.58</v>
+        <v>3.37</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-bvsc-zuglo/xr1q8v7n/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-kozarmisleny-se/Y9fh6Iya/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2.13</v>
+        <v>2.98</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.2</v>
+        <v>2.79</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>03/09/2023 15:56</t>
+          <t>03/09/2023 15:58</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.16</v>
+        <v>3.09</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.26</v>
+        <v>3.29</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>03/09/2023 15:56</t>
+          <t>03/09/2023 15:51</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.17</v>
+        <v>2.27</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.37</v>
+        <v>2.54</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>03/09/2023 15:56</t>
+          <t>03/09/2023 15:58</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-budafoki-mte/2kn92zyO/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-pecsi-mfc/UyQMLcyn/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.12</v>
+        <v>2.2</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>03/09/2023 15:59</t>
+          <t>03/09/2023 15:56</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.38</v>
+        <v>3.16</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.56</v>
+        <v>3.26</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>03/09/2023 15:59</t>
+          <t>03/09/2023 15:56</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.89</v>
+        <v>3.17</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.19</v>
+        <v>3.37</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>03/09/2023 15:59</t>
+          <t>03/09/2023 15:56</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-gyor/KQIZIeL4/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-budafoki-mte/2kn92zyO/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.98</v>
+        <v>2.23</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.79</v>
+        <v>3.12</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>03/09/2023 15:58</t>
+          <t>03/09/2023 15:59</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.09</v>
+        <v>3.38</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.29</v>
+        <v>3.56</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>03/09/2023 15:51</t>
+          <t>03/09/2023 15:59</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.27</v>
+        <v>2.89</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.54</v>
+        <v>2.19</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>03/09/2023 15:58</t>
+          <t>03/09/2023 15:59</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-pecsi-mfc/UyQMLcyn/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-gyor/KQIZIeL4/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.32</v>
+        <v>1.93</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>03/09/2023 16:44</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.3</v>
+        <v>3.48</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.38</v>
+        <v>3.57</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>03/09/2023 16:44</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.03</v>
+        <v>3.5</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.02</v>
+        <v>3.86</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>03/09/2023 16:44</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-haladas/GhCrHZkH/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-mosonmagyarovari-te/joRIMwMu/</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -6101,14 +6101,14 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>2.48</v>
+        <v>2.82</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,11 +6116,11 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.47</v>
+        <v>3.52</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>03/09/2023 16:48</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>03/09/2023 16:48</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.62</v>
+        <v>2.32</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.99</v>
+        <v>2.13</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>03/09/2023 16:48</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-szeged-csanad-ga/EPkD1fjU/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-vasas/Q3JVJy6b/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:44</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.48</v>
+        <v>3.3</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.57</v>
+        <v>3.38</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:44</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.5</v>
+        <v>3.03</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.86</v>
+        <v>3.02</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:44</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-mosonmagyarovari-te/joRIMwMu/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-haladas/GhCrHZkH/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,11 +6300,11 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.52</v>
+        <v>2.47</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:48</t>
         </is>
       </c>
       <c r="N64" t="n">
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.28</v>
+        <v>3.14</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:48</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.13</v>
+        <v>2.99</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:48</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-vasas/Q3JVJy6b/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-szeged-csanad-ga/EPkD1fjU/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>2.61</v>
+        <v>1.86</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.61</v>
+        <v>1.95</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>24/09/2023 15:57</t>
+          <t>24/09/2023 15:34</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>24/09/2023 15:57</t>
+          <t>24/09/2023 15:34</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.49</v>
+        <v>3.88</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.1</v>
+        <v>4.16</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>24/09/2023 15:57</t>
+          <t>24/09/2023 14:04</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-kozarmisleny-se/KQv5YzLi/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-tiszakecske/hvwDWEk4/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>1.86</v>
+        <v>2.59</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.95</v>
+        <v>2.73</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>24/09/2023 15:34</t>
+          <t>24/09/2023 15:57</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.27</v>
+        <v>3.31</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>24/09/2023 15:34</t>
+          <t>24/09/2023 15:40</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.88</v>
+        <v>2.54</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.16</v>
+        <v>2.57</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>24/09/2023 14:04</t>
+          <t>24/09/2023 15:57</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-tiszakecske/hvwDWEk4/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-honved/AFXHVY4A/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,14 +6561,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.73</v>
+        <v>3.61</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.22</v>
+        <v>3.15</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>24/09/2023 15:40</t>
+          <t>24/09/2023 15:57</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.54</v>
+        <v>2.49</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.57</v>
+        <v>2.1</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-honved/AFXHVY4A/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-kozarmisleny-se/KQv5YzLi/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:31</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.31</v>
+        <v>3.27</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:46</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.62</v>
+        <v>3.9</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.34</v>
+        <v>4.55</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:31</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-bvsc-zuglo/4IdIAXSp/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-siofok/fqBnGg5N/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Gyirmot</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Siofok</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
       <c r="J70" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>24/09/2023 16:31</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.27</v>
+        <v>3.78</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.49</v>
+        <v>3.71</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>24/09/2023 16:46</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.9</v>
+        <v>4.55</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>24/09/2023 16:31</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-siofok/fqBnGg5N/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-gyirmot-fc-gyor/29AjFDKT/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,48 +6944,48 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.76</v>
+        <v>2.2</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
+          <t>24/09/2023 16:56</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>23/09/2023 05:13</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>23/09/2023 05:13</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
           <t>24/09/2023 16:45</t>
         </is>
       </c>
-      <c r="N71" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>23/09/2023 05:13</t>
-        </is>
-      </c>
-      <c r="P71" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:45</t>
-        </is>
-      </c>
-      <c r="R71" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>23/09/2023 05:13</t>
-        </is>
-      </c>
-      <c r="T71" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:45</t>
-        </is>
-      </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-gyirmot-fc-gyor/29AjFDKT/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-bvsc-zuglo/4IdIAXSp/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Vasas</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>2</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Ajka</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
       <c r="J74" t="n">
-        <v>2.11</v>
+        <v>3.93</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>26/09/2023 03:12</t>
+          <t>26/09/2023 03:11</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.04</v>
+        <v>4.72</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>27/09/2023 15:49</t>
+          <t>27/09/2023 15:24</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.18</v>
+        <v>3.62</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>26/09/2023 03:12</t>
+          <t>26/09/2023 03:11</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.48</v>
+        <v>3.77</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>27/09/2023 15:49</t>
+          <t>27/09/2023 14:04</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.21</v>
+        <v>1.75</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>26/09/2023 03:12</t>
+          <t>26/09/2023 03:11</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.52</v>
+        <v>1.72</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>27/09/2023 15:49</t>
+          <t>27/09/2023 15:24</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-ajka/E1Jsnfki/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-vasas/QoQaNACj/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Mosonmagyarovari TE</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Vasas</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
       <c r="J75" t="n">
-        <v>3.93</v>
+        <v>1.56</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>26/09/2023 03:11</t>
+          <t>26/09/2023 03:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4.72</v>
+        <v>1.51</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>27/09/2023 15:24</t>
+          <t>27/09/2023 14:39</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.62</v>
+        <v>3.85</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>26/09/2023 03:11</t>
+          <t>26/09/2023 03:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.77</v>
+        <v>4.14</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>27/09/2023 14:04</t>
+          <t>27/09/2023 15:55</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>1.75</v>
+        <v>5.02</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>26/09/2023 03:11</t>
+          <t>26/09/2023 03:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>1.72</v>
+        <v>6.52</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>27/09/2023 15:24</t>
+          <t>27/09/2023 15:55</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-vasas/QoQaNACj/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-mosonmagyarovari-te/rTVPTCZM/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.56</v>
+        <v>2.11</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.51</v>
+        <v>2.04</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>27/09/2023 14:39</t>
+          <t>27/09/2023 15:49</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.85</v>
+        <v>3.18</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4.14</v>
+        <v>3.48</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>27/09/2023 15:55</t>
+          <t>27/09/2023 15:49</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>5.02</v>
+        <v>3.21</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>6.52</v>
+        <v>3.52</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>27/09/2023 15:55</t>
+          <t>27/09/2023 15:49</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-mosonmagyarovari-te/rTVPTCZM/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-ajka/E1Jsnfki/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>27/09/2023 17:33</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.41</v>
+        <v>3.2</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.43</v>
+        <v>3.19</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>27/09/2023 17:41</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.59</v>
+        <v>3.06</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>27/09/2023 17:33</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-soroksar/hhIooE4c/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-kazincbarcikai/neReOjcp/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:33</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.2</v>
+        <v>3.41</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.19</v>
+        <v>3.43</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:41</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.06</v>
+        <v>3.59</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:33</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-kazincbarcikai/neReOjcp/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-soroksar/hhIooE4c/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>2.29</v>
+        <v>2.8</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.28</v>
+        <v>3.13</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:46</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.36</v>
+        <v>3.09</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:46</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.03</v>
+        <v>2.43</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.12</v>
+        <v>2.41</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:46</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-pecsi-mfc/tElTSWlT/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-szeged-csanad-ga/lKBfqhZ9/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>2.8</v>
+        <v>2.29</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.13</v>
+        <v>2.28</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>27/09/2023 17:46</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.01</v>
+        <v>2.99</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.09</v>
+        <v>3.36</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>27/09/2023 17:46</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.43</v>
+        <v>3.03</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.41</v>
+        <v>3.12</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>27/09/2023 17:46</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-szeged-csanad-ga/lKBfqhZ9/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-pecsi-mfc/tElTSWlT/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>22/10/2023 12:39</t>
+          <t>22/10/2023 12:49</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.32</v>
+        <v>3.29</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.52</v>
+        <v>3.38</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>22/10/2023 12:39</t>
+          <t>22/10/2023 12:49</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.57</v>
+        <v>3.35</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.04</v>
+        <v>3.39</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>22/10/2023 12:37</t>
+          <t>22/10/2023 12:49</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-siofok/YVZyhMHs/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-soroksar/joNnALwQ/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>22/10/2023 12:49</t>
+          <t>22/10/2023 12:39</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.29</v>
+        <v>3.32</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.38</v>
+        <v>3.52</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>22/10/2023 12:49</t>
+          <t>22/10/2023 12:39</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.35</v>
+        <v>3.57</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>3.39</v>
+        <v>3.04</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>22/10/2023 12:49</t>
+          <t>22/10/2023 12:37</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-soroksar/joNnALwQ/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-siofok/YVZyhMHs/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>2.01</v>
+        <v>2.58</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.03</v>
+        <v>2.71</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>29/10/2023 12:36</t>
+          <t>29/10/2023 12:40</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.25</v>
+        <v>3.06</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>29/10/2023 12:36</t>
+          <t>29/10/2023 12:40</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>3.38</v>
+        <v>2.58</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.66</v>
+        <v>2.71</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>29/10/2023 12:35</t>
+          <t>29/10/2023 12:40</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-bvsc-zuglo/2P2N3JGg/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-szeged-csanad-ga/tG1R2wWa/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>2.58</v>
+        <v>2.47</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.71</v>
+        <v>2.57</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>29/10/2023 12:40</t>
+          <t>29/10/2023 12:39</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.06</v>
+        <v>3.01</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.14</v>
+        <v>3.07</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>29/10/2023 12:40</t>
+          <t>29/10/2023 12:39</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>2.58</v>
+        <v>2.75</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>2.71</v>
+        <v>2.92</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>29/10/2023 12:40</t>
+          <t>29/10/2023 12:39</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-szeged-csanad-ga/tG1R2wWa/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-budafoki-mte/bBnQNv8P/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>2.47</v>
+        <v>2.01</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.57</v>
+        <v>2.03</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>29/10/2023 12:39</t>
+          <t>29/10/2023 12:36</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.01</v>
+        <v>3.25</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.07</v>
+        <v>3.44</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>29/10/2023 12:39</t>
+          <t>29/10/2023 12:36</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.75</v>
+        <v>3.38</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.92</v>
+        <v>3.66</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>29/10/2023 12:39</t>
+          <t>29/10/2023 12:35</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-budafoki-mte/bBnQNv8P/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-bvsc-zuglo/2P2N3JGg/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Kazincbarcikai</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
         <v>1</v>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Vasas</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
-        <v>2</v>
-      </c>
       <c r="J115" t="n">
-        <v>3.54</v>
+        <v>1.82</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>3.79</v>
+        <v>1.86</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>29/10/2023 16:34</t>
+          <t>29/10/2023 16:39</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.3</v>
+        <v>3.41</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.42</v>
+        <v>3.59</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>29/10/2023 16:34</t>
+          <t>29/10/2023 16:39</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>1.93</v>
+        <v>3.87</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>1.99</v>
+        <v>4.12</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>29/10/2023 14:26</t>
+          <t>29/10/2023 16:39</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-vasas/p8braeVO/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kazincbarcikai/W4fv0yGI/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>1.82</v>
+        <v>3.54</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.86</v>
+        <v>3.79</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>29/10/2023 16:39</t>
+          <t>29/10/2023 16:34</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.41</v>
+        <v>3.3</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.59</v>
+        <v>3.42</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>29/10/2023 16:39</t>
+          <t>29/10/2023 16:34</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.87</v>
+        <v>1.93</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>4.12</v>
+        <v>1.99</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>29/10/2023 16:39</t>
+          <t>29/10/2023 14:26</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kazincbarcikai/W4fv0yGI/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-vasas/p8braeVO/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,14 +11345,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>2.73</v>
+        <v>3.69</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>3.02</v>
+        <v>4.37</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>05/11/2023 08:57</t>
+          <t>05/11/2023 12:49</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>05/11/2023 12:34</t>
+          <t>05/11/2023 12:49</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.32</v>
+        <v>1.85</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>05/11/2023 12:34</t>
+          <t>05/11/2023 12:49</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-kozarmisleny-se/tWkkIIVn/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyor/l2tADfpI/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>2.41</v>
+        <v>2.73</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.78</v>
+        <v>3.02</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>05/11/2023 12:36</t>
+          <t>05/11/2023 08:57</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.12</v>
+        <v>3.19</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2.92</v>
+        <v>3.38</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>05/11/2023 11:01</t>
+          <t>05/11/2023 12:34</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.74</v>
+        <v>2.38</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.81</v>
+        <v>2.32</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>05/11/2023 12:36</t>
+          <t>05/11/2023 12:34</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-nyiregyhaza/KMlgHxog/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-kozarmisleny-se/tWkkIIVn/</t>
         </is>
       </c>
     </row>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -11529,14 +11529,14 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J121" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.48</v>
+        <v>2.78</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>05/11/2023 12:40</t>
+          <t>05/11/2023 12:36</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.09</v>
+        <v>3.12</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.27</v>
+        <v>2.92</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>05/11/2023 12:40</t>
+          <t>05/11/2023 11:01</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.87</v>
+        <v>2.81</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>05/11/2023 12:40</t>
+          <t>05/11/2023 12:36</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-haladas/ABs6EzVB/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-nyiregyhaza/KMlgHxog/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I122" t="n">
         <v>2</v>
       </c>
       <c r="J122" t="n">
-        <v>2.84</v>
+        <v>2.38</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>3.11</v>
+        <v>2.48</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>05/11/2023 12:37</t>
+          <t>05/11/2023 12:40</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.14</v>
+        <v>3.09</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.31</v>
+        <v>3.27</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>05/11/2023 12:37</t>
+          <t>05/11/2023 12:40</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>2.33</v>
+        <v>2.8</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>2.3</v>
+        <v>2.87</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>05/11/2023 12:37</t>
+          <t>05/11/2023 12:40</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-soroksar/IyoECEaO/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-haladas/ABs6EzVB/</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -11713,14 +11713,14 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="n">
-        <v>3.69</v>
+        <v>2.84</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>4.37</v>
+        <v>3.11</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>05/11/2023 12:49</t>
+          <t>05/11/2023 12:37</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3.26</v>
+        <v>3.14</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.47</v>
+        <v>3.31</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>05/11/2023 12:49</t>
+          <t>05/11/2023 12:37</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>1.91</v>
+        <v>2.33</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>05/11/2023 12:49</t>
+          <t>05/11/2023 12:37</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyor/l2tADfpI/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-soroksar/IyoECEaO/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,14 +11805,14 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,15 +11820,15 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>05/11/2023 16:34</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.23</v>
+        <v>3.31</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>05/11/2023 16:34</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.45</v>
+        <v>3.88</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>3.82</v>
+        <v>4.32</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>05/11/2023 16:34</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-tiszakecske/EqlcGd0a/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-budafoki-mte/dSqIBYEU/</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -11989,14 +11989,14 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:34</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.31</v>
+        <v>3.23</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:34</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>3.88</v>
+        <v>3.45</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>4.32</v>
+        <v>3.82</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:34</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-budafoki-mte/dSqIBYEU/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-tiszakecske/EqlcGd0a/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>2.89</v>
+        <v>2.17</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.45</v>
+        <v>2.65</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>12/11/2023 12:48</t>
+          <t>12/11/2023 12:54</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.23</v>
+        <v>2.81</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>12/11/2023 12:48</t>
+          <t>12/11/2023 12:54</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.35</v>
+        <v>3.2</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.18</v>
+        <v>3.08</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>12/11/2023 12:48</t>
+          <t>12/11/2023 12:54</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-szeged-csanad-ga/xvwL85bj/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-pecsi-mfc/hlSZTFUb/</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -12449,14 +12449,14 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>2.17</v>
+        <v>2.89</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.65</v>
+        <v>3.45</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>12/11/2023 12:54</t>
+          <t>12/11/2023 12:48</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,32 +12480,492 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>2.81</v>
+        <v>3.23</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>12/11/2023 12:54</t>
+          <t>12/11/2023 12:48</t>
         </is>
       </c>
       <c r="R131" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:48</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-szeged-csanad-ga/xvwL85bj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45242.70833333334</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Honved</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Ajka</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:46</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:46</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:46</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-ajka/rwLnRDEH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45242.70833333334</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Kozarmisleny SE</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Csakvari</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:49</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:49</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:49</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-csakvari/KzURVy0n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45242.70833333334</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Gyor</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Kazincbarcikai</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:45</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:45</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:45</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-kazincbarcikai/APMvTZq5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45242.70833333334</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Haladas</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>3</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Vasas</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>3</v>
+      </c>
+      <c r="J135" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:45</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:45</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:45</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-vasas/lGLrSgaB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45242.70833333334</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Tiszakecske</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Gyirmot</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
         <v>3.2</v>
       </c>
-      <c r="S131" t="inlineStr">
-        <is>
-          <t>11/11/2023 01:12</t>
-        </is>
-      </c>
-      <c r="T131" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="U131" t="inlineStr">
-        <is>
-          <t>12/11/2023 12:54</t>
-        </is>
-      </c>
-      <c r="V131" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-pecsi-mfc/hlSZTFUb/</t>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-gyirmot-fc-gyor/fFmG9oqp/</t>
         </is>
       </c>
     </row>

--- a/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
+++ b/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V136"/>
+  <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.49</v>
+        <v>2.27</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.52</v>
+        <v>2.16</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>12/08/2023 12:53</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.94</v>
+        <v>3.22</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>4.08</v>
+        <v>3.31</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>13/08/2023 17:02</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>5.73</v>
+        <v>2.93</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>6.25</v>
+        <v>3.43</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>12/08/2023 12:53</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-mosonmagyarovari-te/2TfAgKzd/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-tiszakecske/IywcHNS2/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
         <v>2.27</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:17</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O25" t="inlineStr">
         <is>
           <t>12/08/2023 07:12</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>13/08/2023 17:30</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>13/08/2023 18:14</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S25" t="inlineStr">
         <is>
           <t>12/08/2023 07:12</t>
         </is>
       </c>
-      <c r="P25" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>13/08/2023 17:30</t>
-        </is>
-      </c>
-      <c r="R25" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
       <c r="T25" t="n">
-        <v>3.43</v>
+        <v>3.04</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-tiszakecske/IywcHNS2/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-haladas/G8GR1rTF/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.26</v>
+        <v>2.95</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.27</v>
+        <v>2.79</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.43</v>
+        <v>2.93</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,32 +2820,32 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.46</v>
+        <v>2.92</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>13/08/2023 18:14</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="R26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
         <v>2.8</v>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T26" t="n">
-        <v>3.04</v>
-      </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-haladas/G8GR1rTF/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-pecsi-mfc/GWbEhvj2/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.95</v>
+        <v>1.49</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.79</v>
+        <v>1.52</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>12/08/2023 12:53</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>2.93</v>
+        <v>3.94</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>2.92</v>
+        <v>4.08</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 17:02</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.38</v>
+        <v>5.73</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.8</v>
+        <v>6.25</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>12/08/2023 12:53</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-pecsi-mfc/GWbEhvj2/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-mosonmagyarovari-te/2TfAgKzd/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1.66</v>
+        <v>2.35</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.57</v>
+        <v>2.37</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:40</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.65</v>
+        <v>3.12</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>4.15</v>
+        <v>3.21</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:40</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>4.42</v>
+        <v>2.83</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>5.61</v>
+        <v>3.09</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>08/10/2023 16:46</t>
+          <t>08/10/2023 16:40</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-budafoki-mte/r17FzLn7/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-szeged-csanad-ga/Mi6JZv2D/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.35</v>
+        <v>1.66</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.37</v>
+        <v>1.57</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>08/10/2023 16:40</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.12</v>
+        <v>3.65</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.21</v>
+        <v>4.15</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>08/10/2023 16:40</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.83</v>
+        <v>4.42</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.09</v>
+        <v>5.61</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>08/10/2023 16:40</t>
+          <t>08/10/2023 16:46</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-szeged-csanad-ga/Mi6JZv2D/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-budafoki-mte/r17FzLn7/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>3.13</v>
+        <v>2.01</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>4.14</v>
+        <v>2.14</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>22/10/2023 11:08</t>
+          <t>22/10/2023 12:49</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.21</v>
+        <v>3.29</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.54</v>
+        <v>3.38</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>22/10/2023 11:08</t>
+          <t>22/10/2023 12:49</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.13</v>
+        <v>3.35</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>1.88</v>
+        <v>3.39</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>22/10/2023 09:55</t>
+          <t>22/10/2023 12:49</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-haladas/zwu0nIoJ/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-soroksar/joNnALwQ/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2.11</v>
+        <v>1.95</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>22/10/2023 12:56</t>
+          <t>22/10/2023 12:39</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.12</v>
+        <v>3.32</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.14</v>
+        <v>3.52</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>22/10/2023 12:56</t>
+          <t>22/10/2023 12:39</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.25</v>
+        <v>3.57</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.45</v>
+        <v>3.04</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>22/10/2023 12:56</t>
+          <t>22/10/2023 12:37</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-tiszakecske/2PthlvH6/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-siofok/YVZyhMHs/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>22/10/2023 12:49</t>
+          <t>22/10/2023 12:56</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.29</v>
+        <v>3.12</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.38</v>
+        <v>3.14</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>22/10/2023 12:49</t>
+          <t>22/10/2023 12:56</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.39</v>
+        <v>3.45</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>22/10/2023 12:49</t>
+          <t>22/10/2023 12:56</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-soroksar/joNnALwQ/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-tiszakecske/2PthlvH6/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,14 +10057,14 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.95</v>
+        <v>3.13</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.25</v>
+        <v>4.14</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>22/10/2023 12:39</t>
+          <t>22/10/2023 11:08</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.32</v>
+        <v>3.21</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.52</v>
+        <v>3.54</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>22/10/2023 12:39</t>
+          <t>22/10/2023 11:08</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.57</v>
+        <v>2.13</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>3.04</v>
+        <v>1.88</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>22/10/2023 12:37</t>
+          <t>22/10/2023 09:55</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-siofok/YVZyhMHs/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-haladas/zwu0nIoJ/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>2.17</v>
+        <v>2.74</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.4</v>
+        <v>3.44</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>22/10/2023 16:40</t>
+          <t>22/10/2023 16:57</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.15</v>
+        <v>3.12</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>22/10/2023 15:58</t>
+          <t>22/10/2023 16:48</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.09</v>
+        <v>2.41</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.21</v>
+        <v>2.26</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>22/10/2023 16:40</t>
+          <t>22/10/2023 16:57</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-kozarmisleny-se/6cmqj0nf/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyor/CfOrB1OJ/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>22/10/2023 16:37</t>
+          <t>22/10/2023 16:40</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10276,11 +10276,11 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>22/10/2023 16:37</t>
+          <t>22/10/2023 15:58</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.65</v>
+        <v>3.09</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.88</v>
+        <v>3.21</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>22/10/2023 16:37</t>
+          <t>22/10/2023 16:40</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-honved/dntdmbWC/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-kozarmisleny-se/6cmqj0nf/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>3.44</v>
+        <v>2.62</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>22/10/2023 16:57</t>
+          <t>22/10/2023 16:37</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.12</v>
+        <v>2.98</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>22/10/2023 16:48</t>
+          <t>22/10/2023 16:37</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.41</v>
+        <v>2.65</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.26</v>
+        <v>2.88</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>22/10/2023 16:57</t>
+          <t>22/10/2023 16:37</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyor/CfOrB1OJ/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-honved/dntdmbWC/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>2.58</v>
+        <v>1.76</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.71</v>
+        <v>1.63</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>29/10/2023 12:40</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.06</v>
+        <v>3.39</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.14</v>
+        <v>3.95</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>29/10/2023 12:40</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>2.58</v>
+        <v>4.18</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>2.71</v>
+        <v>5.27</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>29/10/2023 12:40</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-szeged-csanad-ga/tG1R2wWa/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-ajka/8Q9E5uns/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1.76</v>
+        <v>2.58</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.63</v>
+        <v>2.71</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:40</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.39</v>
+        <v>3.06</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.95</v>
+        <v>3.14</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:40</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>4.18</v>
+        <v>2.58</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>5.27</v>
+        <v>2.71</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:40</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-ajka/8Q9E5uns/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-szeged-csanad-ga/tG1R2wWa/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,14 +10977,14 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.86</v>
+        <v>2.12</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>29/10/2023 16:39</t>
+          <t>29/10/2023 16:44</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.41</v>
+        <v>3.19</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,32 +11008,32 @@
         </is>
       </c>
       <c r="P115" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:44</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
         <v>3.59</v>
       </c>
-      <c r="Q115" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:39</t>
-        </is>
-      </c>
-      <c r="R115" t="n">
-        <v>3.87</v>
-      </c>
       <c r="S115" t="inlineStr">
         <is>
           <t>28/10/2023 06:12</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>4.12</v>
+        <v>3.73</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>29/10/2023 16:39</t>
+          <t>29/10/2023 16:44</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kazincbarcikai/W4fv0yGI/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-pecsi-mfc/lt5Z0H0C/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,14 +11069,14 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I116" t="n">
         <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.12</v>
+        <v>1.86</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>29/10/2023 16:44</t>
+          <t>29/10/2023 16:39</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.19</v>
+        <v>3.41</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.14</v>
+        <v>3.59</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>29/10/2023 16:44</t>
+          <t>29/10/2023 16:39</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>3.59</v>
+        <v>3.87</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>3.73</v>
+        <v>4.12</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>29/10/2023 16:44</t>
+          <t>29/10/2023 16:39</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-pecsi-mfc/lt5Z0H0C/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kazincbarcikai/W4fv0yGI/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>3.54</v>
+        <v>2.32</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>3.79</v>
+        <v>2.6</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>29/10/2023 16:34</t>
+          <t>29/10/2023 16:44</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.3</v>
+        <v>3.23</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.42</v>
+        <v>3.01</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>29/10/2023 16:34</t>
+          <t>29/10/2023 16:44</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>1.93</v>
+        <v>2.77</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>1.99</v>
+        <v>2.94</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>29/10/2023 14:26</t>
+          <t>29/10/2023 16:44</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-vasas/p8braeVO/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-gyirmot-fc-gyor/K0DI4a1m/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>2.32</v>
+        <v>3.54</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.6</v>
+        <v>3.79</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>29/10/2023 16:44</t>
+          <t>29/10/2023 16:34</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.23</v>
+        <v>3.3</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.01</v>
+        <v>3.42</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>29/10/2023 16:44</t>
+          <t>29/10/2023 16:34</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.77</v>
+        <v>1.93</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.94</v>
+        <v>1.99</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>29/10/2023 16:44</t>
+          <t>29/10/2023 14:26</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-gyirmot-fc-gyor/K0DI4a1m/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-vasas/p8braeVO/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,14 +11345,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>3.69</v>
+        <v>2.73</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>4.37</v>
+        <v>3.02</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>05/11/2023 12:49</t>
+          <t>05/11/2023 08:57</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.47</v>
+        <v>3.38</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>05/11/2023 12:49</t>
+          <t>05/11/2023 12:34</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>1.85</v>
+        <v>2.32</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>05/11/2023 12:49</t>
+          <t>05/11/2023 12:34</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyor/l2tADfpI/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-kozarmisleny-se/tWkkIIVn/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J120" t="n">
-        <v>2.73</v>
+        <v>2.41</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>3.02</v>
+        <v>2.78</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>05/11/2023 08:57</t>
+          <t>05/11/2023 12:36</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.19</v>
+        <v>3.12</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.38</v>
+        <v>2.92</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>05/11/2023 12:34</t>
+          <t>05/11/2023 11:01</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.38</v>
+        <v>2.74</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.32</v>
+        <v>2.81</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>05/11/2023 12:34</t>
+          <t>05/11/2023 12:36</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-kozarmisleny-se/tWkkIIVn/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-nyiregyhaza/KMlgHxog/</t>
         </is>
       </c>
     </row>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -11529,14 +11529,14 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J121" t="n">
-        <v>2.41</v>
+        <v>2.38</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>05/11/2023 12:36</t>
+          <t>05/11/2023 12:40</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.12</v>
+        <v>3.09</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2.92</v>
+        <v>3.27</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>05/11/2023 11:01</t>
+          <t>05/11/2023 12:40</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.81</v>
+        <v>2.87</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>05/11/2023 12:36</t>
+          <t>05/11/2023 12:40</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-nyiregyhaza/KMlgHxog/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-haladas/ABs6EzVB/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I122" t="n">
         <v>2</v>
       </c>
       <c r="J122" t="n">
-        <v>2.38</v>
+        <v>2.84</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>2.48</v>
+        <v>3.11</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>05/11/2023 12:40</t>
+          <t>05/11/2023 12:37</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.09</v>
+        <v>3.14</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.27</v>
+        <v>3.31</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>05/11/2023 12:40</t>
+          <t>05/11/2023 12:37</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>2.8</v>
+        <v>2.33</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>2.87</v>
+        <v>2.3</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>05/11/2023 12:40</t>
+          <t>05/11/2023 12:37</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-haladas/ABs6EzVB/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-soroksar/IyoECEaO/</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -11713,14 +11713,14 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>2.84</v>
+        <v>3.69</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>3.11</v>
+        <v>4.37</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>05/11/2023 12:37</t>
+          <t>05/11/2023 12:49</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3.14</v>
+        <v>3.26</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.31</v>
+        <v>3.47</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>05/11/2023 12:37</t>
+          <t>05/11/2023 12:49</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>2.33</v>
+        <v>1.91</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>05/11/2023 12:37</t>
+          <t>05/11/2023 12:49</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-soroksar/IyoECEaO/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyor/l2tADfpI/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,14 +11805,14 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,15 +11820,15 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:34</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.31</v>
+        <v>3.23</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:34</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.88</v>
+        <v>3.45</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>4.32</v>
+        <v>3.82</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:34</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-budafoki-mte/dSqIBYEU/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-tiszakecske/EqlcGd0a/</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -11989,14 +11989,14 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>05/11/2023 16:34</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.23</v>
+        <v>3.31</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>05/11/2023 16:34</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>3.45</v>
+        <v>3.88</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>3.82</v>
+        <v>4.32</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>05/11/2023 16:34</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-tiszakecske/EqlcGd0a/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-budafoki-mte/dSqIBYEU/</t>
         </is>
       </c>
     </row>
@@ -12165,71 +12165,71 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>11/11/2023 01:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>2.65</v>
+        <v>1.79</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>12/11/2023 12:54</t>
+          <t>12/11/2023 12:40</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.04</v>
+        <v>3.53</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>11/11/2023 01:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>2.81</v>
+        <v>3.58</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>12/11/2023 12:54</t>
+          <t>12/11/2023 12:40</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>3.2</v>
+        <v>4.57</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>11/11/2023 01:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>3.08</v>
+        <v>4.57</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>12/11/2023 12:54</t>
+          <t>12/11/2023 12:40</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-pecsi-mfc/hlSZTFUb/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-mosonmagyarovari-te/EcTVUeFh/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,14 +12265,14 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1.67</v>
+        <v>1.51</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.79</v>
+        <v>1.45</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>12/11/2023 12:40</t>
+          <t>12/11/2023 12:46</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.53</v>
+        <v>4</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.58</v>
+        <v>4.45</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>12/11/2023 12:40</t>
+          <t>12/11/2023 12:46</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>4.57</v>
+        <v>5.28</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>4.57</v>
+        <v>7.01</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>12/11/2023 12:40</t>
+          <t>12/11/2023 12:46</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-mosonmagyarovari-te/EcTVUeFh/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-bvsc-zuglo/MkBOWHpt/</t>
         </is>
       </c>
     </row>
@@ -12349,71 +12349,71 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>1.51</v>
+        <v>2.89</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 01:12</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.45</v>
+        <v>3.45</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>12/11/2023 12:46</t>
+          <t>12/11/2023 12:48</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>4</v>
+        <v>2.99</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 01:12</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>4.45</v>
+        <v>3.23</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>12/11/2023 12:46</t>
+          <t>12/11/2023 12:48</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>5.28</v>
+        <v>2.35</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 01:12</t>
         </is>
       </c>
       <c r="T130" t="n">
-        <v>7.01</v>
+        <v>2.18</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>12/11/2023 12:46</t>
+          <t>12/11/2023 12:48</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-bvsc-zuglo/MkBOWHpt/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-szeged-csanad-ga/xvwL85bj/</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -12449,14 +12449,14 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>2.89</v>
+        <v>2.17</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>3.45</v>
+        <v>2.65</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>12/11/2023 12:48</t>
+          <t>12/11/2023 12:54</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.23</v>
+        <v>2.81</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>12/11/2023 12:48</t>
+          <t>12/11/2023 12:54</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>2.35</v>
+        <v>3.2</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2.18</v>
+        <v>3.08</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>12/11/2023 12:48</t>
+          <t>12/11/2023 12:54</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-szeged-csanad-ga/xvwL85bj/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-pecsi-mfc/hlSZTFUb/</t>
         </is>
       </c>
     </row>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -12541,14 +12541,14 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>12/11/2023 16:46</t>
+          <t>12/11/2023 16:49</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.22</v>
+        <v>3.33</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>12/11/2023 16:46</t>
+          <t>12/11/2023 16:49</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>3.27</v>
+        <v>3.83</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>12/11/2023 16:46</t>
+          <t>12/11/2023 16:49</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-ajka/rwLnRDEH/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-csakvari/KzURVy0n/</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -12633,14 +12633,14 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1.96</v>
+        <v>2.01</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>12/11/2023 16:49</t>
+          <t>12/11/2023 16:46</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.33</v>
+        <v>3.22</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>12/11/2023 16:49</t>
+          <t>12/11/2023 16:46</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>3.83</v>
+        <v>3.27</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>12/11/2023 16:49</t>
+          <t>12/11/2023 16:46</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-csakvari/KzURVy0n/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-ajka/rwLnRDEH/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>1.44</v>
+        <v>2.63</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.38</v>
+        <v>2.71</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>12/11/2023 16:45</t>
+          <t>12/11/2023 16:42</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>4.19</v>
+        <v>3.1</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>12/11/2023 16:45</t>
+          <t>12/11/2023 16:42</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>5.81</v>
+        <v>2.51</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>8.300000000000001</v>
+        <v>2.67</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>12/11/2023 16:45</t>
+          <t>12/11/2023 16:42</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-kazincbarcikai/APMvTZq5/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-gyirmot-fc-gyor/fFmG9oqp/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>3.03</v>
+        <v>1.44</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>3.56</v>
+        <v>1.38</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.27</v>
+        <v>4.19</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.39</v>
+        <v>4.75</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         </is>
       </c>
       <c r="R135" t="n">
-        <v>2.15</v>
+        <v>5.81</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2.08</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-vasas/lGLrSgaB/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-kazincbarcikai/APMvTZq5/</t>
         </is>
       </c>
     </row>
@@ -12901,71 +12901,807 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
+          <t>Haladas</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>3</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Vasas</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>3</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:45</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:45</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:45</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-vasas/lGLrSgaB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45256.54166666666</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Mosonmagyarovari TE</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Szeged</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:48</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:48</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:48</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-szeged-csanad-ga/AicbMOSk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45256.54166666666</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>BVSC-Zuglo</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
           <t>Tiszakecske</t>
         </is>
       </c>
-      <c r="G136" t="n">
+      <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="J138" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:43</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:40</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:43</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:40</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:43</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:40</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-tiszakecske/MROAVS53/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45256.54166666666</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Csakvari</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Nyiregyhaza</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>7</v>
+      </c>
+      <c r="J139" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>26/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>26/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>26/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-nyiregyhaza/ryQ6W8jc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45256.54166666666</v>
+      </c>
+      <c r="F140" t="inlineStr">
         <is>
           <t>Gyirmot</t>
         </is>
       </c>
-      <c r="I136" t="n">
+      <c r="G140" t="n">
         <v>1</v>
       </c>
-      <c r="J136" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>11/11/2023 05:12</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>12/11/2023 16:42</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Honved</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>26/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>26/11/2023 10:57</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>26/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:38</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>26/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:38</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-honved/4jEFUnL9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45256.54166666666</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Kazincbarcikai</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>3</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Soroksar</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>3.1</v>
       </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>11/11/2023 05:12</t>
-        </is>
-      </c>
-      <c r="P136" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>12/11/2023 16:42</t>
-        </is>
-      </c>
-      <c r="R136" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>11/11/2023 05:12</t>
-        </is>
-      </c>
-      <c r="T136" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="U136" t="inlineStr">
-        <is>
-          <t>12/11/2023 16:42</t>
-        </is>
-      </c>
-      <c r="V136" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-gyirmot-fc-gyor/fFmG9oqp/</t>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-soroksar/j7GRRp5S/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45256.54166666666</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Pecsi MFC</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Budafoki</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>26/11/2023 06:55</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:41</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-budafoki-mte/W0bfN4Dq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45256.70833333334</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Ajka</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>3</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Haladas</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>26/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>26/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>26/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-haladas/IgIJT6zG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45256.70833333334</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Kozarmisleny SE</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>7</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Siofok</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>25/11/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>25/11/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>25/11/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:11</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-siofok/GUyP7PDd/</t>
         </is>
       </c>
     </row>

--- a/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
+++ b/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V144"/>
+  <dimension ref="A1:V145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,14 +11345,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>2.73</v>
+        <v>3.69</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>3.02</v>
+        <v>4.37</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>05/11/2023 08:57</t>
+          <t>05/11/2023 12:49</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>05/11/2023 12:34</t>
+          <t>05/11/2023 12:49</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.32</v>
+        <v>1.85</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>05/11/2023 12:34</t>
+          <t>05/11/2023 12:49</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-kozarmisleny-se/tWkkIIVn/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyor/l2tADfpI/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Soroksar</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>2</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Nyiregyhaza</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>4</v>
-      </c>
       <c r="J120" t="n">
-        <v>2.41</v>
+        <v>2.84</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.78</v>
+        <v>3.11</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>05/11/2023 12:36</t>
+          <t>05/11/2023 12:37</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.12</v>
+        <v>3.14</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2.92</v>
+        <v>3.31</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>05/11/2023 11:01</t>
+          <t>05/11/2023 12:37</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.74</v>
+        <v>2.33</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.81</v>
+        <v>2.3</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>05/11/2023 12:36</t>
+          <t>05/11/2023 12:37</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-nyiregyhaza/KMlgHxog/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-soroksar/IyoECEaO/</t>
         </is>
       </c>
     </row>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -11529,14 +11529,14 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J121" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.48</v>
+        <v>2.78</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>05/11/2023 12:40</t>
+          <t>05/11/2023 12:36</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.09</v>
+        <v>3.12</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.27</v>
+        <v>2.92</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>05/11/2023 12:40</t>
+          <t>05/11/2023 11:01</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.87</v>
+        <v>2.81</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>05/11/2023 12:40</t>
+          <t>05/11/2023 12:36</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-haladas/ABs6EzVB/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-nyiregyhaza/KMlgHxog/</t>
         </is>
       </c>
     </row>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -11621,14 +11621,14 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>2.84</v>
+        <v>2.73</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>3.11</v>
+        <v>3.02</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>05/11/2023 12:37</t>
+          <t>05/11/2023 08:57</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.14</v>
+        <v>3.19</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.31</v>
+        <v>3.38</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>05/11/2023 12:37</t>
+          <t>05/11/2023 12:34</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>05/11/2023 12:37</t>
+          <t>05/11/2023 12:34</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-soroksar/IyoECEaO/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-kozarmisleny-se/tWkkIIVn/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="n">
-        <v>3.69</v>
+        <v>2.38</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>4.37</v>
+        <v>2.48</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>05/11/2023 12:49</t>
+          <t>05/11/2023 12:40</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3.26</v>
+        <v>3.09</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.47</v>
+        <v>3.27</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>05/11/2023 12:49</t>
+          <t>05/11/2023 12:40</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>1.91</v>
+        <v>2.8</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>1.85</v>
+        <v>2.87</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>05/11/2023 12:49</t>
+          <t>05/11/2023 12:40</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyor/l2tADfpI/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-haladas/ABs6EzVB/</t>
         </is>
       </c>
     </row>
@@ -12165,71 +12165,71 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.67</v>
+        <v>2.17</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 01:12</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.79</v>
+        <v>2.65</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>12/11/2023 12:40</t>
+          <t>12/11/2023 12:54</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.53</v>
+        <v>3.04</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 01:12</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.58</v>
+        <v>2.81</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>12/11/2023 12:40</t>
+          <t>12/11/2023 12:54</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>4.57</v>
+        <v>3.2</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 01:12</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>4.57</v>
+        <v>3.08</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>12/11/2023 12:40</t>
+          <t>12/11/2023 12:54</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-mosonmagyarovari-te/EcTVUeFh/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-pecsi-mfc/hlSZTFUb/</t>
         </is>
       </c>
     </row>
@@ -12257,71 +12257,71 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1.51</v>
+        <v>2.89</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 01:12</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.45</v>
+        <v>3.45</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>12/11/2023 12:46</t>
+          <t>12/11/2023 12:48</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>4</v>
+        <v>2.99</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 01:12</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4.45</v>
+        <v>3.23</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>12/11/2023 12:46</t>
+          <t>12/11/2023 12:48</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>5.28</v>
+        <v>2.35</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 01:12</t>
         </is>
       </c>
       <c r="T129" t="n">
-        <v>7.01</v>
+        <v>2.18</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>12/11/2023 12:46</t>
+          <t>12/11/2023 12:48</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-bvsc-zuglo/MkBOWHpt/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-szeged-csanad-ga/xvwL85bj/</t>
         </is>
       </c>
     </row>
@@ -12349,71 +12349,71 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>2.89</v>
+        <v>1.67</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>11/11/2023 01:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>3.45</v>
+        <v>1.79</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>12/11/2023 12:48</t>
+          <t>12/11/2023 12:40</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>2.99</v>
+        <v>3.53</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>11/11/2023 01:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.23</v>
+        <v>3.58</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>12/11/2023 12:48</t>
+          <t>12/11/2023 12:40</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>2.35</v>
+        <v>4.57</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>11/11/2023 01:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T130" t="n">
-        <v>2.18</v>
+        <v>4.57</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>12/11/2023 12:48</t>
+          <t>12/11/2023 12:40</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-szeged-csanad-ga/xvwL85bj/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-mosonmagyarovari-te/EcTVUeFh/</t>
         </is>
       </c>
     </row>
@@ -12441,71 +12441,71 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>2.17</v>
+        <v>1.51</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>11/11/2023 01:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.65</v>
+        <v>1.45</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>12/11/2023 12:54</t>
+          <t>12/11/2023 12:46</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.04</v>
+        <v>4</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>11/11/2023 01:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>2.81</v>
+        <v>4.45</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>12/11/2023 12:54</t>
+          <t>12/11/2023 12:46</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>3.2</v>
+        <v>5.28</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>11/11/2023 01:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T131" t="n">
-        <v>3.08</v>
+        <v>7.01</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>12/11/2023 12:54</t>
+          <t>12/11/2023 12:46</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-pecsi-mfc/hlSZTFUb/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-bvsc-zuglo/MkBOWHpt/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>1.96</v>
+        <v>1.44</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.02</v>
+        <v>1.38</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>12/11/2023 16:49</t>
+          <t>12/11/2023 16:45</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.33</v>
+        <v>4.19</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.33</v>
+        <v>4.75</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>12/11/2023 16:49</t>
+          <t>12/11/2023 16:45</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.42</v>
+        <v>5.81</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>3.83</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>12/11/2023 16:49</t>
+          <t>12/11/2023 16:45</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-csakvari/KzURVy0n/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-kazincbarcikai/APMvTZq5/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J133" t="n">
-        <v>2.01</v>
+        <v>3.03</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.2</v>
+        <v>3.56</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>12/11/2023 16:46</t>
+          <t>12/11/2023 16:45</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.22</v>
+        <v>3.27</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.36</v>
+        <v>3.39</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>12/11/2023 16:46</t>
+          <t>12/11/2023 16:45</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>3.41</v>
+        <v>2.15</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>3.27</v>
+        <v>2.08</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>12/11/2023 16:46</t>
+          <t>12/11/2023 16:45</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-ajka/rwLnRDEH/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-vasas/lGLrSgaB/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Ajka</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Gyirmot</t>
-        </is>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
       <c r="J134" t="n">
-        <v>2.63</v>
+        <v>2.01</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.71</v>
+        <v>2.2</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>12/11/2023 16:42</t>
+          <t>12/11/2023 16:46</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.2</v>
+        <v>3.36</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>12/11/2023 16:42</t>
+          <t>12/11/2023 16:46</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>2.51</v>
+        <v>3.41</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>2.67</v>
+        <v>3.27</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>12/11/2023 16:42</t>
+          <t>12/11/2023 16:46</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-gyirmot-fc-gyor/fFmG9oqp/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-ajka/rwLnRDEH/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>1.44</v>
+        <v>1.96</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.38</v>
+        <v>2.02</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>12/11/2023 16:45</t>
+          <t>12/11/2023 16:49</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>4.19</v>
+        <v>3.33</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>4.75</v>
+        <v>3.33</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>12/11/2023 16:45</t>
+          <t>12/11/2023 16:49</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>5.81</v>
+        <v>3.42</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>8.300000000000001</v>
+        <v>3.83</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>12/11/2023 16:45</t>
+          <t>12/11/2023 16:49</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-kazincbarcikai/APMvTZq5/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-csakvari/KzURVy0n/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>3.03</v>
+        <v>2.63</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>3.56</v>
+        <v>2.71</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>12/11/2023 16:45</t>
+          <t>12/11/2023 16:42</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.27</v>
+        <v>3.1</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.39</v>
+        <v>3.2</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>12/11/2023 16:45</t>
+          <t>12/11/2023 16:42</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>2.15</v>
+        <v>2.51</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>2.08</v>
+        <v>2.67</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>12/11/2023 16:45</t>
+          <t>12/11/2023 16:42</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-vasas/lGLrSgaB/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-gyirmot-fc-gyor/fFmG9oqp/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Budafoki</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Szeged</t>
-        </is>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
       <c r="J137" t="n">
-        <v>3.83</v>
+        <v>2.16</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>5.03</v>
+        <v>2.21</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>26/11/2023 12:48</t>
+          <t>26/11/2023 06:55</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.22</v>
+        <v>2.96</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.62</v>
+        <v>3.02</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>26/11/2023 12:48</t>
+          <t>26/11/2023 12:42</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>1.88</v>
+        <v>3.32</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>1.71</v>
+        <v>3.66</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>26/11/2023 12:48</t>
+          <t>26/11/2023 12:41</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-szeged-csanad-ga/AicbMOSk/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-budafoki-mte/W0bfN4Dq/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Szeged</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
         <v>1</v>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Budafoki</t>
-        </is>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
       <c r="J142" t="n">
-        <v>2.16</v>
+        <v>3.83</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>2.21</v>
+        <v>5.03</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>26/11/2023 06:55</t>
+          <t>26/11/2023 12:48</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>2.96</v>
+        <v>3.22</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.02</v>
+        <v>3.62</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>26/11/2023 12:42</t>
+          <t>26/11/2023 12:48</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>3.32</v>
+        <v>1.88</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>3.66</v>
+        <v>1.71</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>26/11/2023 12:41</t>
+          <t>26/11/2023 12:48</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-budafoki-mte/W0bfN4Dq/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-szeged-csanad-ga/AicbMOSk/</t>
         </is>
       </c>
     </row>
@@ -13702,6 +13702,98 @@
       <c r="V144" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-siofok/GUyP7PDd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45257.83333333334</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Vasas</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>6</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Gyor</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>27/11/2023 19:56</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>27/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>27/11/2023 19:56</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-gyor/CGHNSQkM/</t>
         </is>
       </c>
     </row>

--- a/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
+++ b/2023/hungary_merkantil-bank-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V145"/>
+  <dimension ref="A1:V158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -581,14 +581,14 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.78</v>
+        <v>2.32</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>30/07/2023 17:15</t>
+          <t>30/07/2023 17:28</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.11</v>
+        <v>3.32</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.72</v>
+        <v>3.27</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>30/07/2023 17:15</t>
+          <t>30/07/2023 17:27</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.32</v>
+        <v>3.99</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>4.41</v>
+        <v>2.99</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>30/07/2023 17:15</t>
+          <t>30/07/2023 17:28</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-siofok/UsLClYha/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-gyor/UutgU37p/</t>
         </is>
       </c>
     </row>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.82</v>
+        <v>3.18</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>29/07/2023 05:42</t>
+          <t>30/07/2023 03:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.32</v>
+        <v>2.96</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>30/07/2023 17:28</t>
+          <t>30/07/2023 17:22</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.32</v>
+        <v>3.49</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>29/07/2023 05:42</t>
+          <t>30/07/2023 03:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.27</v>
+        <v>3.62</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>30/07/2023 17:27</t>
+          <t>30/07/2023 15:30</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.99</v>
+        <v>2.16</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>29/07/2023 05:42</t>
+          <t>30/07/2023 03:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.99</v>
+        <v>2.26</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>30/07/2023 17:28</t>
+          <t>30/07/2023 17:22</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-gyor/UutgU37p/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-haladas/2XCPoWxI/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.18</v>
+        <v>2.09</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>30/07/2023 03:12</t>
+          <t>29/07/2023 05:42</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.96</v>
+        <v>1.78</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>30/07/2023 17:22</t>
+          <t>30/07/2023 17:15</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.49</v>
+        <v>3.11</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>30/07/2023 03:12</t>
+          <t>29/07/2023 05:42</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.62</v>
+        <v>3.72</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>30/07/2023 15:30</t>
+          <t>30/07/2023 17:15</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.16</v>
+        <v>3.32</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>30/07/2023 03:12</t>
+          <t>29/07/2023 05:42</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.26</v>
+        <v>4.41</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>30/07/2023 17:22</t>
+          <t>30/07/2023 17:15</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-haladas/2XCPoWxI/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-siofok/UsLClYha/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mosonmagyarovari TE</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Budafoki</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
       <c r="J5" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>30/07/2023 03:12</t>
+          <t>29/07/2023 07:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.48</v>
+        <v>1.93</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>30/07/2023 11:36</t>
+          <t>30/07/2023 18:03</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.68</v>
+        <v>3.31</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>30/07/2023 03:12</t>
+          <t>29/07/2023 07:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4.12</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>30/07/2023 17:01</t>
+          <t>30/07/2023 18:03</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>5.33</v>
+        <v>4.76</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>30/07/2023 03:12</t>
+          <t>29/07/2023 07:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>6.97</v>
+        <v>4.05</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>30/07/2023 11:36</t>
+          <t>30/07/2023 18:03</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-budafoki-mte/AyJuh7ai/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-mosonmagyarovari-te/I1MmjoU3/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,14 +949,14 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,48 +964,48 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.72</v>
+        <v>2.06</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>30/07/2023 10:30</t>
+          <t>30/07/2023 16:14</t>
         </is>
       </c>
       <c r="N6" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>29/07/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
         <v>3.45</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>30/07/2023 17:04</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>29/07/2023 07:12</t>
         </is>
       </c>
-      <c r="P6" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>30/07/2023 17:05</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>29/07/2023 07:12</t>
-        </is>
-      </c>
       <c r="T6" t="n">
-        <v>4.87</v>
+        <v>3.37</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>30/07/2023 10:30</t>
+          <t>30/07/2023 16:14</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-soroksar/8WvcTNMj/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-tiszakecske/tIOGmh85/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Szeged</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Mosonmagyarovari TE</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
-        <v>1.69</v>
+        <v>3.34</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.93</v>
+        <v>3.01</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>30/07/2023 18:03</t>
+          <t>30/07/2023 17:32</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.31</v>
+        <v>3.04</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.17</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>30/07/2023 18:03</t>
+          <t>30/07/2023 17:01</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.76</v>
+        <v>2.11</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>4.05</v>
+        <v>2.44</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>30/07/2023 18:03</t>
+          <t>30/07/2023 17:32</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-mosonmagyarovari-te/I1MmjoU3/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-szeged-csanad-ga/OvNqiREc/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>29/07/2023 07:12</t>
+          <t>30/07/2023 03:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3.01</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>30/07/2023 17:32</t>
+          <t>30/07/2023 17:36</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.04</v>
+        <v>3.47</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>29/07/2023 07:12</t>
+          <t>30/07/2023 03:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.17</v>
+        <v>3.49</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>30/07/2023 17:01</t>
+          <t>30/07/2023 17:36</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>29/07/2023 07:12</t>
+          <t>30/07/2023 03:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.44</v>
+        <v>2.06</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>30/07/2023 17:32</t>
+          <t>30/07/2023 14:41</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-szeged-csanad-ga/OvNqiREc/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-honved/OtELnCNB/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.06</v>
+        <v>1.72</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>30/07/2023 16:14</t>
+          <t>30/07/2023 10:30</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.26</v>
+        <v>3.45</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.45</v>
+        <v>3.64</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>30/07/2023 17:04</t>
+          <t>30/07/2023 17:05</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.5</v>
+        <v>4.12</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.37</v>
+        <v>4.87</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>30/07/2023 16:14</t>
+          <t>30/07/2023 10:30</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-tiszakecske/tIOGmh85/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-soroksar/8WvcTNMj/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Budafoki</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Honved</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
       <c r="J10" t="n">
-        <v>3.41</v>
+        <v>1.65</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>1.48</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>30/07/2023 17:36</t>
+          <t>30/07/2023 11:36</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.47</v>
+        <v>3.68</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.49</v>
+        <v>4.12</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>30/07/2023 17:36</t>
+          <t>30/07/2023 17:01</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.03</v>
+        <v>5.33</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.06</v>
+        <v>6.97</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>30/07/2023 14:41</t>
+          <t>30/07/2023 11:36</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-honved/OtELnCNB/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-budafoki-mte/AyJuh7ai/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Kozarmisleny SE</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Ajka</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>1.56</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.34</v>
+        <v>1.61</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>06/08/2023 16:26</t>
+          <t>06/08/2023 17:26</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.92</v>
+        <v>4.48</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.31</v>
+        <v>4.22</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:28</t>
+          <t>06/08/2023 17:29</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.43</v>
+        <v>4.97</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.1</v>
+        <v>5.02</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>06/08/2023 17:28</t>
+          <t>06/08/2023 17:26</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-ajka/GfygmqEM/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kozarmisleny-se/8hGXu16d/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.42</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.65</v>
+        <v>2.34</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>06/08/2023 16:48</t>
+          <t>06/08/2023 16:26</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.22</v>
+        <v>2.92</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.33</v>
+        <v>3.31</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>06/08/2023 16:48</t>
+          <t>06/08/2023 17:28</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.72</v>
+        <v>2.43</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>06/08/2023 16:48</t>
+          <t>06/08/2023 17:28</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-gyirmot-fc-gyor/AHzcn3TS/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-ajka/GfygmqEM/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.56</v>
+        <v>2.42</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.61</v>
+        <v>2.65</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>06/08/2023 17:26</t>
+          <t>06/08/2023 16:48</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4.48</v>
+        <v>3.22</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.22</v>
+        <v>3.33</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>06/08/2023 17:29</t>
+          <t>06/08/2023 16:48</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.97</v>
+        <v>2.72</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.02</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>06/08/2023 17:26</t>
+          <t>06/08/2023 16:48</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-kozarmisleny-se/8hGXu16d/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-gyirmot-fc-gyor/AHzcn3TS/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.62</v>
+        <v>2.73</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 07:13</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.6</v>
+        <v>2.61</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>06/08/2023 18:05</t>
+          <t>06/08/2023 18:00</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4.15</v>
+        <v>3.01</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 07:13</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4.13</v>
+        <v>3.2</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>06/08/2023 18:50</t>
+          <t>06/08/2023 18:00</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>4.87</v>
+        <v>2.48</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>06/08/2023 03:12</t>
+          <t>05/08/2023 07:13</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5.25</v>
+        <v>2.76</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>06/08/2023 18:59</t>
+          <t>06/08/2023 18:00</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-bvsc-zuglo/nwSOsNyp/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-nyiregyhaza/d89F4pqc/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.19</v>
+        <v>2.57</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.57</v>
+        <v>2.93</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>06/08/2023 17:54</t>
+          <t>06/08/2023 18:45</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.23</v>
+        <v>2.92</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.51</v>
+        <v>2.98</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>06/08/2023 17:54</t>
+          <t>06/08/2023 17:02</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>06/08/2023 17:54</t>
+          <t>06/08/2023 18:45</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-haladas/U1HTtsij/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-pecsi-mfc/za8J34b3/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.73</v>
+        <v>1.62</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>05/08/2023 07:13</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.61</v>
+        <v>1.6</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>06/08/2023 18:00</t>
+          <t>06/08/2023 18:05</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.01</v>
+        <v>4.15</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>05/08/2023 07:13</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.2</v>
+        <v>4.13</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>06/08/2023 18:00</t>
+          <t>06/08/2023 18:50</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.48</v>
+        <v>4.87</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>05/08/2023 07:13</t>
+          <t>06/08/2023 03:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.76</v>
+        <v>5.25</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>06/08/2023 18:00</t>
+          <t>06/08/2023 18:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-nyiregyhaza/d89F4pqc/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-bvsc-zuglo/nwSOsNyp/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>05/08/2023 07:13</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
         <v>2.57</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>06/08/2023 17:54</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>05/08/2023 07:13</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>06/08/2023 18:45</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>06/08/2023 17:54</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="inlineStr">
         <is>
           <t>05/08/2023 07:13</t>
         </is>
       </c>
-      <c r="P19" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>06/08/2023 17:02</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>05/08/2023 07:13</t>
-        </is>
-      </c>
       <c r="T19" t="n">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>06/08/2023 18:45</t>
+          <t>06/08/2023 17:54</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-pecsi-mfc/za8J34b3/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-haladas/U1HTtsij/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.26</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,48 +2252,48 @@
         </is>
       </c>
       <c r="L20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:17</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>12/08/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:17</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>2.48</v>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>13/08/2023 08:09</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>12/08/2023 08:42</t>
         </is>
       </c>
-      <c r="P20" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:33</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>12/08/2023 08:42</t>
-        </is>
-      </c>
       <c r="T20" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>13/08/2023 08:09</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-honved/INcO2OD9/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-soroksar/lMEZaMcS/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13/08/2023 17:14</t>
+          <t>13/08/2023 08:09</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.21</v>
+        <v>3.4</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.39</v>
+        <v>3.38</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>13/08/2023 16:31</t>
+          <t>13/08/2023 15:33</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.29</v>
+        <v>2.81</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.99</v>
+        <v>2.75</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13/08/2023 17:14</t>
+          <t>13/08/2023 08:09</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-budafoki-mte/UFd2et6q/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-honved/INcO2OD9/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.63</v>
+        <v>2.34</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 17:14</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.16</v>
+        <v>3.21</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.35</v>
+        <v>3.39</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 16:31</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.48</v>
+        <v>3.29</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.65</v>
+        <v>2.99</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 17:14</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-soroksar/lMEZaMcS/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-budafoki-mte/UFd2et6q/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.27</v>
+        <v>2.47</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.16</v>
+        <v>3.24</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 18:47</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.22</v>
+        <v>3.29</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 18:47</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.93</v>
+        <v>2.61</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.43</v>
+        <v>2.25</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>13/08/2023 17:30</t>
+          <t>13/08/2023 11:08</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-tiszakecske/IywcHNS2/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-gyor/AVFV02rM/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.95</v>
+        <v>2.27</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,48 +2804,48 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.79</v>
+        <v>2.16</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="N26" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>12/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:30</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
         <v>2.93</v>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>12/08/2023 07:12</t>
         </is>
       </c>
-      <c r="P26" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>12/08/2023 07:12</t>
-        </is>
-      </c>
       <c r="T26" t="n">
-        <v>2.8</v>
+        <v>3.43</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 17:30</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-pecsi-mfc/GWbEhvj2/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-tiszakecske/IywcHNS2/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Mosonmagyarovari TE</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Gyor</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
       <c r="J27" t="n">
-        <v>2.47</v>
+        <v>1.49</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3.24</v>
+        <v>1.52</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13/08/2023 18:47</t>
+          <t>12/08/2023 12:53</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.29</v>
+        <v>3.94</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.29</v>
+        <v>4.08</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>13/08/2023 18:47</t>
+          <t>13/08/2023 17:02</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.61</v>
+        <v>5.73</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>12/08/2023 07:12</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.25</v>
+        <v>6.25</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>13/08/2023 11:08</t>
+          <t>12/08/2023 12:53</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-gyor/AVFV02rM/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-mosonmagyarovari-te/2TfAgKzd/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.49</v>
+        <v>2.95</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.52</v>
+        <v>2.79</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>12/08/2023 12:53</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.94</v>
+        <v>2.93</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.08</v>
+        <v>2.92</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13/08/2023 17:02</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5.73</v>
+        <v>2.38</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>12/08/2023 07:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>6.25</v>
+        <v>2.8</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>12/08/2023 12:53</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-mosonmagyarovari-te/2TfAgKzd/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-pecsi-mfc/GWbEhvj2/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>BVSC-Zuglo</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Ajka</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.84</v>
+        <v>1.58</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3.5</v>
+        <v>1.67</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16/08/2023 16:02</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.23</v>
+        <v>3.94</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.29</v>
+        <v>3.79</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>16/08/2023 16:02</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.33</v>
+        <v>5.6</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>15/08/2023 05:42</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.14</v>
+        <v>5.15</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/08/2023 16:02</t>
+          <t>16/08/2023 15:35</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-ajka/rqz9ELCL/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-bvsc-zuglo/2TGu9azq/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Ajka</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>2</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>BVSC-Zuglo</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>1.58</v>
+        <v>2.84</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.67</v>
+        <v>3.5</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 16:02</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.94</v>
+        <v>3.23</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.79</v>
+        <v>3.29</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 16:02</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>5.6</v>
+        <v>2.33</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 05:42</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>5.15</v>
+        <v>2.14</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16/08/2023 15:35</t>
+          <t>16/08/2023 16:02</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-bvsc-zuglo/2TGu9azq/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-ajka/rqz9ELCL/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.8</v>
+        <v>2.34</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:44</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.73</v>
+        <v>2.98</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.61</v>
+        <v>3.22</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:44</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>4.16</v>
+        <v>2.96</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>16/08/2023 03:13</t>
+          <t>15/08/2023 07:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.77</v>
+        <v>3.46</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/08/2023 18:37</t>
+          <t>16/08/2023 18:44</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-tiszakecske/W88d5HZ7/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-siofok/dSy1Gsr9/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.01</v>
+        <v>1.8</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:59</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.22</v>
+        <v>3.73</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.21</v>
+        <v>3.61</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:59</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.41</v>
+        <v>4.16</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>15/08/2023 07:12</t>
+          <t>16/08/2023 03:13</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.59</v>
+        <v>3.77</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>16/08/2023 18:59</t>
+          <t>16/08/2023 18:37</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyirmot-fc-gyor/Q7PDDuSR/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-tiszakecske/W88d5HZ7/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.34</v>
+        <v>2.01</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:59</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>2.98</v>
+        <v>3.22</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.22</v>
+        <v>3.21</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:59</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.96</v>
+        <v>3.41</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>16/08/2023 18:44</t>
+          <t>16/08/2023 18:59</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-siofok/dSy1Gsr9/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyirmot-fc-gyor/Q7PDDuSR/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.85</v>
+        <v>1.7</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.22</v>
+        <v>1.76</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>19/08/2023 15:33</t>
+          <t>19/08/2023 17:19</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.34</v>
+        <v>3.83</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.38</v>
+        <v>3.86</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>19/08/2023 15:33</t>
+          <t>19/08/2023 17:19</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.27</v>
+        <v>4.1</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.22</v>
+        <v>4.31</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>19/08/2023 15:33</t>
+          <t>19/08/2023 17:19</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-szeged-csanad-ga/I1liRbdR/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-mosonmagyarovari-te/AgtJMI4r/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.7</v>
+        <v>2.85</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.76</v>
+        <v>3.22</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19/08/2023 17:19</t>
+          <t>19/08/2023 15:33</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.83</v>
+        <v>3.34</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.86</v>
+        <v>3.38</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>19/08/2023 17:19</t>
+          <t>19/08/2023 15:33</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.1</v>
+        <v>2.27</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.31</v>
+        <v>2.22</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>19/08/2023 17:19</t>
+          <t>19/08/2023 15:33</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-mosonmagyarovari-te/AgtJMI4r/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-szeged-csanad-ga/I1liRbdR/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.01</v>
+        <v>3.3</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.26</v>
+        <v>3.36</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.83</v>
+        <v>3.12</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 18:15</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-pecsi-mfc/lpuNLxKl/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-soroksar/dn0rTKRE/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Pecsi MFC</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>2</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Soroksar</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
       <c r="J42" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.3</v>
+        <v>3.01</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.36</v>
+        <v>3.26</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.12</v>
+        <v>3.83</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:15</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-soroksar/dn0rTKRE/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-pecsi-mfc/lpuNLxKl/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.69</v>
+        <v>3.27</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.48</v>
+        <v>2.95</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
+          <t>19/08/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>19/08/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
           <t>19/08/2023 18:45</t>
         </is>
       </c>
-      <c r="N43" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>18/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="P43" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>19/08/2023 18:45</t>
-        </is>
-      </c>
       <c r="R43" t="n">
-        <v>2.45</v>
+        <v>2.11</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.86</v>
+        <v>2.31</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:55</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-budafoki-mte/vBkmSvsL/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-honved/vZXZIz47/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>3.27</v>
+        <v>2.12</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.95</v>
+        <v>2.36</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>19/08/2023 18:55</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.49</v>
+        <v>3.22</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.49</v>
+        <v>3.28</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>19/08/2023 18:45</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.11</v>
+        <v>3.12</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.31</v>
+        <v>3.05</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>19/08/2023 18:55</t>
+          <t>19/08/2023 18:59</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-honved/vZXZIz47/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-haladas/pCYVJGl1/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,63 +4537,63 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>2.12</v>
+        <v>1.51</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.36</v>
+        <v>1.65</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.22</v>
+        <v>4.2</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.28</v>
+        <v>3.88</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.12</v>
+        <v>6.12</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 02:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.05</v>
+        <v>5.16</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>19/08/2023 18:59</t>
+          <t>19/08/2023 18:45</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-haladas/pCYVJGl1/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-kazincbarcikai/W8URKdZf/</t>
         </is>
       </c>
     </row>
@@ -4621,30 +4621,30 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.51</v>
+        <v>2.69</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.65</v>
+        <v>2.48</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,15 +4652,15 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.88</v>
+        <v>3.29</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,15 +4668,15 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>6.12</v>
+        <v>2.45</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>19/08/2023 02:42</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>5.16</v>
+        <v>2.86</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-kazincbarcikai/W8URKdZf/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-budafoki-mte/vBkmSvsL/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>2.33</v>
+        <v>1.99</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.64</v>
+        <v>2.28</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.16</v>
+        <v>3.24</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.44</v>
+        <v>3.1</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 17:22</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.58</v>
+        <v>3.37</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-bvsc-zuglo/xr1q8v7n/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-kozarmisleny-se/Y9fh6Iya/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>1.99</v>
+        <v>2.33</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.28</v>
+        <v>2.64</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.24</v>
+        <v>3.16</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.1</v>
+        <v>3.44</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>27/08/2023 17:22</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.37</v>
+        <v>2.58</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-kozarmisleny-se/Y9fh6Iya/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-bvsc-zuglo/xr1q8v7n/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2.98</v>
+        <v>2.13</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.79</v>
+        <v>2.2</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>03/09/2023 15:58</t>
+          <t>03/09/2023 15:56</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.09</v>
+        <v>3.16</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.29</v>
+        <v>3.26</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>03/09/2023 15:51</t>
+          <t>03/09/2023 15:56</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.27</v>
+        <v>3.17</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.54</v>
+        <v>3.37</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>03/09/2023 15:58</t>
+          <t>03/09/2023 15:56</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-pecsi-mfc/UyQMLcyn/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-budafoki-mte/2kn92zyO/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.2</v>
+        <v>3.12</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>03/09/2023 15:56</t>
+          <t>03/09/2023 15:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.16</v>
+        <v>3.38</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.26</v>
+        <v>3.56</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>03/09/2023 15:56</t>
+          <t>03/09/2023 15:59</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.17</v>
+        <v>2.89</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.37</v>
+        <v>2.19</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>03/09/2023 15:56</t>
+          <t>03/09/2023 15:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-budafoki-mte/2kn92zyO/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-gyor/KQIZIeL4/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.23</v>
+        <v>2.98</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3.12</v>
+        <v>2.79</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>03/09/2023 15:59</t>
+          <t>03/09/2023 15:58</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.38</v>
+        <v>3.09</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.56</v>
+        <v>3.29</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>03/09/2023 15:59</t>
+          <t>03/09/2023 15:51</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.89</v>
+        <v>2.27</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.19</v>
+        <v>2.54</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>03/09/2023 15:59</t>
+          <t>03/09/2023 15:58</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-gyor/KQIZIeL4/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-pecsi-mfc/UyQMLcyn/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:44</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.48</v>
+        <v>3.3</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.57</v>
+        <v>3.38</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:44</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.5</v>
+        <v>3.03</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.86</v>
+        <v>3.02</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:44</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-mosonmagyarovari-te/joRIMwMu/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-haladas/GhCrHZkH/</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -6101,14 +6101,14 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,11 +6116,11 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3.52</v>
+        <v>2.47</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:48</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.28</v>
+        <v>3.14</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:48</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.13</v>
+        <v>2.99</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>03/09/2023 16:51</t>
+          <t>03/09/2023 16:48</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-vasas/Q3JVJy6b/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-szeged-csanad-ga/EPkD1fjU/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.32</v>
+        <v>1.93</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>03/09/2023 16:44</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.3</v>
+        <v>3.48</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.38</v>
+        <v>3.57</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>03/09/2023 16:44</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.03</v>
+        <v>3.5</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.02</v>
+        <v>3.86</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>03/09/2023 16:44</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-haladas/GhCrHZkH/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-mosonmagyarovari-te/joRIMwMu/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.48</v>
+        <v>2.82</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,11 +6300,11 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.47</v>
+        <v>3.52</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>03/09/2023 16:48</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="N64" t="n">
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>03/09/2023 16:48</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.62</v>
+        <v>2.32</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.99</v>
+        <v>2.13</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>03/09/2023 16:48</t>
+          <t>03/09/2023 16:51</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-szeged-csanad-ga/EPkD1fjU/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-vasas/Q3JVJy6b/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Gyirmot</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Siofok</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
       <c r="J68" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>24/09/2023 16:31</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.27</v>
+        <v>3.78</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.49</v>
+        <v>3.71</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>24/09/2023 16:46</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.9</v>
+        <v>4.55</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>24/09/2023 16:31</t>
+          <t>24/09/2023 16:45</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-siofok/fqBnGg5N/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-gyirmot-fc-gyor/29AjFDKT/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.47</v>
+        <v>2.12</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:57</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.18</v>
+        <v>3.26</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.23</v>
+        <v>3.06</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:50</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.4</v>
+        <v>3.87</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.92</v>
+        <v>3.85</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:57</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-nyiregyhaza/Emv9Xfzb/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-csakvari/6Nz1ZG5o/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,48 +6852,48 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.76</v>
+        <v>2.2</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
+          <t>24/09/2023 16:56</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>23/09/2023 05:13</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>23/09/2023 05:13</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
           <t>24/09/2023 16:45</t>
         </is>
       </c>
-      <c r="N70" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>23/09/2023 05:13</t>
-        </is>
-      </c>
-      <c r="P70" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:45</t>
-        </is>
-      </c>
-      <c r="R70" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>23/09/2023 05:13</t>
-        </is>
-      </c>
-      <c r="T70" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:45</t>
-        </is>
-      </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-gyirmot-fc-gyor/29AjFDKT/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-bvsc-zuglo/4IdIAXSp/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.2</v>
+        <v>2.47</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.31</v>
+        <v>3.18</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.3</v>
+        <v>3.23</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.62</v>
+        <v>3.4</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.34</v>
+        <v>2.92</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/09/2023 16:45</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-bvsc-zuglo/4IdIAXSp/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-nyiregyhaza/Emv9Xfzb/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,14 +7021,14 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.12</v>
+        <v>1.81</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:57</t>
+          <t>24/09/2023 16:31</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.06</v>
+        <v>3.49</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:50</t>
+          <t>24/09/2023 16:46</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.87</v>
+        <v>3.9</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.85</v>
+        <v>4.55</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>24/09/2023 16:57</t>
+          <t>24/09/2023 16:31</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-csakvari/6Nz1ZG5o/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-siofok/fqBnGg5N/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>3.93</v>
+        <v>2.11</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>26/09/2023 03:11</t>
+          <t>26/09/2023 03:12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4.72</v>
+        <v>2.04</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>27/09/2023 15:24</t>
+          <t>27/09/2023 15:49</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.62</v>
+        <v>3.18</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>26/09/2023 03:11</t>
+          <t>26/09/2023 03:12</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.77</v>
+        <v>3.48</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>27/09/2023 14:04</t>
+          <t>27/09/2023 15:49</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.75</v>
+        <v>3.21</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>26/09/2023 03:11</t>
+          <t>26/09/2023 03:12</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.72</v>
+        <v>3.52</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>27/09/2023 15:24</t>
+          <t>27/09/2023 15:49</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-vasas/QoQaNACj/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-ajka/E1Jsnfki/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Vasas</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>2</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Ajka</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
       <c r="J76" t="n">
-        <v>2.11</v>
+        <v>3.93</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>26/09/2023 03:12</t>
+          <t>26/09/2023 03:11</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.04</v>
+        <v>4.72</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>27/09/2023 15:49</t>
+          <t>27/09/2023 15:24</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.18</v>
+        <v>3.62</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>26/09/2023 03:12</t>
+          <t>26/09/2023 03:11</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.48</v>
+        <v>3.77</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>27/09/2023 15:49</t>
+          <t>27/09/2023 14:04</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.21</v>
+        <v>1.75</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>26/09/2023 03:12</t>
+          <t>26/09/2023 03:11</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.52</v>
+        <v>1.72</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>27/09/2023 15:49</t>
+          <t>27/09/2023 15:24</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-ajka/E1Jsnfki/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/bvsc-zuglo-vasas/QoQaNACj/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>2.15</v>
+        <v>3.48</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.4</v>
+        <v>4.72</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:48</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.19</v>
+        <v>3.87</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:48</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.09</v>
+        <v>1.98</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.06</v>
+        <v>1.7</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>27/09/2023 17:45</t>
+          <t>27/09/2023 17:48</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-kazincbarcikai/neReOjcp/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-gyor/rsBbrClG/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:33</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.41</v>
+        <v>3.2</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.43</v>
+        <v>3.19</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:41</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.59</v>
+        <v>3.06</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>27/09/2023 17:33</t>
+          <t>27/09/2023 17:45</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-soroksar/hhIooE4c/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-kazincbarcikai/neReOjcp/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>3.48</v>
+        <v>2.06</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>4.72</v>
+        <v>2.05</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:48</t>
+          <t>27/09/2023 17:33</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.33</v>
+        <v>3.41</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.87</v>
+        <v>3.43</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:48</t>
+          <t>27/09/2023 17:41</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>1.98</v>
+        <v>3.1</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>1.7</v>
+        <v>3.59</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>27/09/2023 17:48</t>
+          <t>27/09/2023 17:33</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-gyor/rsBbrClG/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-soroksar/hhIooE4c/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.35</v>
+        <v>1.66</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.37</v>
+        <v>1.57</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>08/10/2023 16:40</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.12</v>
+        <v>3.65</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.21</v>
+        <v>4.15</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>08/10/2023 16:40</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.83</v>
+        <v>4.42</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.09</v>
+        <v>5.61</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>08/10/2023 16:40</t>
+          <t>08/10/2023 16:46</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-szeged-csanad-ga/Mi6JZv2D/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-budafoki-mte/r17FzLn7/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1.66</v>
+        <v>2.35</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.57</v>
+        <v>2.37</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:40</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.65</v>
+        <v>3.12</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>4.15</v>
+        <v>3.21</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:40</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>4.42</v>
+        <v>2.83</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>5.61</v>
+        <v>3.09</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>08/10/2023 16:46</t>
+          <t>08/10/2023 16:40</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-budafoki-mte/r17FzLn7/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-szeged-csanad-ga/Mi6JZv2D/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2.74</v>
+        <v>2</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.44</v>
+        <v>2.31</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>22/10/2023 16:57</t>
+          <t>22/10/2023 16:56</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.12</v>
+        <v>3.57</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.09</v>
+        <v>3.39</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>22/10/2023 16:48</t>
+          <t>22/10/2023 16:56</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.41</v>
+        <v>3.21</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.26</v>
+        <v>3.03</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>22/10/2023 16:57</t>
+          <t>22/10/2023 16:56</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyor/CfOrB1OJ/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-nyiregyhaza/lMxlkK10/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>2.17</v>
+        <v>2.74</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.4</v>
+        <v>3.44</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>22/10/2023 16:40</t>
+          <t>22/10/2023 16:57</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.15</v>
+        <v>3.12</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>22/10/2023 15:58</t>
+          <t>22/10/2023 16:48</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.09</v>
+        <v>2.41</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.21</v>
+        <v>2.26</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>22/10/2023 16:40</t>
+          <t>22/10/2023 16:57</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-kozarmisleny-se/6cmqj0nf/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-gyor/CfOrB1OJ/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Honved</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>22/10/2023 16:37</t>
+          <t>22/10/2023 16:40</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10368,11 +10368,11 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>22/10/2023 16:37</t>
+          <t>22/10/2023 15:58</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.65</v>
+        <v>3.09</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.88</v>
+        <v>3.21</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>22/10/2023 16:37</t>
+          <t>22/10/2023 16:40</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-honved/dntdmbWC/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-kozarmisleny-se/6cmqj0nf/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Honved</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2</v>
+        <v>2.58</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.31</v>
+        <v>2.62</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 16:37</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.57</v>
+        <v>2.98</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.39</v>
+        <v>3.04</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 16:37</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.21</v>
+        <v>2.65</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.03</v>
+        <v>2.88</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 16:37</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-nyiregyhaza/lMxlkK10/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-honved/dntdmbWC/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.76</v>
+        <v>2.58</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.63</v>
+        <v>2.71</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:40</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.39</v>
+        <v>3.06</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.95</v>
+        <v>3.14</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:40</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.18</v>
+        <v>2.58</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>5.27</v>
+        <v>2.71</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:40</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-ajka/8Q9E5uns/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-szeged-csanad-ga/tG1R2wWa/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>2.47</v>
+        <v>2.01</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.57</v>
+        <v>2.03</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>29/10/2023 12:39</t>
+          <t>29/10/2023 12:36</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.01</v>
+        <v>3.25</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.07</v>
+        <v>3.44</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>29/10/2023 12:39</t>
+          <t>29/10/2023 12:36</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>2.75</v>
+        <v>3.38</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>2.92</v>
+        <v>3.66</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>29/10/2023 12:39</t>
+          <t>29/10/2023 12:35</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-budafoki-mte/bBnQNv8P/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-bvsc-zuglo/2P2N3JGg/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>2.58</v>
+        <v>1.76</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.71</v>
+        <v>1.63</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>29/10/2023 12:40</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.06</v>
+        <v>3.39</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.14</v>
+        <v>3.95</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>29/10/2023 12:40</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>2.58</v>
+        <v>4.18</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.71</v>
+        <v>5.27</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>29/10/2023 12:40</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-szeged-csanad-ga/tG1R2wWa/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-ajka/8Q9E5uns/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>2.01</v>
+        <v>2.47</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.03</v>
+        <v>2.57</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>29/10/2023 12:36</t>
+          <t>29/10/2023 12:39</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.25</v>
+        <v>3.01</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.44</v>
+        <v>3.07</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>29/10/2023 12:36</t>
+          <t>29/10/2023 12:39</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.38</v>
+        <v>2.75</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>3.66</v>
+        <v>2.92</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>29/10/2023 12:35</t>
+          <t>29/10/2023 12:39</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/csakvari-bvsc-zuglo/2P2N3JGg/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-budafoki-mte/bBnQNv8P/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,14 +11345,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>3.69</v>
+        <v>2.84</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>4.37</v>
+        <v>3.11</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>05/11/2023 12:49</t>
+          <t>05/11/2023 12:37</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.26</v>
+        <v>3.14</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.47</v>
+        <v>3.31</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>05/11/2023 12:49</t>
+          <t>05/11/2023 12:37</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>1.91</v>
+        <v>2.33</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>05/11/2023 12:49</t>
+          <t>05/11/2023 12:37</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyor/l2tADfpI/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-soroksar/IyoECEaO/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>2.84</v>
+        <v>2.38</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>3.11</v>
+        <v>2.48</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>05/11/2023 12:37</t>
+          <t>05/11/2023 12:40</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.14</v>
+        <v>3.09</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.31</v>
+        <v>3.27</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>05/11/2023 12:37</t>
+          <t>05/11/2023 12:40</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.33</v>
+        <v>2.8</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.3</v>
+        <v>2.87</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>05/11/2023 12:37</t>
+          <t>05/11/2023 12:40</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-soroksar/IyoECEaO/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-haladas/ABs6EzVB/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Gyirmot</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>2.41</v>
+        <v>3.69</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.78</v>
+        <v>4.37</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>05/11/2023 12:36</t>
+          <t>05/11/2023 12:49</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.12</v>
+        <v>3.26</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2.92</v>
+        <v>3.47</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>05/11/2023 11:01</t>
+          <t>05/11/2023 12:49</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.74</v>
+        <v>1.91</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.81</v>
+        <v>1.85</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>05/11/2023 12:36</t>
+          <t>05/11/2023 12:49</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-nyiregyhaza/KMlgHxog/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/pecsi-mfc-gyor/l2tADfpI/</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -11713,14 +11713,14 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J123" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>2.48</v>
+        <v>2.78</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>05/11/2023 12:40</t>
+          <t>05/11/2023 12:36</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3.09</v>
+        <v>3.12</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.27</v>
+        <v>2.92</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>05/11/2023 12:40</t>
+          <t>05/11/2023 11:01</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>2.87</v>
+        <v>2.81</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>05/11/2023 12:40</t>
+          <t>05/11/2023 12:36</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kazincbarcikai-haladas/ABs6EzVB/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyirmot-fc-gyor-nyiregyhaza/KMlgHxog/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,14 +11805,14 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,15 +11820,15 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>05/11/2023 16:34</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.23</v>
+        <v>3.31</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>05/11/2023 16:34</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.45</v>
+        <v>3.88</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>3.82</v>
+        <v>4.32</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>05/11/2023 16:34</t>
+          <t>05/11/2023 16:44</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-tiszakecske/EqlcGd0a/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-budafoki-mte/dSqIBYEU/</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -11989,14 +11989,14 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:34</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.31</v>
+        <v>3.23</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:34</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>3.88</v>
+        <v>3.45</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>4.32</v>
+        <v>3.82</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>05/11/2023 16:44</t>
+          <t>05/11/2023 16:34</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-budafoki-mte/dSqIBYEU/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-tiszakecske/EqlcGd0a/</t>
         </is>
       </c>
     </row>
@@ -12165,71 +12165,71 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Soroksar</t>
+          <t>Budafoki</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Mosonmagyarovari TE</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>11/11/2023 01:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>2.65</v>
+        <v>1.79</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>12/11/2023 12:54</t>
+          <t>12/11/2023 12:40</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.04</v>
+        <v>3.53</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>11/11/2023 01:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>2.81</v>
+        <v>3.58</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>12/11/2023 12:54</t>
+          <t>12/11/2023 12:40</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>3.2</v>
+        <v>4.57</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>11/11/2023 01:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>3.08</v>
+        <v>4.57</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>12/11/2023 12:54</t>
+          <t>12/11/2023 12:40</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-pecsi-mfc/hlSZTFUb/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-mosonmagyarovari-te/EcTVUeFh/</t>
         </is>
       </c>
     </row>
@@ -12257,71 +12257,71 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Szeged</t>
+          <t>BVSC-Zuglo</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2.89</v>
+        <v>1.51</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>11/11/2023 01:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>3.45</v>
+        <v>1.45</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>12/11/2023 12:48</t>
+          <t>12/11/2023 12:46</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>2.99</v>
+        <v>4</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>11/11/2023 01:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.23</v>
+        <v>4.45</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>12/11/2023 12:48</t>
+          <t>12/11/2023 12:46</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>2.35</v>
+        <v>5.28</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>11/11/2023 01:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T129" t="n">
-        <v>2.18</v>
+        <v>7.01</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>12/11/2023 12:48</t>
+          <t>12/11/2023 12:46</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-szeged-csanad-ga/xvwL85bj/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-bvsc-zuglo/MkBOWHpt/</t>
         </is>
       </c>
     </row>
@@ -12349,71 +12349,71 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Budafoki</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Mosonmagyarovari TE</t>
+          <t>Szeged</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>1.67</v>
+        <v>2.89</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 01:12</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.79</v>
+        <v>3.45</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>12/11/2023 12:40</t>
+          <t>12/11/2023 12:48</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.53</v>
+        <v>2.99</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 01:12</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.58</v>
+        <v>3.23</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>12/11/2023 12:40</t>
+          <t>12/11/2023 12:48</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>4.57</v>
+        <v>2.35</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 01:12</t>
         </is>
       </c>
       <c r="T130" t="n">
-        <v>4.57</v>
+        <v>2.18</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>12/11/2023 12:40</t>
+          <t>12/11/2023 12:48</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-mosonmagyarovari-te/EcTVUeFh/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-szeged-csanad-ga/xvwL85bj/</t>
         </is>
       </c>
     </row>
@@ -12441,71 +12441,71 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Soroksar</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>BVSC-Zuglo</t>
+          <t>Pecsi MFC</t>
         </is>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1.51</v>
+        <v>2.17</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 01:12</t>
         </is>
       </c>
       <c r="L131" t="n">
-        <v>1.45</v>
+        <v>2.65</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>12/11/2023 12:46</t>
+          <t>12/11/2023 12:54</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>4</v>
+        <v>3.04</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 01:12</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>4.45</v>
+        <v>2.81</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>12/11/2023 12:46</t>
+          <t>12/11/2023 12:54</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>5.28</v>
+        <v>3.2</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 01:12</t>
         </is>
       </c>
       <c r="T131" t="n">
-        <v>7.01</v>
+        <v>3.08</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>12/11/2023 12:46</t>
+          <t>12/11/2023 12:54</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-bvsc-zuglo/MkBOWHpt/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-pecsi-mfc/hlSZTFUb/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Tiszakecske</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Kazincbarcikai</t>
+          <t>Gyirmot</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>1.44</v>
+        <v>2.63</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.38</v>
+        <v>2.71</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>12/11/2023 16:45</t>
+          <t>12/11/2023 16:42</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>4.19</v>
+        <v>3.1</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>12/11/2023 16:45</t>
+          <t>12/11/2023 16:42</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>5.81</v>
+        <v>2.51</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>8.300000000000001</v>
+        <v>2.67</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>12/11/2023 16:45</t>
+          <t>12/11/2023 16:42</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-kazincbarcikai/APMvTZq5/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-gyirmot-fc-gyor/fFmG9oqp/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Csakvari</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>3.03</v>
+        <v>1.96</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>3.56</v>
+        <v>2.02</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>12/11/2023 16:45</t>
+          <t>12/11/2023 16:49</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.27</v>
+        <v>3.33</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.39</v>
+        <v>3.33</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>12/11/2023 16:45</t>
+          <t>12/11/2023 16:49</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>2.15</v>
+        <v>3.42</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2.08</v>
+        <v>3.83</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>12/11/2023 16:45</t>
+          <t>12/11/2023 16:49</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-vasas/lGLrSgaB/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-csakvari/KzURVy0n/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Csakvari</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J135" t="n">
-        <v>1.96</v>
+        <v>3.03</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.02</v>
+        <v>3.56</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>12/11/2023 16:49</t>
+          <t>12/11/2023 16:45</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.33</v>
+        <v>3.27</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.33</v>
+        <v>3.39</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>12/11/2023 16:49</t>
+          <t>12/11/2023 16:45</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.42</v>
+        <v>2.15</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>3.83</v>
+        <v>2.08</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>12/11/2023 16:49</t>
+          <t>12/11/2023 16:45</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-csakvari/KzURVy0n/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-vasas/lGLrSgaB/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Tiszakecske</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="G136" t="n">
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Kazincbarcikai</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Gyirmot</t>
-        </is>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
       <c r="J136" t="n">
-        <v>2.63</v>
+        <v>1.44</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.71</v>
+        <v>1.38</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>12/11/2023 16:42</t>
+          <t>12/11/2023 16:45</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.1</v>
+        <v>4.19</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>12/11/2023 16:42</t>
+          <t>12/11/2023 16:45</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>2.51</v>
+        <v>5.81</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>2.67</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>12/11/2023 16:42</t>
+          <t>12/11/2023 16:45</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-gyirmot-fc-gyor/fFmG9oqp/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-kazincbarcikai/APMvTZq5/</t>
         </is>
       </c>
     </row>
@@ -13545,30 +13545,30 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Ajka</t>
+          <t>Kozarmisleny SE</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Haladas</t>
+          <t>Siofok</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>26/11/2023 10:42</t>
+          <t>25/11/2023 09:42</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>2.01</v>
+        <v>1.68</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
@@ -13576,15 +13576,15 @@
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.21</v>
+        <v>3.53</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>26/11/2023 10:42</t>
+          <t>25/11/2023 09:42</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.43</v>
+        <v>3.85</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -13592,24 +13592,24 @@
         </is>
       </c>
       <c r="R143" t="n">
-        <v>2.97</v>
+        <v>4.05</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>26/11/2023 10:42</t>
+          <t>25/11/2023 09:42</t>
         </is>
       </c>
       <c r="T143" t="n">
-        <v>3.72</v>
+        <v>4.94</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>26/11/2023 16:51</t>
+          <t>26/11/2023 16:11</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-haladas/IgIJT6zG/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-siofok/GUyP7PDd/</t>
         </is>
       </c>
     </row>
@@ -13637,30 +13637,30 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Kozarmisleny SE</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Siofok</t>
+          <t>Haladas</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>25/11/2023 09:42</t>
+          <t>26/11/2023 10:42</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.68</v>
+        <v>2.01</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
@@ -13668,15 +13668,15 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.53</v>
+        <v>3.21</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>25/11/2023 09:42</t>
+          <t>26/11/2023 10:42</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.85</v>
+        <v>3.43</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -13684,24 +13684,24 @@
         </is>
       </c>
       <c r="R144" t="n">
-        <v>4.05</v>
+        <v>2.97</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>25/11/2023 09:42</t>
+          <t>26/11/2023 10:42</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>4.94</v>
+        <v>3.72</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>26/11/2023 16:11</t>
+          <t>26/11/2023 16:51</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/kozarmisleny-se-siofok/GUyP7PDd/</t>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/ajka-haladas/IgIJT6zG/</t>
         </is>
       </c>
     </row>
@@ -13794,6 +13794,1202 @@
       <c r="V145" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/vasas-gyor/CGHNSQkM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45263.54166666666</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Budafoki</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>2</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Kazincbarcikai</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:41</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:41</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:41</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/budafoki-mte-kazincbarcikai/KMQnTf12/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45263.54166666666</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Siofok</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Mosonmagyarovari TE</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>3</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:13</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:13</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:13</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-mosonmagyarovari-te/Kp9ZJjOl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45263.54166666666</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Soroksar</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Vasas</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:45</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:45</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:45</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/soroksar-vasas/bDPjSEG8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45263.70833333334</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Gyor</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Ajka</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>02/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:54</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>02/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>02/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>6</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:54</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/gyor-ajka/SnUfRYVE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45263.70833333334</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Haladas</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Gyirmot</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>02/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:50</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>02/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:50</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>02/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:50</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/haladas-gyirmot-fc-gyor/6wTbQhoL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45263.70833333334</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Honved</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>BVSC-Zuglo</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>02/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>02/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>02/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-bvsc-zuglo/l2I3PC0R/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45263.70833333334</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Szeged</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Pecsi MFC</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>02/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:54</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>02/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>02/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:54</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-pecsi-mfc/Gl06K2c2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45263.70833333334</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Tiszakecske</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Csakvari</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>02/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:37</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>02/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:37</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>02/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:37</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/tiszakecske-csakvari/QN9VKW8r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45264.75</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Nyiregyhaza</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>5</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Kozarmisleny SE</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>03/12/2023 06:13</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>04/12/2023 17:55</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>03/12/2023 06:13</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>04/12/2023 17:55</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>03/12/2023 06:13</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>04/12/2023 17:55</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/nyiregyhaza-kozarmisleny-se/4Ed2Lrrd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Mosonmagyarovari TE</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Pecsi MFC</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:17</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:17</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:02</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/mosonmagyarovari-te-pecsi-mfc/OhA4X9hl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Siofok</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Nyiregyhaza</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>3</v>
+      </c>
+      <c r="J156" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:38</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:38</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:38</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/siofok-nyiregyhaza/by8wJAwe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45270.70833333334</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Honved</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>2</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Csakvari</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>2</v>
+      </c>
+      <c r="J157" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>09/12/2023 05:13</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>09/12/2023 05:13</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:57</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>09/12/2023 05:13</t>
+        </is>
+      </c>
+      <c r="T157" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/honved-csakvari/4lwvHl87/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>hungary</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>merkantil-bank-liga</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45270.70833333334</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Szeged</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>3</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Kazincbarcikai</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>09/12/2023 05:13</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:46</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>09/12/2023 05:13</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:46</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>09/12/2023 05:13</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:46</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/hungary/merkantil-bank-liga/szeged-csanad-ga-kazincbarcikai/p2B0Ykwr/</t>
         </is>
       </c>
     </row>
